--- a/XLS_qCEST_MultiB0B1.xlsx
+++ b/XLS_qCEST_MultiB0B1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\radiologie\mrt-probanden\AG_Zaiss\7TqCEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyrachfx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7E5D0-A58C-4BE1-AA83-94AEC76B635C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370BDD6-5D5D-4928-86EA-175F679B7ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,7 +832,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="19">
-        <v>1.7968999999999999</v>
+        <v>1.7917000000000001</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -1205,22 +1205,22 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.97950278540165781</v>
+        <v>0.99408175575171787</v>
       </c>
       <c r="C24" s="3">
-        <v>0.96753877231608909</v>
+        <v>0.98515515011686816</v>
       </c>
       <c r="D24" s="3">
-        <v>0.98644885956672068</v>
+        <v>0.98954494133602744</v>
       </c>
       <c r="E24" s="3">
-        <v>0.9753572494449656</v>
+        <v>0.98339480773616428</v>
       </c>
       <c r="F24" s="3">
-        <v>0.97591877816410411</v>
+        <v>0.98337084565678556</v>
       </c>
       <c r="G24" s="3">
-        <v>0.97058378515068877</v>
+        <v>0.97363858172893236</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -1231,22 +1231,22 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.97533949707409839</v>
+        <v>0.99294671317974659</v>
       </c>
       <c r="C25" s="3">
-        <v>0.96683936910232582</v>
+        <v>0.98546528961374791</v>
       </c>
       <c r="D25" s="3">
-        <v>0.97811340092875465</v>
+        <v>0.97950145834125868</v>
       </c>
       <c r="E25" s="3">
-        <v>0.96375267232256767</v>
+        <v>0.96305079021604678</v>
       </c>
       <c r="F25" s="3">
-        <v>0.95717382832788866</v>
+        <v>0.95993948700338794</v>
       </c>
       <c r="G25" s="3">
-        <v>0.94291406915360421</v>
+        <v>0.92599268739071938</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -1257,22 +1257,22 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.97722965803567086</v>
+        <v>0.98680032430632736</v>
       </c>
       <c r="C26" s="3">
-        <v>0.96086705012907658</v>
+        <v>0.97917479312639111</v>
       </c>
       <c r="D26" s="3">
-        <v>0.97211414395146067</v>
+        <v>0.961426682578855</v>
       </c>
       <c r="E26" s="3">
-        <v>0.94721447141766224</v>
+        <v>0.93095090490649413</v>
       </c>
       <c r="F26" s="3">
-        <v>0.93120324744499294</v>
+        <v>0.90665080300960621</v>
       </c>
       <c r="G26" s="3">
-        <v>0.88002866091010001</v>
+        <v>0.8276643958643719</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -1283,22 +1283,22 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.9721412960514122</v>
+        <v>0.97714753907081764</v>
       </c>
       <c r="C27" s="3">
-        <v>0.95509212724794923</v>
+        <v>0.95361652049113399</v>
       </c>
       <c r="D27" s="3">
-        <v>0.9437165672057739</v>
+        <v>0.91153433050218347</v>
       </c>
       <c r="E27" s="3">
-        <v>0.91015762234798969</v>
+        <v>0.85372356319662024</v>
       </c>
       <c r="F27" s="3">
-        <v>0.86587499009384294</v>
+        <v>0.79601356110743671</v>
       </c>
       <c r="G27" s="3">
-        <v>0.78199136842342454</v>
+        <v>0.67772790584028686</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -1309,22 +1309,22 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.97079246183065027</v>
+        <v>0.96894905741843673</v>
       </c>
       <c r="C28" s="3">
-        <v>0.94240782443263926</v>
+        <v>0.92981555852018061</v>
       </c>
       <c r="D28" s="3">
-        <v>0.91431969810270064</v>
+        <v>0.86311803867585102</v>
       </c>
       <c r="E28" s="3">
-        <v>0.87403808576591469</v>
+        <v>0.79522385712177857</v>
       </c>
       <c r="F28" s="3">
-        <v>0.82396075950233905</v>
+        <v>0.71892007535678171</v>
       </c>
       <c r="G28" s="3">
-        <v>0.71320847430881895</v>
+        <v>0.58683035189574262</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="5"/>
@@ -1335,22 +1335,22 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.95754266033127844</v>
+        <v>0.94289646352425005</v>
       </c>
       <c r="C29" s="3">
-        <v>0.91973799855093863</v>
+        <v>0.88343518494450257</v>
       </c>
       <c r="D29" s="3">
-        <v>0.86083710076386843</v>
+        <v>0.77499546888491799</v>
       </c>
       <c r="E29" s="3">
-        <v>0.80185512743654785</v>
+        <v>0.68042287213252028</v>
       </c>
       <c r="F29" s="3">
-        <v>0.7279989937220106</v>
+        <v>0.58941058863803009</v>
       </c>
       <c r="G29" s="3">
-        <v>0.60983530987875734</v>
+        <v>0.46438789102335626</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -1361,22 +1361,22 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.94141368587464846</v>
+        <v>0.90733531617780172</v>
       </c>
       <c r="C30" s="3">
-        <v>0.88771442656624089</v>
+        <v>0.83327927307307581</v>
       </c>
       <c r="D30" s="3">
-        <v>0.80482560491710475</v>
+        <v>0.69512479696209406</v>
       </c>
       <c r="E30" s="3">
-        <v>0.73386774057039528</v>
+        <v>0.59528923856942539</v>
       </c>
       <c r="F30" s="3">
-        <v>0.6488384941587908</v>
+        <v>0.50286902611813555</v>
       </c>
       <c r="G30" s="3">
-        <v>0.53781734281333338</v>
+        <v>0.39434442741125048</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -1387,22 +1387,22 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.93950751105260366</v>
+        <v>0.90225805536735426</v>
       </c>
       <c r="C31" s="3">
-        <v>0.88063625622144381</v>
+        <v>0.82489073422718051</v>
       </c>
       <c r="D31" s="3">
-        <v>0.80305363810989383</v>
+        <v>0.68310747218729084</v>
       </c>
       <c r="E31" s="3">
-        <v>0.72190642173690989</v>
+        <v>0.5840867372969244</v>
       </c>
       <c r="F31" s="3">
-        <v>0.63884387006139531</v>
+        <v>0.50195880020852213</v>
       </c>
       <c r="G31" s="3">
-        <v>0.53233002631590964</v>
+        <v>0.388437264844399</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -1413,22 +1413,22 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.93345832928061845</v>
+        <v>0.8955335255602872</v>
       </c>
       <c r="C32" s="3">
-        <v>0.882044743381732</v>
+        <v>0.81514401645031043</v>
       </c>
       <c r="D32" s="3">
-        <v>0.78970087279856482</v>
+        <v>0.6781344803475069</v>
       </c>
       <c r="E32" s="3">
-        <v>0.72016839524765452</v>
+        <v>0.57953395851506506</v>
       </c>
       <c r="F32" s="3">
-        <v>0.63730259985258464</v>
+        <v>0.49495732986432767</v>
       </c>
       <c r="G32" s="3">
-        <v>0.5268427098184858</v>
+        <v>0.38253010227754747</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -1439,22 +1439,22 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.92664089682160156</v>
+        <v>0.89620369129095323</v>
       </c>
       <c r="C33" s="3">
-        <v>0.87262740301486708</v>
+        <v>0.80709818144180878</v>
       </c>
       <c r="D33" s="3">
-        <v>0.78788552940173329</v>
+        <v>0.66771928871176356</v>
       </c>
       <c r="E33" s="3">
-        <v>0.70627865665409928</v>
+        <v>0.56970610679370526</v>
       </c>
       <c r="F33" s="3">
-        <v>0.62550828147676607</v>
+        <v>0.4856908995847764</v>
       </c>
       <c r="G33" s="3">
-        <v>0.51944141624248674</v>
+        <v>0.38027250860570655</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -1465,22 +1465,22 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.92800351177062734</v>
+        <v>0.89200973395819128</v>
       </c>
       <c r="C34" s="3">
-        <v>0.86671209787682491</v>
+        <v>0.80048549711037054</v>
       </c>
       <c r="D34" s="3">
-        <v>0.78220959321498462</v>
+        <v>0.6637961318381429</v>
       </c>
       <c r="E34" s="3">
-        <v>0.6974619471979373</v>
+        <v>0.56245658977701574</v>
       </c>
       <c r="F34" s="3">
-        <v>0.62165456843957489</v>
+        <v>0.48329013467654525</v>
       </c>
       <c r="G34" s="3">
-        <v>0.51204012266648757</v>
+        <v>0.37801491493386563</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -1491,22 +1491,22 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.9201805557518985</v>
+        <v>0.88014305002431525</v>
       </c>
       <c r="C35" s="3">
-        <v>0.86011208671148587</v>
+        <v>0.7952845808693727</v>
       </c>
       <c r="D35" s="3">
-        <v>0.76839298510181142</v>
+        <v>0.64882176889189136</v>
       </c>
       <c r="E35" s="3">
-        <v>0.69017173260456688</v>
+        <v>0.54974621428062831</v>
       </c>
       <c r="F35" s="3">
-        <v>0.60635799303649729</v>
+        <v>0.46924178660718274</v>
       </c>
       <c r="G35" s="3">
-        <v>0.50325264798217906</v>
+        <v>0.36785815164680247</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -1517,22 +1517,22 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.9088961808924354</v>
+        <v>0.87457677456440452</v>
       </c>
       <c r="C36" s="3">
-        <v>0.85009099343532712</v>
+        <v>0.77914839341323594</v>
       </c>
       <c r="D36" s="3">
-        <v>0.7547790110334609</v>
+        <v>0.63982306347677431</v>
       </c>
       <c r="E36" s="3">
-        <v>0.67678157962651198</v>
+        <v>0.54301083732662048</v>
       </c>
       <c r="F36" s="3">
-        <v>0.60481206803382848</v>
+        <v>0.465257301097453</v>
       </c>
       <c r="G36" s="3">
-        <v>0.49446517329787065</v>
+        <v>0.3577013883597393</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5"/>
@@ -1543,22 +1543,22 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.90290124350229994</v>
+        <v>0.85822480380037114</v>
       </c>
       <c r="C37" s="3">
-        <v>0.84065991613082724</v>
+        <v>0.7621419441629369</v>
       </c>
       <c r="D37" s="3">
-        <v>0.74276614081408998</v>
+        <v>0.62579813843896581</v>
       </c>
       <c r="E37" s="3">
-        <v>0.66653415055748744</v>
+        <v>0.53165499394392091</v>
       </c>
       <c r="F37" s="3">
-        <v>0.59096105387013131</v>
+        <v>0.45318254333994351</v>
       </c>
       <c r="G37" s="3">
-        <v>0.48303200613596303</v>
+        <v>0.35060951027032711</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="5"/>
@@ -1569,22 +1569,22 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.89670889422432909</v>
+        <v>0.85076606706032654</v>
       </c>
       <c r="C38" s="3">
-        <v>0.82988289349240563</v>
+        <v>0.7593133212430081</v>
       </c>
       <c r="D38" s="3">
-        <v>0.73233163095163401</v>
+        <v>0.61228880445154477</v>
       </c>
       <c r="E38" s="3">
-        <v>0.65369973575531115</v>
+        <v>0.5177648334813626</v>
       </c>
       <c r="F38" s="3">
-        <v>0.58611536733404357</v>
+        <v>0.44672178533768364</v>
       </c>
       <c r="G38" s="3">
-        <v>0.47159883897405541</v>
+        <v>0.34351763218091491</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="5"/>
@@ -1595,22 +1595,22 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.89090213965006759</v>
+        <v>0.84152672470765677</v>
       </c>
       <c r="C39" s="3">
-        <v>0.81497292197505611</v>
+        <v>0.73938370176690227</v>
       </c>
       <c r="D39" s="3">
-        <v>0.72636792902506531</v>
+        <v>0.60005494203498999</v>
       </c>
       <c r="E39" s="3">
-        <v>0.64374643792039021</v>
+        <v>0.51486689138566666</v>
       </c>
       <c r="F39" s="3">
-        <v>0.56944445732476812</v>
+        <v>0.43843115414700323</v>
       </c>
       <c r="G39" s="3">
-        <v>0.46431784623381478</v>
+        <v>0.33437912695409816</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="5"/>
@@ -1621,22 +1621,22 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.88607277070062329</v>
+        <v>0.83516843425894327</v>
       </c>
       <c r="C40" s="3">
-        <v>0.8171269866058799</v>
+        <v>0.73072252170570962</v>
       </c>
       <c r="D40" s="3">
-        <v>0.71786890224996935</v>
+        <v>0.58871964227321072</v>
       </c>
       <c r="E40" s="3">
-        <v>0.6437390083359007</v>
+        <v>0.50608345520008535</v>
       </c>
       <c r="F40" s="3">
-        <v>0.56676263645248026</v>
+        <v>0.42866868127027796</v>
       </c>
       <c r="G40" s="3">
-        <v>0.45703685349357409</v>
+        <v>0.32524062172728141</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -1647,22 +1647,22 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.88973589143385889</v>
+        <v>0.83103449967561394</v>
       </c>
       <c r="C41" s="3">
-        <v>0.8122550223774414</v>
+        <v>0.72753871321188945</v>
       </c>
       <c r="D41" s="3">
-        <v>0.71478282426930129</v>
+        <v>0.58384028981724279</v>
       </c>
       <c r="E41" s="3">
-        <v>0.63047191609578956</v>
+        <v>0.4965195925348711</v>
       </c>
       <c r="F41" s="3">
-        <v>0.55713083159484955</v>
+        <v>0.41970123028992867</v>
       </c>
       <c r="G41" s="3">
-        <v>0.44746482893640815</v>
+        <v>0.31649613133156229</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
@@ -1673,22 +1673,22 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.88980837755663167</v>
+        <v>0.83106587484764394</v>
       </c>
       <c r="C42" s="3">
-        <v>0.81957110156433177</v>
+        <v>0.73038350327699164</v>
       </c>
       <c r="D42" s="3">
-        <v>0.70772734875885079</v>
+        <v>0.58149458681986499</v>
       </c>
       <c r="E42" s="3">
-        <v>0.63014294003348581</v>
+        <v>0.48707658207739368</v>
       </c>
       <c r="F42" s="3">
-        <v>0.54553033805349549</v>
+        <v>0.40728723376456483</v>
       </c>
       <c r="G42" s="3">
-        <v>0.43789280437924216</v>
+        <v>0.30775164093584317</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -1699,22 +1699,22 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.8816240767521093</v>
+        <v>0.82885064113293216</v>
       </c>
       <c r="C43" s="3">
-        <v>0.80996297085519298</v>
+        <v>0.72756554787669858</v>
       </c>
       <c r="D43" s="3">
-        <v>0.6994762425267016</v>
+        <v>0.57588900623931871</v>
       </c>
       <c r="E43" s="3">
-        <v>0.61252881458103525</v>
+        <v>0.48043887620139059</v>
       </c>
       <c r="F43" s="3">
-        <v>0.53156393275475056</v>
+        <v>0.40226858792858422</v>
       </c>
       <c r="G43" s="3">
-        <v>0.41573378164258468</v>
+        <v>0.29324487484539563</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="5"/>
@@ -1725,22 +1725,22 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.8803635677385151</v>
+        <v>0.82937174966663374</v>
       </c>
       <c r="C44" s="3">
-        <v>0.80384437099986528</v>
+        <v>0.72718957778648563</v>
       </c>
       <c r="D44" s="3">
-        <v>0.68952992773008659</v>
+        <v>0.56565855297631651</v>
       </c>
       <c r="E44" s="3">
-        <v>0.59839999942422839</v>
+        <v>0.47080554868444691</v>
       </c>
       <c r="F44" s="3">
-        <v>0.51402040868127852</v>
+        <v>0.38819337555651007</v>
       </c>
       <c r="G44" s="3">
-        <v>0.39357475890592719</v>
+        <v>0.27873810875494809</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="5"/>
@@ -1751,22 +1751,22 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.86826464317658036</v>
+        <v>0.83159112368053711</v>
       </c>
       <c r="C45" s="3">
-        <v>0.78369993157742834</v>
+        <v>0.71897257109753343</v>
       </c>
       <c r="D45" s="3">
-        <v>0.66815123347298422</v>
+        <v>0.55965201013581711</v>
       </c>
       <c r="E45" s="3">
-        <v>0.57447548635547041</v>
+        <v>0.45622682942598375</v>
       </c>
       <c r="F45" s="3">
-        <v>0.4933754851153439</v>
+        <v>0.36889001784946862</v>
       </c>
       <c r="G45" s="3">
-        <v>0.3743299483877422</v>
+        <v>0.2632762069862169</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="5"/>
@@ -1777,22 +1777,22 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.86075727948322356</v>
+        <v>0.82787164592609197</v>
       </c>
       <c r="C46" s="3">
-        <v>0.78582381371280396</v>
+        <v>0.71900702219369195</v>
       </c>
       <c r="D46" s="3">
-        <v>0.6631671283022168</v>
+        <v>0.54422986076968383</v>
       </c>
       <c r="E46" s="3">
-        <v>0.5684971534103449</v>
+        <v>0.43614444905457095</v>
       </c>
       <c r="F46" s="3">
-        <v>0.47439618069268391</v>
+        <v>0.34850523470477424</v>
       </c>
       <c r="G46" s="3">
-        <v>0.3550851378695572</v>
+        <v>0.24781430521748568</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -1803,22 +1803,22 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.86064663204068781</v>
+        <v>0.82239213280133039</v>
       </c>
       <c r="C47" s="3">
-        <v>0.76259432863231613</v>
+        <v>0.70677936569818167</v>
       </c>
       <c r="D47" s="3">
-        <v>0.64018366137529448</v>
+        <v>0.52589716023939692</v>
       </c>
       <c r="E47" s="3">
-        <v>0.54529827113025164</v>
+        <v>0.42118922465349479</v>
       </c>
       <c r="F47" s="3">
-        <v>0.44761064413629525</v>
+        <v>0.32833958035813254</v>
       </c>
       <c r="G47" s="3">
-        <v>0.3233033498256897</v>
+        <v>0.22470091162409858</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
@@ -1829,22 +1829,22 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.84194468525895239</v>
+        <v>0.81650554970512523</v>
       </c>
       <c r="C48" s="3">
-        <v>0.75339899601306193</v>
+        <v>0.69582449361597654</v>
       </c>
       <c r="D48" s="3">
-        <v>0.61107130108196528</v>
+        <v>0.50341669977744108</v>
       </c>
       <c r="E48" s="3">
-        <v>0.52137681314457129</v>
+        <v>0.39282747519842887</v>
       </c>
       <c r="F48" s="3">
-        <v>0.41379785777295514</v>
+        <v>0.29416015566619291</v>
       </c>
       <c r="G48" s="3">
-        <v>0.2915215617818222</v>
+        <v>0.20158751803071148</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
@@ -1855,22 +1855,22 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.83151438073137585</v>
+        <v>0.80854568488041467</v>
       </c>
       <c r="C49" s="3">
-        <v>0.73322429384371723</v>
+        <v>0.66843071956057942</v>
       </c>
       <c r="D49" s="3">
-        <v>0.57661781352091745</v>
+        <v>0.4681068012157914</v>
       </c>
       <c r="E49" s="3">
-        <v>0.47846176127482709</v>
+        <v>0.35517715177078579</v>
       </c>
       <c r="F49" s="3">
-        <v>0.36625304683670784</v>
+        <v>0.26267608586376667</v>
       </c>
       <c r="G49" s="3">
-        <v>0.24906264651452897</v>
+        <v>0.17591511335400578</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="5"/>
@@ -1881,22 +1881,22 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.80798354537265116</v>
+        <v>0.78283967170949476</v>
       </c>
       <c r="C50" s="3">
-        <v>0.69242722004457202</v>
+        <v>0.63018977523513109</v>
       </c>
       <c r="D50" s="3">
-        <v>0.52763369057924914</v>
+        <v>0.41238411046716533</v>
       </c>
       <c r="E50" s="3">
-        <v>0.41481681173638818</v>
+        <v>0.30581251384901187</v>
       </c>
       <c r="F50" s="3">
-        <v>0.31498994781347933</v>
+        <v>0.22013529586847239</v>
       </c>
       <c r="G50" s="3">
-        <v>0.20660373124723574</v>
+        <v>0.15024270867730008</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5"/>
@@ -1907,22 +1907,22 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.76330837688509889</v>
+        <v>0.73499090287667745</v>
       </c>
       <c r="C51" s="3">
-        <v>0.63718422530081398</v>
+        <v>0.55716539585913538</v>
       </c>
       <c r="D51" s="3">
-        <v>0.4412370521415101</v>
+        <v>0.34142851882325437</v>
       </c>
       <c r="E51" s="3">
-        <v>0.33017769076737624</v>
+        <v>0.24206960792701565</v>
       </c>
       <c r="F51" s="3">
-        <v>0.23311478965481369</v>
+        <v>0.17553588851504859</v>
       </c>
       <c r="G51" s="3">
-        <v>0.16622424262010874</v>
+        <v>0.12461232797954362</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
@@ -1933,22 +1933,22 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.66255955147256007</v>
+        <v>0.62080430662311337</v>
       </c>
       <c r="C52" s="3">
-        <v>0.50019438212914147</v>
+        <v>0.42044308904932598</v>
       </c>
       <c r="D52" s="3">
-        <v>0.30610548340563065</v>
+        <v>0.23664622749228353</v>
       </c>
       <c r="E52" s="3">
-        <v>0.21468312025918629</v>
+        <v>0.17090346238768619</v>
       </c>
       <c r="F52" s="3">
-        <v>0.1669577184903891</v>
+        <v>0.13031359745310492</v>
       </c>
       <c r="G52" s="3">
-        <v>0.12584475399298173</v>
+        <v>9.8981947281787164E-2</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
@@ -1959,22 +1959,22 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.37834666520513638</v>
+        <v>0.35931992569972143</v>
       </c>
       <c r="C53" s="3">
-        <v>0.24241829613023691</v>
+        <v>0.21939262928909181</v>
       </c>
       <c r="D53" s="3">
-        <v>0.15996844854990042</v>
+        <v>0.13758192701353783</v>
       </c>
       <c r="E53" s="3">
-        <v>0.12879693631190559</v>
+        <v>0.11117156861258187</v>
       </c>
       <c r="F53" s="3">
-        <v>9.968135239105555E-2</v>
+        <v>9.32531084052797E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.10210303417517878</v>
+        <v>8.3260593517801268E-2</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
@@ -1985,22 +1985,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>0.10319310073907589</v>
+        <v>7.3415539890531706E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>9.9704904326784333E-2</v>
+        <v>7.2502741426891268E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>8.7592631499799137E-2</v>
+        <v>7.4005119827092042E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>8.1505887070340399E-2</v>
+        <v>7.2116051794131941E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>7.0290736333939896E-2</v>
+        <v>7.1461371930516604E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>7.8361314357375839E-2</v>
+        <v>6.7539239753815372E-2</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
@@ -2011,22 +2011,22 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.4807877205587176</v>
+        <v>0.20950594440405162</v>
       </c>
       <c r="C55" s="3">
-        <v>0.2952528123529472</v>
+        <v>0.13601820639097312</v>
       </c>
       <c r="D55" s="3">
-        <v>0.17502194286632128</v>
+        <v>9.6324710230184962E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>0.13101619606387804</v>
+        <v>8.7927730137422E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>0.10425747627559741</v>
+        <v>7.6609905077898818E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.10276986255396311</v>
+        <v>7.6223685756411808E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
@@ -2037,22 +2037,22 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.72625280823734806</v>
+        <v>0.50879733838025332</v>
       </c>
       <c r="C56" s="3">
-        <v>0.53674042652097298</v>
+        <v>0.31560451633296394</v>
       </c>
       <c r="D56" s="3">
-        <v>0.32061370109588383</v>
+        <v>0.17355872426296115</v>
       </c>
       <c r="E56" s="3">
-        <v>0.22857320143555859</v>
+        <v>0.1320728735743778</v>
       </c>
       <c r="F56" s="3">
-        <v>0.15959421956766237</v>
+        <v>0.10898412442763973</v>
       </c>
       <c r="G56" s="3">
-        <v>0.12717841075055039</v>
+        <v>8.4908131759008257E-2</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="5"/>
@@ -2063,22 +2063,22 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.79748465695593374</v>
+        <v>0.69326892990938616</v>
       </c>
       <c r="C57" s="3">
-        <v>0.65374937523492171</v>
+        <v>0.49461887157970219</v>
       </c>
       <c r="D57" s="3">
-        <v>0.43785561446823501</v>
+        <v>0.27022283288505788</v>
       </c>
       <c r="E57" s="3">
-        <v>0.32653050057903699</v>
+        <v>0.19441278772397649</v>
       </c>
       <c r="F57" s="3">
-        <v>0.23509508278937996</v>
+        <v>0.14180404160127297</v>
       </c>
       <c r="G57" s="3">
-        <v>0.16248331646120273</v>
+        <v>0.10523163811371708</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
@@ -2089,22 +2089,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.85758764400316112</v>
+        <v>0.78423432150714023</v>
       </c>
       <c r="C58" s="3">
-        <v>0.73100230928838306</v>
+        <v>0.61046166548979297</v>
       </c>
       <c r="D58" s="3">
-        <v>0.54561777414425428</v>
+        <v>0.36570969114649421</v>
       </c>
       <c r="E58" s="3">
-        <v>0.41553564049575631</v>
+        <v>0.25884724067929726</v>
       </c>
       <c r="F58" s="3">
-        <v>0.29903350813329543</v>
+        <v>0.18220505132274795</v>
       </c>
       <c r="G58" s="3">
-        <v>0.19778822217185504</v>
+        <v>0.12555514446842589</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
@@ -2115,22 +2115,22 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.87245213589830406</v>
+        <v>0.81900679787642749</v>
       </c>
       <c r="C59" s="3">
-        <v>0.77499996265133664</v>
+        <v>0.67510675172851986</v>
       </c>
       <c r="D59" s="3">
-        <v>0.59589292014184125</v>
+        <v>0.43419065730704232</v>
       </c>
       <c r="E59" s="3">
-        <v>0.47522790228613643</v>
+        <v>0.31520358568939744</v>
       </c>
       <c r="F59" s="3">
-        <v>0.35481036177197522</v>
+        <v>0.22252751012632963</v>
       </c>
       <c r="G59" s="3">
-        <v>0.2352342795372202</v>
+        <v>0.14829961717895754</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
@@ -2141,22 +2141,22 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.89336614016502547</v>
+        <v>0.84447277425841949</v>
       </c>
       <c r="C60" s="3">
-        <v>0.79168638275104986</v>
+        <v>0.70955801185692535</v>
       </c>
       <c r="D60" s="3">
-        <v>0.63702146820808658</v>
+        <v>0.48596452577454763</v>
       </c>
       <c r="E60" s="3">
-        <v>0.51785602891582982</v>
+        <v>0.36395636340866261</v>
       </c>
       <c r="F60" s="3">
-        <v>0.3950341724785803</v>
+        <v>0.26137154175480853</v>
       </c>
       <c r="G60" s="3">
-        <v>0.27268033690258536</v>
+        <v>0.17104408988948919</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="5"/>
@@ -2167,22 +2167,22 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.89976133090977073</v>
+        <v>0.8549105838815394</v>
       </c>
       <c r="C61" s="3">
-        <v>0.81263311459424181</v>
+        <v>0.73003045891675278</v>
       </c>
       <c r="D61" s="3">
-        <v>0.66734319584524515</v>
+        <v>0.51941029910541214</v>
       </c>
       <c r="E61" s="3">
-        <v>0.54259432592802226</v>
+        <v>0.39907112391063315</v>
       </c>
       <c r="F61" s="3">
-        <v>0.42820673283565008</v>
+        <v>0.29089295066986265</v>
       </c>
       <c r="G61" s="3">
-        <v>0.29582797908568992</v>
+        <v>0.19206183008626798</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
@@ -2193,22 +2193,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.90371120322421228</v>
+        <v>0.85937552927033001</v>
       </c>
       <c r="C62" s="3">
-        <v>0.81941212197573321</v>
+        <v>0.73942541542662454</v>
       </c>
       <c r="D62" s="3">
-        <v>0.68184736441381011</v>
+        <v>0.5397020389918038</v>
       </c>
       <c r="E62" s="3">
-        <v>0.56952163911307352</v>
+        <v>0.41973148913439362</v>
       </c>
       <c r="F62" s="3">
-        <v>0.45732908698240143</v>
+        <v>0.31681895628252243</v>
       </c>
       <c r="G62" s="3">
-        <v>0.31897562126879453</v>
+        <v>0.2130795702830468</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
@@ -2219,22 +2219,22 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.90992061228494525</v>
+        <v>0.87003101706059072</v>
       </c>
       <c r="C63" s="3">
-        <v>0.83022157497578841</v>
+        <v>0.75177503871900564</v>
       </c>
       <c r="D63" s="3">
-        <v>0.70626069282255999</v>
+        <v>0.5656729836676051</v>
       </c>
       <c r="E63" s="3">
-        <v>0.60339578344179157</v>
+        <v>0.44919387254328103</v>
       </c>
       <c r="F63" s="3">
-        <v>0.48207075466934435</v>
+        <v>0.34121834196918838</v>
       </c>
       <c r="G63" s="3">
-        <v>0.34234928122387365</v>
+        <v>0.23012418981090724</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="5"/>
@@ -2245,22 +2245,22 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.91605156876685223</v>
+        <v>0.87951435751413531</v>
       </c>
       <c r="C64" s="3">
-        <v>0.8408274108072129</v>
+        <v>0.77027330228377289</v>
       </c>
       <c r="D64" s="3">
-        <v>0.72072059929342969</v>
+        <v>0.59020439024180515</v>
       </c>
       <c r="E64" s="3">
-        <v>0.62202806771383079</v>
+        <v>0.47369146118088767</v>
       </c>
       <c r="F64" s="3">
-        <v>0.50598849952099334</v>
+        <v>0.36265097769377563</v>
       </c>
       <c r="G64" s="3">
-        <v>0.36572294117895277</v>
+        <v>0.24716880933876767</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="5"/>
@@ -2271,22 +2271,22 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.91735075543587463</v>
+        <v>0.88207161784877464</v>
       </c>
       <c r="C65" s="3">
-        <v>0.8505580867948821</v>
+        <v>0.78440612675665811</v>
       </c>
       <c r="D65" s="3">
-        <v>0.73114841479166204</v>
+        <v>0.60908139942231687</v>
       </c>
       <c r="E65" s="3">
-        <v>0.64569178010680106</v>
+        <v>0.50010038882458785</v>
       </c>
       <c r="F65" s="3">
-        <v>0.52502719595263314</v>
+        <v>0.38510898970597929</v>
       </c>
       <c r="G65" s="3">
-        <v>0.38315825773339252</v>
+        <v>0.2641979241111862</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="5"/>
@@ -2297,22 +2297,22 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.92276211073528236</v>
+        <v>0.89096603838422128</v>
       </c>
       <c r="C66" s="3">
-        <v>0.85455781182691481</v>
+        <v>0.79423718038215896</v>
       </c>
       <c r="D66" s="3">
-        <v>0.73945607827224324</v>
+        <v>0.62635553593430382</v>
       </c>
       <c r="E66" s="3">
-        <v>0.65748632838243815</v>
+        <v>0.51672272992982493</v>
       </c>
       <c r="F66" s="3">
-        <v>0.54468328102754227</v>
+        <v>0.40296351294859034</v>
       </c>
       <c r="G66" s="3">
-        <v>0.40059357428783227</v>
+        <v>0.28122703888360473</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="5"/>
@@ -2323,22 +2323,22 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.92397269826352291</v>
+        <v>0.89653305970950559</v>
       </c>
       <c r="C67" s="3">
-        <v>0.84849275007101055</v>
+        <v>0.7978345144217952</v>
       </c>
       <c r="D67" s="3">
-        <v>0.74539009559238756</v>
+        <v>0.63721813414168182</v>
       </c>
       <c r="E67" s="3">
-        <v>0.6560976205236988</v>
+        <v>0.52990702550811974</v>
       </c>
       <c r="F67" s="3">
-        <v>0.54858606123336551</v>
+        <v>0.41729846579533114</v>
       </c>
       <c r="G67" s="3">
-        <v>0.41301620555529972</v>
+        <v>0.29548813825039477</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="5"/>
@@ -2349,22 +2349,22 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.91984681671618351</v>
+        <v>0.89487759163894509</v>
       </c>
       <c r="C68" s="3">
-        <v>0.85174757374472398</v>
+        <v>0.80093617518208737</v>
       </c>
       <c r="D68" s="3">
-        <v>0.74976400714337998</v>
+        <v>0.64614913629441584</v>
       </c>
       <c r="E68" s="3">
-        <v>0.66620254783402244</v>
+        <v>0.54183279670803541</v>
       </c>
       <c r="F68" s="3">
-        <v>0.57171330641633356</v>
+        <v>0.43318671573059775</v>
       </c>
       <c r="G68" s="3">
-        <v>0.42543883682276712</v>
+        <v>0.30974923761718481</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="5"/>
@@ -2375,22 +2375,22 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.92361718006225924</v>
+        <v>0.89652303512656339</v>
       </c>
       <c r="C69" s="3">
-        <v>0.86392750027093124</v>
+        <v>0.8079830017201397</v>
       </c>
       <c r="D69" s="3">
-        <v>0.76175174161874382</v>
+        <v>0.65588837039919412</v>
       </c>
       <c r="E69" s="3">
-        <v>0.6687029962896075</v>
+        <v>0.55189871701574811</v>
       </c>
       <c r="F69" s="3">
-        <v>0.57468700585762456</v>
+        <v>0.44549372302493828</v>
       </c>
       <c r="G69" s="3">
-        <v>0.44288767829005038</v>
+        <v>0.32372605966624302</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="5"/>
@@ -2401,22 +2401,22 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.93384418604339114</v>
+        <v>0.90988050199490889</v>
       </c>
       <c r="C70" s="3">
-        <v>0.87765297620145932</v>
+        <v>0.8203638148286162</v>
       </c>
       <c r="D70" s="3">
-        <v>0.77914220791328281</v>
+        <v>0.67239267926961566</v>
       </c>
       <c r="E70" s="3">
-        <v>0.69808760952316462</v>
+        <v>0.57222335248081224</v>
       </c>
       <c r="F70" s="3">
-        <v>0.59454366892683397</v>
+        <v>0.45549585423562067</v>
       </c>
       <c r="G70" s="3">
-        <v>0.4603365197573337</v>
+        <v>0.33770288171530127</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
@@ -2427,22 +2427,22 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.93530318085840092</v>
+        <v>0.90984554418919339</v>
       </c>
       <c r="C71" s="3">
-        <v>0.89592321424299382</v>
+        <v>0.85310690625264274</v>
       </c>
       <c r="D71" s="3">
-        <v>0.79020836625979007</v>
+        <v>0.68494854580357578</v>
       </c>
       <c r="E71" s="3">
-        <v>0.70763082808782674</v>
+        <v>0.5848612452811105</v>
       </c>
       <c r="F71" s="3">
-        <v>0.60394212460093044</v>
+        <v>0.47046930002857867</v>
       </c>
       <c r="G71" s="3">
-        <v>0.47207737941689659</v>
+        <v>0.34959003512646314</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="5"/>
@@ -2453,22 +2453,22 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.94587029776411025</v>
+        <v>0.91480338541378969</v>
       </c>
       <c r="C72" s="3">
-        <v>0.90209525245917377</v>
+        <v>0.85478560400089476</v>
       </c>
       <c r="D72" s="3">
-        <v>0.80035103792788775</v>
+        <v>0.69886557283917827</v>
       </c>
       <c r="E72" s="3">
-        <v>0.71553603611798766</v>
+        <v>0.5966318038964451</v>
       </c>
       <c r="F72" s="3">
-        <v>0.61769392294790049</v>
+        <v>0.4867081602023926</v>
       </c>
       <c r="G72" s="3">
-        <v>0.48381823907645949</v>
+        <v>0.361477188537625</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="5"/>
@@ -2479,22 +2479,22 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.94197006320903709</v>
+        <v>0.92220560309724764</v>
       </c>
       <c r="C73" s="3">
-        <v>0.89064757039848308</v>
+        <v>0.85649990366546158</v>
       </c>
       <c r="D73" s="3">
-        <v>0.81173556535107394</v>
+        <v>0.70869346731120686</v>
       </c>
       <c r="E73" s="3">
-        <v>0.72760453393834623</v>
+        <v>0.60756204667171798</v>
       </c>
       <c r="F73" s="3">
-        <v>0.6313824632469387</v>
+        <v>0.49881295641967027</v>
       </c>
       <c r="G73" s="3">
-        <v>0.49515329193980623</v>
+        <v>0.37058554334919097</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="5"/>
@@ -2505,22 +2505,22 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.9530240391832675</v>
+        <v>0.92638405602447593</v>
       </c>
       <c r="C74" s="3">
-        <v>0.90468666554978028</v>
+        <v>0.86492816723352495</v>
       </c>
       <c r="D74" s="3">
-        <v>0.82038517649315401</v>
+        <v>0.7197488496638772</v>
       </c>
       <c r="E74" s="3">
-        <v>0.73139457460896584</v>
+        <v>0.6141570045629724</v>
       </c>
       <c r="F74" s="3">
-        <v>0.64128076856891858</v>
+        <v>0.50339945453339963</v>
       </c>
       <c r="G74" s="3">
-        <v>0.50648834480315297</v>
+        <v>0.37969389816075694</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="5"/>
@@ -2531,22 +2531,22 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.94919402701179167</v>
+        <v>0.93126625083493064</v>
       </c>
       <c r="C75" s="3">
-        <v>0.90353956366495225</v>
+        <v>0.87320408584473763</v>
       </c>
       <c r="D75" s="3">
-        <v>0.8257959156614626</v>
+        <v>0.72592374908852619</v>
       </c>
       <c r="E75" s="3">
-        <v>0.7456738421018656</v>
+        <v>0.62739492982391909</v>
       </c>
       <c r="F75" s="3">
-        <v>0.64889752555985147</v>
+        <v>0.51463132026466452</v>
       </c>
       <c r="G75" s="3">
-        <v>0.51744927980899003</v>
+        <v>0.38697441996300352</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="5"/>
@@ -2557,22 +2557,22 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.94818226124946459</v>
+        <v>0.93027912008419267</v>
       </c>
       <c r="C76" s="3">
-        <v>0.91355370512623124</v>
+        <v>0.87555821244808518</v>
       </c>
       <c r="D76" s="3">
-        <v>0.82600822403859131</v>
+        <v>0.73431755106972441</v>
       </c>
       <c r="E76" s="3">
-        <v>0.74982694360597268</v>
+        <v>0.63485069095280289</v>
       </c>
       <c r="F76" s="3">
-        <v>0.66268944912069361</v>
+        <v>0.52670335373607702</v>
       </c>
       <c r="G76" s="3">
-        <v>0.52841021481482708</v>
+        <v>0.39425494176525011</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="5"/>
@@ -2583,22 +2583,22 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.94566343342582027</v>
+        <v>0.93024178411837122</v>
       </c>
       <c r="C77" s="3">
-        <v>0.91154254008012014</v>
+        <v>0.87809241829682416</v>
       </c>
       <c r="D77" s="3">
-        <v>0.8316502154672758</v>
+        <v>0.73927861613690227</v>
       </c>
       <c r="E77" s="3">
-        <v>0.76198798120786493</v>
+        <v>0.6435869195595163</v>
       </c>
       <c r="F77" s="3">
-        <v>0.6714171058043612</v>
+        <v>0.53595295077212979</v>
       </c>
       <c r="G77" s="3">
-        <v>0.53475026892405941</v>
+        <v>0.40209202778161823</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="5"/>
@@ -2609,22 +2609,22 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.95160634627117746</v>
+        <v>0.93461627237728917</v>
       </c>
       <c r="C78" s="3">
-        <v>0.90191498373106849</v>
+        <v>0.88109134226206021</v>
       </c>
       <c r="D78" s="3">
-        <v>0.84431986781324286</v>
+        <v>0.74793305483211125</v>
       </c>
       <c r="E78" s="3">
-        <v>0.76105531897496659</v>
+        <v>0.64909806093962852</v>
       </c>
       <c r="F78" s="3">
-        <v>0.67066637854203048</v>
+        <v>0.540887009068864</v>
       </c>
       <c r="G78" s="3">
-        <v>0.54109032303329174</v>
+        <v>0.4099291137979863</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="5"/>
@@ -2635,22 +2635,22 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.9613517912594568</v>
+        <v>0.95326226764009014</v>
       </c>
       <c r="C79" s="3">
-        <v>0.93673604967794666</v>
+        <v>0.91351741436833189</v>
       </c>
       <c r="D79" s="3">
-        <v>0.8874412595856217</v>
+        <v>0.81024842232608463</v>
       </c>
       <c r="E79" s="3">
-        <v>0.83149195653103769</v>
+        <v>0.72848146824673943</v>
       </c>
       <c r="F79" s="3">
-        <v>0.75340476523624444</v>
+        <v>0.62846082586835417</v>
       </c>
       <c r="G79" s="3">
-        <v>0.62952099916464599</v>
+        <v>0.49314121544359535</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="5"/>
@@ -2661,22 +2661,22 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.96776061841647643</v>
+        <v>0.97118608982010901</v>
       </c>
       <c r="C80" s="3">
-        <v>0.95740946296915186</v>
+        <v>0.94983824108293369</v>
       </c>
       <c r="D80" s="3">
-        <v>0.92848288909985777</v>
+        <v>0.88506548669030671</v>
       </c>
       <c r="E80" s="3">
-        <v>0.88829439157774992</v>
+        <v>0.82908884279701911</v>
       </c>
       <c r="F80" s="3">
-        <v>0.84318680925368061</v>
+        <v>0.7496871357971584</v>
       </c>
       <c r="G80" s="3">
-        <v>0.73809716390887925</v>
+        <v>0.61386119524892768</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="5"/>
@@ -2687,22 +2687,22 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.97794215623172176</v>
+        <v>0.97918499425669814</v>
       </c>
       <c r="C81" s="3">
-        <v>0.96174455233102207</v>
+        <v>0.96709709789230347</v>
       </c>
       <c r="D81" s="3">
-        <v>0.94960473301443826</v>
+        <v>0.92439983282067895</v>
       </c>
       <c r="E81" s="3">
-        <v>0.91601892123896045</v>
+        <v>0.8799419847068064</v>
       </c>
       <c r="F81" s="3">
-        <v>0.87947930529839091</v>
+        <v>0.82419544245089094</v>
       </c>
       <c r="G81" s="3">
-        <v>0.80017011425032381</v>
+        <v>0.70483108608519507</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="5"/>
@@ -2713,22 +2713,22 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.9789100788613101</v>
+        <v>0.98611988253010441</v>
       </c>
       <c r="C82" s="3">
-        <v>0.96579305379423785</v>
+        <v>0.97821638293848145</v>
       </c>
       <c r="D82" s="3">
-        <v>0.9632688598180188</v>
+        <v>0.95637839715425277</v>
       </c>
       <c r="E82" s="3">
-        <v>0.96006036708727605</v>
+        <v>0.94636356631688212</v>
       </c>
       <c r="F82" s="3">
-        <v>0.93547749114083378</v>
+        <v>0.91554992721136419</v>
       </c>
       <c r="G82" s="3">
-        <v>0.88982990284612562</v>
+        <v>0.84195141481354541</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="5"/>
@@ -2739,22 +2739,22 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.97979984593982983</v>
+        <v>0.98994096968340095</v>
       </c>
       <c r="C83" s="3">
-        <v>0.96777561350406915</v>
+        <v>0.98930537862213563</v>
       </c>
       <c r="D83" s="3">
-        <v>0.97638430420370415</v>
+        <v>0.98005265050725066</v>
       </c>
       <c r="E83" s="3">
-        <v>0.96957643296645002</v>
+        <v>0.97324576116498751</v>
       </c>
       <c r="F83" s="3">
-        <v>0.96234996986041899</v>
+        <v>0.96394860092079138</v>
       </c>
       <c r="G83" s="3">
-        <v>0.94122932282885619</v>
+        <v>0.92845414093798839</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="5"/>
@@ -2765,22 +2765,22 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.98141130649991593</v>
+        <v>0.99116714850489818</v>
       </c>
       <c r="C84" s="3">
-        <v>0.97745047235461402</v>
+        <v>0.98817155149078006</v>
       </c>
       <c r="D84" s="3">
-        <v>0.9762744769665479</v>
+        <v>0.98031324934793806</v>
       </c>
       <c r="E84" s="3">
-        <v>0.98049737392160663</v>
+        <v>0.98050384027378124</v>
       </c>
       <c r="F84" s="3">
-        <v>0.96927664925870749</v>
+        <v>0.97918465141491107</v>
       </c>
       <c r="G84" s="3">
-        <v>0.96694689988248095</v>
+        <v>0.96116595338940791</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="5"/>
@@ -4012,7 +4012,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="21">
-        <v>1.502</v>
+        <v>1.4945999999999999</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -4125,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="16">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
@@ -4398,22 +4398,22 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.97875565030535028</v>
+        <v>0.99721574720733297</v>
       </c>
       <c r="C24" s="3">
-        <v>0.97241587648493077</v>
+        <v>0.98486783369079822</v>
       </c>
       <c r="D24" s="3">
-        <v>0.98003096748894392</v>
+        <v>0.98978893452555161</v>
       </c>
       <c r="E24" s="3">
-        <v>0.97038426557667135</v>
+        <v>0.98227190113616492</v>
       </c>
       <c r="F24" s="3">
-        <v>0.97312140829316429</v>
+        <v>0.9905076715929646</v>
       </c>
       <c r="G24" s="3">
-        <v>0.96372723144416383</v>
+        <v>0.98019598576151612</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -4424,22 +4424,22 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.97842838700543255</v>
+        <v>0.99660047326255585</v>
       </c>
       <c r="C25" s="3">
-        <v>0.96746853986308667</v>
+        <v>0.98394760090188671</v>
       </c>
       <c r="D25" s="3">
-        <v>0.97639588742008665</v>
+        <v>0.98353062110051115</v>
       </c>
       <c r="E25" s="3">
-        <v>0.9596495826446173</v>
+        <v>0.96700730521731071</v>
       </c>
       <c r="F25" s="3">
-        <v>0.95411999619928756</v>
+        <v>0.96539514283548356</v>
       </c>
       <c r="G25" s="3">
-        <v>0.93478713243342093</v>
+        <v>0.94339388126347645</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -4450,22 +4450,22 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.97362325305769404</v>
+        <v>0.98901817205673037</v>
       </c>
       <c r="C26" s="3">
-        <v>0.96695706154976246</v>
+        <v>0.97281262772321531</v>
       </c>
       <c r="D26" s="3">
-        <v>0.96228902363140789</v>
+        <v>0.95956881213635525</v>
       </c>
       <c r="E26" s="3">
-        <v>0.93685207346166111</v>
+        <v>0.92546254565081953</v>
       </c>
       <c r="F26" s="3">
-        <v>0.91663942620454064</v>
+        <v>0.89919310533496688</v>
       </c>
       <c r="G26" s="3">
-        <v>0.86303463619699072</v>
+        <v>0.81830412714571144</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -4476,22 +4476,22 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.96764159788017212</v>
+        <v>0.97385738298771007</v>
       </c>
       <c r="C27" s="3">
-        <v>0.94875292207022355</v>
+        <v>0.93818209554181353</v>
       </c>
       <c r="D27" s="3">
-        <v>0.92814643851644885</v>
+        <v>0.88254867618153532</v>
       </c>
       <c r="E27" s="3">
-        <v>0.88297683962592943</v>
+        <v>0.81459175292286279</v>
       </c>
       <c r="F27" s="3">
-        <v>0.84021810851325363</v>
+        <v>0.74797112732300275</v>
       </c>
       <c r="G27" s="3">
-        <v>0.75329648431086627</v>
+        <v>0.63177112916060008</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -4502,22 +4502,22 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.96566344803660098</v>
+        <v>0.95807121385318417</v>
       </c>
       <c r="C28" s="3">
-        <v>0.93510241554046691</v>
+        <v>0.9015349746486836</v>
       </c>
       <c r="D28" s="3">
-        <v>0.90077721649788223</v>
+        <v>0.81164022911061939</v>
       </c>
       <c r="E28" s="3">
-        <v>0.8458338081585558</v>
+        <v>0.73304044813689717</v>
       </c>
       <c r="F28" s="3">
-        <v>0.78531839357828448</v>
+        <v>0.65120325623973652</v>
       </c>
       <c r="G28" s="3">
-        <v>0.68455745326207129</v>
+        <v>0.52289887532307411</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="5"/>
@@ -4528,22 +4528,22 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.94780800276540089</v>
+        <v>0.90974769150326296</v>
       </c>
       <c r="C29" s="3">
-        <v>0.90474286178875007</v>
+        <v>0.82438073370360121</v>
       </c>
       <c r="D29" s="3">
-        <v>0.8395626250059135</v>
+        <v>0.68831267489527614</v>
       </c>
       <c r="E29" s="3">
-        <v>0.7610556300229685</v>
+        <v>0.59189014370514603</v>
       </c>
       <c r="F29" s="3">
-        <v>0.68751844260701356</v>
+        <v>0.51157147943246317</v>
       </c>
       <c r="G29" s="3">
-        <v>0.57541996874130796</v>
+        <v>0.40278990935696585</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -4554,22 +4554,22 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.92227323715807696</v>
+        <v>0.8687804769175973</v>
       </c>
       <c r="C30" s="3">
-        <v>0.86742582070319774</v>
+        <v>0.75564344953161977</v>
       </c>
       <c r="D30" s="3">
-        <v>0.77804895722838907</v>
+        <v>0.60177867526285345</v>
       </c>
       <c r="E30" s="3">
-        <v>0.69231425013533521</v>
+        <v>0.50659286360925004</v>
       </c>
       <c r="F30" s="3">
-        <v>0.61165753650281374</v>
+        <v>0.43391859751552797</v>
       </c>
       <c r="G30" s="3">
-        <v>0.50713171046853245</v>
+        <v>0.34456685678594512</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -4580,22 +4580,22 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91983357235350205</v>
+        <v>0.86086343507351959</v>
       </c>
       <c r="C31" s="3">
-        <v>0.86047741656262322</v>
+        <v>0.74764596166117525</v>
       </c>
       <c r="D31" s="3">
-        <v>0.76833668780233355</v>
+        <v>0.59280120648712964</v>
       </c>
       <c r="E31" s="3">
-        <v>0.68152599147495663</v>
+        <v>0.49538220991876508</v>
       </c>
       <c r="F31" s="3">
-        <v>0.607649211089342</v>
+        <v>0.42814270961249407</v>
       </c>
       <c r="G31" s="3">
-        <v>0.50262975080793248</v>
+        <v>0.33938493296251226</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -4606,22 +4606,22 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.91989995275227221</v>
+        <v>0.85353004793224296</v>
       </c>
       <c r="C32" s="3">
-        <v>0.85820462792552665</v>
+        <v>0.7425282288770495</v>
       </c>
       <c r="D32" s="3">
-        <v>0.76042484160644597</v>
+        <v>0.58464055202033127</v>
       </c>
       <c r="E32" s="3">
-        <v>0.67533692050683536</v>
+        <v>0.48778070571758858</v>
       </c>
       <c r="F32" s="3">
-        <v>0.59932247244961656</v>
+        <v>0.42531810963409178</v>
       </c>
       <c r="G32" s="3">
-        <v>0.49812779114733263</v>
+        <v>0.33420300913907941</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -4632,22 +4632,22 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.9143286560943803</v>
+        <v>0.85242945271249371</v>
       </c>
       <c r="C33" s="3">
-        <v>0.85028609874808603</v>
+        <v>0.73032146100267359</v>
       </c>
       <c r="D33" s="3">
-        <v>0.75580711996297179</v>
+        <v>0.5763350894343654</v>
       </c>
       <c r="E33" s="3">
-        <v>0.66903285848869254</v>
+        <v>0.48504495619421845</v>
       </c>
       <c r="F33" s="3">
-        <v>0.59032533905435192</v>
+        <v>0.4166138869491805</v>
       </c>
       <c r="G33" s="3">
-        <v>0.49096369717883409</v>
+        <v>0.3279396640648794</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -4658,22 +4658,22 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.91259167390624396</v>
+        <v>0.84052798347630753</v>
       </c>
       <c r="C34" s="3">
-        <v>0.84829319833821271</v>
+        <v>0.72782884676845216</v>
       </c>
       <c r="D34" s="3">
-        <v>0.74591821812270598</v>
+        <v>0.56829357495006227</v>
       </c>
       <c r="E34" s="3">
-        <v>0.66119373185066954</v>
+        <v>0.47773676801033893</v>
       </c>
       <c r="F34" s="3">
-        <v>0.58717681615636064</v>
+        <v>0.41282075523088491</v>
       </c>
       <c r="G34" s="3">
-        <v>0.48379960321033555</v>
+        <v>0.32167631899067939</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -4684,22 +4684,22 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.90549833312267469</v>
+        <v>0.83391811964654816</v>
       </c>
       <c r="C35" s="3">
-        <v>0.83572770406270691</v>
+        <v>0.71708465130734145</v>
       </c>
       <c r="D35" s="3">
-        <v>0.7331249820567679</v>
+        <v>0.56391223315459293</v>
       </c>
       <c r="E35" s="3">
-        <v>0.65276165760694027</v>
+        <v>0.46858769519731969</v>
       </c>
       <c r="F35" s="3">
-        <v>0.5772454034101665</v>
+        <v>0.39812761880465775</v>
       </c>
       <c r="G35" s="3">
-        <v>0.47777858074881197</v>
+        <v>0.31772258575333145</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -4710,22 +4710,22 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.90244966193301313</v>
+        <v>0.82448787907144472</v>
       </c>
       <c r="C36" s="3">
-        <v>0.82994878215328127</v>
+        <v>0.70381234972616813</v>
       </c>
       <c r="D36" s="3">
-        <v>0.73095425761981425</v>
+        <v>0.55089935429148773</v>
       </c>
       <c r="E36" s="3">
-        <v>0.64126881073173136</v>
+        <v>0.46572806808824685</v>
       </c>
       <c r="F36" s="3">
-        <v>0.56960525358255243</v>
+        <v>0.39623789437346302</v>
       </c>
       <c r="G36" s="3">
-        <v>0.47175755828728833</v>
+        <v>0.31376885251598352</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5"/>
@@ -4736,22 +4736,22 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.88731120006446396</v>
+        <v>0.80954070019348878</v>
       </c>
       <c r="C37" s="3">
-        <v>0.81800281578113676</v>
+        <v>0.6931550932000794</v>
       </c>
       <c r="D37" s="3">
-        <v>0.71724195105829391</v>
+        <v>0.54075247873676291</v>
       </c>
       <c r="E37" s="3">
-        <v>0.63379079863034893</v>
+        <v>0.45602782283833437</v>
       </c>
       <c r="F37" s="3">
-        <v>0.56185108269566764</v>
+        <v>0.3888993958134771</v>
       </c>
       <c r="G37" s="3">
-        <v>0.46565986556535544</v>
+        <v>0.31093012986921442</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="5"/>
@@ -4762,22 +4762,22 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.8860512699560561</v>
+        <v>0.80351659967318145</v>
       </c>
       <c r="C38" s="3">
-        <v>0.80991829736578613</v>
+        <v>0.68798079024710856</v>
       </c>
       <c r="D38" s="3">
-        <v>0.7044543000140242</v>
+        <v>0.52696327189200987</v>
       </c>
       <c r="E38" s="3">
-        <v>0.62349432559426343</v>
+        <v>0.44581148801451909</v>
       </c>
       <c r="F38" s="3">
-        <v>0.55579249129022401</v>
+        <v>0.38843260244530398</v>
       </c>
       <c r="G38" s="3">
-        <v>0.45956217284342249</v>
+        <v>0.30809140722244532</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="5"/>
@@ -4788,22 +4788,22 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.87811757081141328</v>
+        <v>0.78939789371822633</v>
       </c>
       <c r="C39" s="3">
-        <v>0.79860254260008046</v>
+        <v>0.66829333558584259</v>
       </c>
       <c r="D39" s="3">
-        <v>0.6969445642185863</v>
+        <v>0.52474727268766452</v>
       </c>
       <c r="E39" s="3">
-        <v>0.61832184759911946</v>
+        <v>0.4430534018737326</v>
       </c>
       <c r="F39" s="3">
-        <v>0.54191059025977562</v>
+        <v>0.37791356522456548</v>
       </c>
       <c r="G39" s="3">
-        <v>0.45147784305498972</v>
+        <v>0.30266900385987189</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="5"/>
@@ -4814,22 +4814,22 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.86946657645110625</v>
+        <v>0.78147397026593757</v>
       </c>
       <c r="C40" s="3">
-        <v>0.79414367408180797</v>
+        <v>0.66251912334910801</v>
       </c>
       <c r="D40" s="3">
-        <v>0.69287982929893788</v>
+        <v>0.51528540393420563</v>
       </c>
       <c r="E40" s="3">
-        <v>0.61047951102900133</v>
+        <v>0.43402860858257564</v>
       </c>
       <c r="F40" s="3">
-        <v>0.53869581009422496</v>
+        <v>0.37216418237101168</v>
       </c>
       <c r="G40" s="3">
-        <v>0.44339351326655702</v>
+        <v>0.29724660049729845</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -4840,22 +4840,22 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.86845339063775739</v>
+        <v>0.78322134240018604</v>
       </c>
       <c r="C41" s="3">
-        <v>0.79265531882344176</v>
+        <v>0.65894727463133151</v>
       </c>
       <c r="D41" s="3">
-        <v>0.68353886251448159</v>
+        <v>0.51390541881380292</v>
       </c>
       <c r="E41" s="3">
-        <v>0.6042962086771585</v>
+        <v>0.43088692840640652</v>
       </c>
       <c r="F41" s="3">
-        <v>0.53425666600297228</v>
+        <v>0.3692348442462039</v>
       </c>
       <c r="G41" s="3">
-        <v>0.43394171368153855</v>
+        <v>0.28984244905319861</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
@@ -4866,22 +4866,22 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.87388963704304368</v>
+        <v>0.78596898663104442</v>
       </c>
       <c r="C42" s="3">
-        <v>0.79338816879942742</v>
+        <v>0.65767246359622122</v>
       </c>
       <c r="D42" s="3">
-        <v>0.68380129942946544</v>
+        <v>0.50721900566355216</v>
       </c>
       <c r="E42" s="3">
-        <v>0.60010341965975378</v>
+        <v>0.42597373806346112</v>
       </c>
       <c r="F42" s="3">
-        <v>0.52358990261933014</v>
+        <v>0.35792068696633339</v>
       </c>
       <c r="G42" s="3">
-        <v>0.42448991409652015</v>
+        <v>0.28243829760909878</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -4892,22 +4892,22 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.87236623837444915</v>
+        <v>0.77911419201618681</v>
       </c>
       <c r="C43" s="3">
-        <v>0.78833976412371998</v>
+        <v>0.65767878101634469</v>
       </c>
       <c r="D43" s="3">
-        <v>0.68288466814568682</v>
+        <v>0.50991589644720003</v>
       </c>
       <c r="E43" s="3">
-        <v>0.59102529516705382</v>
+        <v>0.41754968077527377</v>
       </c>
       <c r="F43" s="3">
-        <v>0.51974974387876227</v>
+        <v>0.35254078735247363</v>
       </c>
       <c r="G43" s="3">
-        <v>0.41074479996731333</v>
+        <v>0.27362464344212578</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="5"/>
@@ -4918,22 +4918,22 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.87172137547013451</v>
+        <v>0.78687017018420902</v>
       </c>
       <c r="C44" s="3">
-        <v>0.78806829473592166</v>
+        <v>0.65793856805622331</v>
       </c>
       <c r="D44" s="3">
-        <v>0.67301842923517152</v>
+        <v>0.497941650024112</v>
       </c>
       <c r="E44" s="3">
-        <v>0.58653354205571195</v>
+        <v>0.4111654195243073</v>
       </c>
       <c r="F44" s="3">
-        <v>0.50743449628245452</v>
+        <v>0.34685777885887137</v>
       </c>
       <c r="G44" s="3">
-        <v>0.39699968583810652</v>
+        <v>0.26481098927515279</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="5"/>
@@ -4944,22 +4944,22 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.86091679941671828</v>
+        <v>0.78838140705452342</v>
       </c>
       <c r="C45" s="3">
-        <v>0.77887995917764907</v>
+        <v>0.65338523620980837</v>
       </c>
       <c r="D45" s="3">
-        <v>0.66158017722186102</v>
+        <v>0.49494757474962103</v>
       </c>
       <c r="E45" s="3">
-        <v>0.57370646893109545</v>
+        <v>0.40325526650120719</v>
       </c>
       <c r="F45" s="3">
-        <v>0.4911401541280232</v>
+        <v>0.33460195717911817</v>
       </c>
       <c r="G45" s="3">
-        <v>0.37759455339546505</v>
+        <v>0.25100792348136969</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="5"/>
@@ -4970,22 +4970,22 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.86111204636307437</v>
+        <v>0.78797824541808859</v>
       </c>
       <c r="C46" s="3">
-        <v>0.7791728522332898</v>
+        <v>0.65685101135303303</v>
       </c>
       <c r="D46" s="3">
-        <v>0.65437511338842014</v>
+        <v>0.48804383993676276</v>
       </c>
       <c r="E46" s="3">
-        <v>0.55718716873511076</v>
+        <v>0.39762570668197139</v>
       </c>
       <c r="F46" s="3">
-        <v>0.47338000439383005</v>
+        <v>0.32336480481559787</v>
       </c>
       <c r="G46" s="3">
-        <v>0.35818942095282358</v>
+        <v>0.23720485768758665</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -4996,22 +4996,22 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.85571890600536782</v>
+        <v>0.78751995347753245</v>
       </c>
       <c r="C47" s="3">
-        <v>0.7700080503805401</v>
+        <v>0.65002461345575679</v>
       </c>
       <c r="D47" s="3">
-        <v>0.63917567764291827</v>
+        <v>0.47865012215459612</v>
       </c>
       <c r="E47" s="3">
-        <v>0.54072251664238469</v>
+        <v>0.38198675331442999</v>
       </c>
       <c r="F47" s="3">
-        <v>0.44788030214558955</v>
+        <v>0.30771095575870583</v>
       </c>
       <c r="G47" s="3">
-        <v>0.33011372334618772</v>
+        <v>0.22249530290837427</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
@@ -5022,22 +5022,22 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.8491669808289104</v>
+        <v>0.77790947349243411</v>
       </c>
       <c r="C48" s="3">
-        <v>0.76321510568098738</v>
+        <v>0.65101328377160395</v>
       </c>
       <c r="D48" s="3">
-        <v>0.62215025350464004</v>
+        <v>0.45825942604851522</v>
       </c>
       <c r="E48" s="3">
-        <v>0.51575148506176138</v>
+        <v>0.36656647631127476</v>
       </c>
       <c r="F48" s="3">
-        <v>0.41945633268000893</v>
+        <v>0.29051894998867062</v>
       </c>
       <c r="G48" s="3">
-        <v>0.3020380257395518</v>
+        <v>0.20778574812916192</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
@@ -5048,22 +5048,22 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.84191030111765652</v>
+        <v>0.7761940532196856</v>
       </c>
       <c r="C49" s="3">
-        <v>0.74204627814787272</v>
+        <v>0.63576856856307684</v>
       </c>
       <c r="D49" s="3">
-        <v>0.59201194859727002</v>
+        <v>0.44342098105926669</v>
       </c>
       <c r="E49" s="3">
-        <v>0.48429398385684774</v>
+        <v>0.34645385757975378</v>
       </c>
       <c r="F49" s="3">
-        <v>0.38019239417602929</v>
+        <v>0.25863674205630116</v>
       </c>
       <c r="G49" s="3">
-        <v>0.27036681741050195</v>
+        <v>0.18436113616817223</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="5"/>
@@ -5074,22 +5074,22 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.82336006453479249</v>
+        <v>0.76639079533775245</v>
       </c>
       <c r="C50" s="3">
-        <v>0.71500138735538399</v>
+        <v>0.6050295242993583</v>
       </c>
       <c r="D50" s="3">
-        <v>0.54526518957967696</v>
+        <v>0.40705152581316606</v>
       </c>
       <c r="E50" s="3">
-        <v>0.42643682490935997</v>
+        <v>0.30886863051418889</v>
       </c>
       <c r="F50" s="3">
-        <v>0.33629883789126896</v>
+        <v>0.23734652427448877</v>
       </c>
       <c r="G50" s="3">
-        <v>0.23869560908145213</v>
+        <v>0.16093652420718255</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5"/>
@@ -5100,22 +5100,22 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.79567692788980093</v>
+        <v>0.72344854525143076</v>
       </c>
       <c r="C51" s="3">
-        <v>0.65886242870011369</v>
+        <v>0.55946971072616303</v>
       </c>
       <c r="D51" s="3">
-        <v>0.46535493891995477</v>
+        <v>0.35499683141749827</v>
       </c>
       <c r="E51" s="3">
-        <v>0.35407714684103914</v>
+        <v>0.25798171733862685</v>
       </c>
       <c r="F51" s="3">
-        <v>0.27658711218645915</v>
+        <v>0.19099116420100276</v>
       </c>
       <c r="G51" s="3">
-        <v>0.1906494235738922</v>
+        <v>0.13258661460237314</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
@@ -5126,22 +5126,22 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.69079062042031703</v>
+        <v>0.64555110494422807</v>
       </c>
       <c r="C52" s="3">
-        <v>0.52287177956796282</v>
+        <v>0.45616776619206229</v>
       </c>
       <c r="D52" s="3">
-        <v>0.3269146699793235</v>
+        <v>0.26637876855926479</v>
       </c>
       <c r="E52" s="3">
-        <v>0.23904948803017639</v>
+        <v>0.19167014741909078</v>
       </c>
       <c r="F52" s="3">
-        <v>0.19354904641553294</v>
+        <v>0.1438723859680105</v>
       </c>
       <c r="G52" s="3">
-        <v>0.14260323806633229</v>
+        <v>0.10423670499756374</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
@@ -5152,22 +5152,22 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.35938687113912371</v>
+        <v>0.4135169530912064</v>
       </c>
       <c r="C53" s="3">
-        <v>0.24420930690297682</v>
+        <v>0.26432299669730702</v>
       </c>
       <c r="D53" s="3">
-        <v>0.16152760328784038</v>
+        <v>0.15518571941457043</v>
       </c>
       <c r="E53" s="3">
-        <v>0.12898924573271181</v>
+        <v>0.12376981730561958</v>
       </c>
       <c r="F53" s="3">
-        <v>0.11179375415503646</v>
+        <v>0.10372367068217925</v>
       </c>
       <c r="G53" s="3">
-        <v>0.11523636130289239</v>
+        <v>8.8811928504302834E-2</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
@@ -5178,22 +5178,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>0.10666346273531249</v>
+        <v>8.2551004330868899E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>0.10594945476237401</v>
+        <v>8.3658745559897926E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>0.11370025612897272</v>
+        <v>8.151129160947837E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>0.10177531870644749</v>
+        <v>7.4525952518379832E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>9.6797466814851185E-2</v>
+        <v>7.4131451316440347E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>8.786948453945248E-2</v>
+        <v>7.3387152011041915E-2</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
@@ -5204,22 +5204,22 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.47291750069903865</v>
+        <v>0.29469976667644698</v>
       </c>
       <c r="C55" s="3">
-        <v>0.3246150206664819</v>
+        <v>0.17660230107140937</v>
       </c>
       <c r="D55" s="3">
-        <v>0.21722715098132558</v>
+        <v>0.11917754218153716</v>
       </c>
       <c r="E55" s="3">
-        <v>0.16729154145916411</v>
+        <v>9.8706934279363973E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>0.13742609318342525</v>
+        <v>8.4186141093654451E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.1241148137699456</v>
+        <v>8.4393859715356206E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
@@ -5230,22 +5230,22 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.67292605648153569</v>
+        <v>0.58662612434075889</v>
       </c>
       <c r="C56" s="3">
-        <v>0.51898947705895004</v>
+        <v>0.37804806411836456</v>
       </c>
       <c r="D56" s="3">
-        <v>0.33152974832928506</v>
+        <v>0.21793508656347127</v>
       </c>
       <c r="E56" s="3">
-        <v>0.25355452376063881</v>
+        <v>0.15574116983570591</v>
       </c>
       <c r="F56" s="3">
-        <v>0.20623293300699325</v>
+        <v>0.1186269599840974</v>
       </c>
       <c r="G56" s="3">
-        <v>0.16036014300043872</v>
+        <v>9.5400567419670484E-2</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="5"/>
@@ -5256,22 +5256,22 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.77217444539237268</v>
+        <v>0.7181621062922352</v>
       </c>
       <c r="C57" s="3">
-        <v>0.63963461195538751</v>
+        <v>0.52873871478566703</v>
       </c>
       <c r="D57" s="3">
-        <v>0.44634872853524726</v>
+        <v>0.30822554755823017</v>
       </c>
       <c r="E57" s="3">
-        <v>0.33603215491667582</v>
+        <v>0.21463755577240157</v>
       </c>
       <c r="F57" s="3">
-        <v>0.25945824096607989</v>
+        <v>0.16506850684764601</v>
       </c>
       <c r="G57" s="3">
-        <v>0.19623738956331654</v>
+        <v>0.11822378677415604</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
@@ -5282,22 +5282,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.83800351565099618</v>
+        <v>0.77441343260724227</v>
       </c>
       <c r="C58" s="3">
-        <v>0.71426977870375508</v>
+        <v>0.60720194831994068</v>
       </c>
       <c r="D58" s="3">
-        <v>0.53306046068515633</v>
+        <v>0.38029387303754636</v>
       </c>
       <c r="E58" s="3">
-        <v>0.40926150698969788</v>
+        <v>0.27574054071942006</v>
       </c>
       <c r="F58" s="3">
-        <v>0.31414169365440509</v>
+        <v>0.20107641770406884</v>
       </c>
       <c r="G58" s="3">
-        <v>0.23211463612619435</v>
+        <v>0.1410470061286416</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
@@ -5308,22 +5308,22 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.86522542963425086</v>
+        <v>0.8046350164862005</v>
       </c>
       <c r="C59" s="3">
-        <v>0.76194442895484848</v>
+        <v>0.64427269420288269</v>
       </c>
       <c r="D59" s="3">
-        <v>0.58697907725377252</v>
+        <v>0.43546484564197846</v>
       </c>
       <c r="E59" s="3">
-        <v>0.46580290373459848</v>
+        <v>0.32104897092946211</v>
       </c>
       <c r="F59" s="3">
-        <v>0.35879297926791082</v>
+        <v>0.24050038743828375</v>
       </c>
       <c r="G59" s="3">
-        <v>0.25909983525155877</v>
+        <v>0.16142130132707508</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
@@ -5334,22 +5334,22 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.88423250910048878</v>
+        <v>0.82276731761368571</v>
       </c>
       <c r="C60" s="3">
-        <v>0.78419061752684094</v>
+        <v>0.67946234614760992</v>
       </c>
       <c r="D60" s="3">
-        <v>0.6282658374553417</v>
+        <v>0.46982068800104815</v>
       </c>
       <c r="E60" s="3">
-        <v>0.50628782079663415</v>
+        <v>0.35954846429152171</v>
       </c>
       <c r="F60" s="3">
-        <v>0.39714548695598767</v>
+        <v>0.26577788258090551</v>
       </c>
       <c r="G60" s="3">
-        <v>0.28608503437692318</v>
+        <v>0.18179559652550856</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="5"/>
@@ -5360,22 +5360,22 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.88592419470435524</v>
+        <v>0.82790625229800763</v>
       </c>
       <c r="C61" s="3">
-        <v>0.79640157139461021</v>
+        <v>0.69560408313419519</v>
       </c>
       <c r="D61" s="3">
-        <v>0.65227218857837244</v>
+        <v>0.49543823582049684</v>
       </c>
       <c r="E61" s="3">
-        <v>0.53184958870725563</v>
+        <v>0.3767301328968109</v>
       </c>
       <c r="F61" s="3">
-        <v>0.42505962730706937</v>
+        <v>0.28663046481582211</v>
       </c>
       <c r="G61" s="3">
-        <v>0.30722710787937302</v>
+        <v>0.19895988365712947</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
@@ -5386,22 +5386,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.89107109778201021</v>
+        <v>0.8393966716656418</v>
       </c>
       <c r="C62" s="3">
-        <v>0.80893678196862362</v>
+        <v>0.70737421282904189</v>
       </c>
       <c r="D62" s="3">
-        <v>0.66454743887617851</v>
+        <v>0.50857848343923573</v>
       </c>
       <c r="E62" s="3">
-        <v>0.55207735018924442</v>
+        <v>0.39508154331485729</v>
       </c>
       <c r="F62" s="3">
-        <v>0.44964272130834448</v>
+        <v>0.30831933766327296</v>
       </c>
       <c r="G62" s="3">
-        <v>0.32836918138182286</v>
+        <v>0.21612417078875037</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
@@ -5412,22 +5412,22 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.90226603145562589</v>
+        <v>0.84976461080823529</v>
       </c>
       <c r="C63" s="3">
-        <v>0.82034845850659222</v>
+        <v>0.71540328428610045</v>
       </c>
       <c r="D63" s="3">
-        <v>0.69077004142717235</v>
+        <v>0.5223523834941638</v>
       </c>
       <c r="E63" s="3">
-        <v>0.57643733005948938</v>
+        <v>0.41200971642895318</v>
       </c>
       <c r="F63" s="3">
-        <v>0.47332443917204015</v>
+        <v>0.32351199067662623</v>
       </c>
       <c r="G63" s="3">
-        <v>0.34799349792638379</v>
+        <v>0.23008128762709362</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="5"/>
@@ -5438,22 +5438,22 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.89967847616358132</v>
+        <v>0.85055724917494013</v>
       </c>
       <c r="C64" s="3">
-        <v>0.82465343103092958</v>
+        <v>0.72708161589081832</v>
       </c>
       <c r="D64" s="3">
-        <v>0.7007431917779201</v>
+        <v>0.54394706701629469</v>
       </c>
       <c r="E64" s="3">
-        <v>0.59680628369361322</v>
+        <v>0.43148199947640081</v>
       </c>
       <c r="F64" s="3">
-        <v>0.49508947283725946</v>
+        <v>0.34316771543326374</v>
       </c>
       <c r="G64" s="3">
-        <v>0.36761781447094466</v>
+        <v>0.2440384044654369</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="5"/>
@@ -5464,22 +5464,22 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.90812454149700639</v>
+        <v>0.86255049132622452</v>
       </c>
       <c r="C65" s="3">
-        <v>0.83436071127695932</v>
+        <v>0.73771014496810849</v>
       </c>
       <c r="D65" s="3">
-        <v>0.71297771968481838</v>
+        <v>0.55936861460823406</v>
       </c>
       <c r="E65" s="3">
-        <v>0.6143279564212748</v>
+        <v>0.44963264149032306</v>
       </c>
       <c r="F65" s="3">
-        <v>0.51018701983979853</v>
+        <v>0.35604030351373128</v>
       </c>
       <c r="G65" s="3">
-        <v>0.38477261990657768</v>
+        <v>0.25630809105023472</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="5"/>
@@ -5490,22 +5490,22 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.90912910645966705</v>
+        <v>0.86397803755022262</v>
       </c>
       <c r="C66" s="3">
-        <v>0.83619861488741187</v>
+        <v>0.74626140254424389</v>
       </c>
       <c r="D66" s="3">
-        <v>0.72259012022334845</v>
+        <v>0.5689500971720477</v>
       </c>
       <c r="E66" s="3">
-        <v>0.62785881752559791</v>
+        <v>0.46626808180453699</v>
       </c>
       <c r="F66" s="3">
-        <v>0.52616085387920941</v>
+        <v>0.36780547011581782</v>
       </c>
       <c r="G66" s="3">
-        <v>0.40192742534221071</v>
+        <v>0.26857777763503254</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="5"/>
@@ -5516,22 +5516,22 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.91301637682641568</v>
+        <v>0.86584199672202389</v>
       </c>
       <c r="C67" s="3">
-        <v>0.83829065602418606</v>
+        <v>0.75362877588322008</v>
       </c>
       <c r="D67" s="3">
-        <v>0.73239985169140831</v>
+        <v>0.57928673195222813</v>
       </c>
       <c r="E67" s="3">
-        <v>0.63303099642409144</v>
+        <v>0.47431635059103111</v>
       </c>
       <c r="F67" s="3">
-        <v>0.53832694303095618</v>
+        <v>0.3754877966035462</v>
       </c>
       <c r="G67" s="3">
-        <v>0.41189099423835818</v>
+        <v>0.27872329639716809</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="5"/>
@@ -5542,22 +5542,22 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.90911832762896572</v>
+        <v>0.86980585332427385</v>
       </c>
       <c r="C68" s="3">
-        <v>0.84110030626260301</v>
+        <v>0.76021760922139914</v>
       </c>
       <c r="D68" s="3">
-        <v>0.73357103277648761</v>
+        <v>0.58890457927490814</v>
       </c>
       <c r="E68" s="3">
-        <v>0.6366544925069787</v>
+        <v>0.48289823603938942</v>
       </c>
       <c r="F68" s="3">
-        <v>0.54536618241857182</v>
+        <v>0.38747322604705714</v>
       </c>
       <c r="G68" s="3">
-        <v>0.42185456313450564</v>
+        <v>0.28886881515930363</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="5"/>
@@ -5568,22 +5568,22 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.92081486409238522</v>
+        <v>0.86958261267378578</v>
       </c>
       <c r="C69" s="3">
-        <v>0.84855774772618464</v>
+        <v>0.76284906064426272</v>
       </c>
       <c r="D69" s="3">
-        <v>0.74105200086735534</v>
+        <v>0.59192132550375987</v>
       </c>
       <c r="E69" s="3">
-        <v>0.65004122350288829</v>
+        <v>0.4903614844581593</v>
       </c>
       <c r="F69" s="3">
-        <v>0.55836230166805956</v>
+        <v>0.40005882260953579</v>
       </c>
       <c r="G69" s="3">
-        <v>0.43428803996031651</v>
+        <v>0.29900284411505701</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="5"/>
@@ -5594,22 +5594,22 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.92577148740491999</v>
+        <v>0.87868468323585647</v>
       </c>
       <c r="C70" s="3">
-        <v>0.85752970929289263</v>
+        <v>0.77291321427786497</v>
       </c>
       <c r="D70" s="3">
-        <v>0.75710814777080304</v>
+        <v>0.60956807168541016</v>
       </c>
       <c r="E70" s="3">
-        <v>0.66671355867382021</v>
+        <v>0.50951120803029837</v>
       </c>
       <c r="F70" s="3">
-        <v>0.57287994766732586</v>
+        <v>0.40850148590331559</v>
       </c>
       <c r="G70" s="3">
-        <v>0.44672151678612737</v>
+        <v>0.30913687307081039</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
@@ -5620,22 +5620,22 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.92498875677860026</v>
+        <v>0.88540918834242954</v>
       </c>
       <c r="C71" s="3">
-        <v>0.87111475722789811</v>
+        <v>0.79716018863140403</v>
       </c>
       <c r="D71" s="3">
-        <v>0.76481091333555618</v>
+        <v>0.61780903646030816</v>
       </c>
       <c r="E71" s="3">
-        <v>0.67462129731591147</v>
+        <v>0.51257259301114044</v>
       </c>
       <c r="F71" s="3">
-        <v>0.58650837078906093</v>
+        <v>0.42168105865886546</v>
       </c>
       <c r="G71" s="3">
-        <v>0.45818559582469087</v>
+        <v>0.31554016131644602</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="5"/>
@@ -5646,22 +5646,22 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.93109044201775792</v>
+        <v>0.89751539023710492</v>
       </c>
       <c r="C72" s="3">
-        <v>0.87511461885516428</v>
+        <v>0.80314080244159403</v>
       </c>
       <c r="D72" s="3">
-        <v>0.77518883666013028</v>
+        <v>0.62687833895275813</v>
       </c>
       <c r="E72" s="3">
-        <v>0.68724173623102358</v>
+        <v>0.5304450272693455</v>
       </c>
       <c r="F72" s="3">
-        <v>0.5968747722073503</v>
+        <v>0.432542639540409</v>
       </c>
       <c r="G72" s="3">
-        <v>0.46964967486325443</v>
+        <v>0.32194344956208171</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="5"/>
@@ -5672,22 +5672,22 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.93481883014532907</v>
+        <v>0.90155321176286551</v>
       </c>
       <c r="C73" s="3">
-        <v>0.87879795264114302</v>
+        <v>0.80856282548139902</v>
       </c>
       <c r="D73" s="3">
-        <v>0.78565917843979105</v>
+        <v>0.63689336362811833</v>
       </c>
       <c r="E73" s="3">
-        <v>0.69728096161157338</v>
+        <v>0.53450774606302498</v>
       </c>
       <c r="F73" s="3">
-        <v>0.60757734437225286</v>
+        <v>0.44340359826178116</v>
       </c>
       <c r="G73" s="3">
-        <v>0.47849488064994727</v>
+        <v>0.33176063444320847</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="5"/>
@@ -5698,22 +5698,22 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.9333393814594183</v>
+        <v>0.90515062785490952</v>
       </c>
       <c r="C74" s="3">
-        <v>0.88276546399021072</v>
+        <v>0.8110522798655847</v>
       </c>
       <c r="D74" s="3">
-        <v>0.79422073637245671</v>
+        <v>0.65710584124561144</v>
       </c>
       <c r="E74" s="3">
-        <v>0.70129445773105459</v>
+        <v>0.54650272003393074</v>
       </c>
       <c r="F74" s="3">
-        <v>0.61725727182377577</v>
+        <v>0.45141011802962544</v>
       </c>
       <c r="G74" s="3">
-        <v>0.48734008643664012</v>
+        <v>0.34157781932433517</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="5"/>
@@ -5724,22 +5724,22 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.9422210121171134</v>
+        <v>0.90952050986394073</v>
       </c>
       <c r="C75" s="3">
-        <v>0.88495327356676079</v>
+        <v>0.81891012700937238</v>
       </c>
       <c r="D75" s="3">
-        <v>0.79820817391965748</v>
+        <v>0.65734580039197421</v>
       </c>
       <c r="E75" s="3">
-        <v>0.71258489618942433</v>
+        <v>0.55593964479419788</v>
       </c>
       <c r="F75" s="3">
-        <v>0.62397440271441196</v>
+        <v>0.45282809970587323</v>
       </c>
       <c r="G75" s="3">
-        <v>0.49638171959522071</v>
+        <v>0.34688108061912937</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="5"/>
@@ -5750,22 +5750,22 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.93815456968123567</v>
+        <v>0.91113206317424977</v>
       </c>
       <c r="C76" s="3">
-        <v>0.88633677896993213</v>
+        <v>0.82247311726701466</v>
       </c>
       <c r="D76" s="3">
-        <v>0.8013653295918981</v>
+        <v>0.66145620206502764</v>
       </c>
       <c r="E76" s="3">
-        <v>0.7165638654045452</v>
+        <v>0.55799723986029115</v>
       </c>
       <c r="F76" s="3">
-        <v>0.6302073215351266</v>
+        <v>0.46175608877854779</v>
       </c>
       <c r="G76" s="3">
-        <v>0.50542335275380135</v>
+        <v>0.3521843419139235</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="5"/>
@@ -5776,22 +5776,22 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.93823309167025915</v>
+        <v>0.90743022238502447</v>
       </c>
       <c r="C77" s="3">
-        <v>0.8927730493994791</v>
+        <v>0.82791150761016863</v>
       </c>
       <c r="D77" s="3">
-        <v>0.80877190672447197</v>
+        <v>0.67325238130239451</v>
       </c>
       <c r="E77" s="3">
-        <v>0.72453823478137069</v>
+        <v>0.5689967280017344</v>
       </c>
       <c r="F77" s="3">
-        <v>0.64038019998984264</v>
+        <v>0.47454739622582637</v>
       </c>
       <c r="G77" s="3">
-        <v>0.51337311844680134</v>
+        <v>0.35688500050732375</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="5"/>
@@ -5802,22 +5802,22 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.94556764489175693</v>
+        <v>0.91510279518768178</v>
       </c>
       <c r="C78" s="3">
-        <v>0.89670108231739054</v>
+        <v>0.82899966727354946</v>
       </c>
       <c r="D78" s="3">
-        <v>0.81184447627856393</v>
+        <v>0.67402504560713095</v>
       </c>
       <c r="E78" s="3">
-        <v>0.73141332698392958</v>
+        <v>0.57152337179407364</v>
       </c>
       <c r="F78" s="3">
-        <v>0.64697942278212894</v>
+        <v>0.47984134384551042</v>
       </c>
       <c r="G78" s="3">
-        <v>0.52132288413980132</v>
+        <v>0.36158565910072399</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="5"/>
@@ -5828,22 +5828,22 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.95020496815313527</v>
+        <v>0.93564883702540613</v>
       </c>
       <c r="C79" s="3">
-        <v>0.91648777206519771</v>
+        <v>0.87048753672537948</v>
       </c>
       <c r="D79" s="3">
-        <v>0.86235760701102193</v>
+        <v>0.74625712644076203</v>
       </c>
       <c r="E79" s="3">
-        <v>0.79277112124746885</v>
+        <v>0.6544510962057537</v>
       </c>
       <c r="F79" s="3">
-        <v>0.71786380021768958</v>
+        <v>0.55944682333505236</v>
       </c>
       <c r="G79" s="3">
-        <v>0.60099249902096441</v>
+        <v>0.43176353386750765</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="5"/>
@@ -5854,22 +5854,22 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.96449499015537543</v>
+        <v>0.96620487473262917</v>
       </c>
       <c r="C80" s="3">
-        <v>0.94602871454685145</v>
+        <v>0.92790846285337381</v>
       </c>
       <c r="D80" s="3">
-        <v>0.91036130977640084</v>
+        <v>0.84737120202459337</v>
       </c>
       <c r="E80" s="3">
-        <v>0.86367968522796312</v>
+        <v>0.76851768706166657</v>
       </c>
       <c r="F80" s="3">
-        <v>0.80635537473516594</v>
+        <v>0.68961043192002225</v>
       </c>
       <c r="G80" s="3">
-        <v>0.70139133212500593</v>
+        <v>0.56319946728255177</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="5"/>
@@ -5880,22 +5880,22 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.97127965586486353</v>
+        <v>0.97468892327879053</v>
       </c>
       <c r="C81" s="3">
-        <v>0.95215020795908856</v>
+        <v>0.94902990324483871</v>
       </c>
       <c r="D81" s="3">
-        <v>0.93809008762329593</v>
+        <v>0.90284548046977109</v>
       </c>
       <c r="E81" s="3">
-        <v>0.8979610082226871</v>
+        <v>0.84881157291929255</v>
       </c>
       <c r="F81" s="3">
-        <v>0.85598911392178856</v>
+        <v>0.78805526302556017</v>
       </c>
       <c r="G81" s="3">
-        <v>0.77817750296566424</v>
+        <v>0.66972826654241668</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="5"/>
@@ -5906,22 +5906,22 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.97872205615689012</v>
+        <v>0.98686853439080457</v>
       </c>
       <c r="C82" s="3">
-        <v>0.96095403111525268</v>
+        <v>0.97052726424560465</v>
       </c>
       <c r="D82" s="3">
-        <v>0.95895351579312038</v>
+        <v>0.96530698714403607</v>
       </c>
       <c r="E82" s="3">
-        <v>0.93834983280811457</v>
+        <v>0.93637418327013067</v>
       </c>
       <c r="F82" s="3">
-        <v>0.9211062818697342</v>
+        <v>0.91607146155828689</v>
       </c>
       <c r="G82" s="3">
-        <v>0.87368758397292035</v>
+        <v>0.84402076064690967</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="5"/>
@@ -5932,22 +5932,22 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.98080218057984148</v>
+        <v>0.9919724656812392</v>
       </c>
       <c r="C83" s="3">
-        <v>0.96745957285027329</v>
+        <v>0.9863280382649352</v>
       </c>
       <c r="D83" s="3">
-        <v>0.97707346125097105</v>
+        <v>0.97988467677626512</v>
       </c>
       <c r="E83" s="3">
-        <v>0.95719437142750785</v>
+        <v>0.96964846475943056</v>
       </c>
       <c r="F83" s="3">
-        <v>0.9509876924152002</v>
+        <v>0.96747258693624438</v>
       </c>
       <c r="G83" s="3">
-        <v>0.93366341884147619</v>
+        <v>0.94316756687467618</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="5"/>
@@ -5958,22 +5958,22 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.97742912288293371</v>
+        <v>0.98937678399432405</v>
       </c>
       <c r="C84" s="3">
-        <v>0.97246281700079451</v>
+        <v>0.98399866952306159</v>
       </c>
       <c r="D84" s="3">
-        <v>0.97527410807989101</v>
+        <v>0.98164419563848226</v>
       </c>
       <c r="E84" s="3">
-        <v>0.96401339920742013</v>
+        <v>0.9759324234662754</v>
       </c>
       <c r="F84" s="3">
-        <v>0.96701044110449852</v>
+        <v>0.98261546672055466</v>
       </c>
       <c r="G84" s="3">
-        <v>0.95610822065565415</v>
+        <v>0.96594581235841748</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="5"/>
@@ -7206,7 +7206,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="22">
-        <v>1.1669</v>
+        <v>1.1702999999999999</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -7579,22 +7579,22 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.99589023605979843</v>
+        <v>0.98959602283722625</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98322145505440073</v>
+        <v>0.98814770166887178</v>
       </c>
       <c r="D24" s="3">
-        <v>0.97143808479759897</v>
+        <v>0.96632505957540282</v>
       </c>
       <c r="E24" s="3">
-        <v>0.95740436297970044</v>
+        <v>0.94632038074743274</v>
       </c>
       <c r="F24" s="3">
-        <v>0.93124671075125309</v>
+        <v>0.91467912722924671</v>
       </c>
       <c r="G24" s="3">
-        <v>0.87489182685399625</v>
+        <v>0.84506791179656571</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="5"/>
@@ -7605,22 +7605,22 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.98963615505646185</v>
+        <v>0.99304216938995005</v>
       </c>
       <c r="C25" s="3">
-        <v>0.97513517079977385</v>
+        <v>0.97836470690825439</v>
       </c>
       <c r="D25" s="3">
-        <v>0.96104259707398731</v>
+        <v>0.94957577034483154</v>
       </c>
       <c r="E25" s="3">
-        <v>0.9362104529097921</v>
+        <v>0.90671021426366405</v>
       </c>
       <c r="F25" s="3">
-        <v>0.89710068778236818</v>
+        <v>0.87111242374636155</v>
       </c>
       <c r="G25" s="3">
-        <v>0.82263727818886867</v>
+        <v>0.76988610007552383</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="5"/>
@@ -7631,22 +7631,22 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.995485353545292</v>
+        <v>0.98143671563299806</v>
       </c>
       <c r="C26" s="3">
-        <v>0.97240528908211266</v>
+        <v>0.95846323049818805</v>
       </c>
       <c r="D26" s="3">
-        <v>0.93639043333533045</v>
+        <v>0.91210456749095759</v>
       </c>
       <c r="E26" s="3">
-        <v>0.89903296162722968</v>
+        <v>0.86570859110766307</v>
       </c>
       <c r="F26" s="3">
-        <v>0.83769572632086664</v>
+        <v>0.80110411437536344</v>
       </c>
       <c r="G26" s="3">
-        <v>0.75006147999366357</v>
+        <v>0.67780296718167565</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="5"/>
@@ -7657,22 +7657,22 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.98770049807421034</v>
+        <v>0.96010170689467433</v>
       </c>
       <c r="C27" s="3">
-        <v>0.94751947226894406</v>
+        <v>0.93105870462631324</v>
       </c>
       <c r="D27" s="3">
-        <v>0.90063869642904359</v>
+        <v>0.87536318304862137</v>
       </c>
       <c r="E27" s="3">
-        <v>0.84983431581752</v>
+        <v>0.8002736544791923</v>
       </c>
       <c r="F27" s="3">
-        <v>0.77393293571106381</v>
+        <v>0.7117797682551571</v>
       </c>
       <c r="G27" s="3">
-        <v>0.65236905013471957</v>
+        <v>0.58776223998062349</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="5"/>
@@ -7683,22 +7683,22 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.97200238543066664</v>
+        <v>0.97239381305412698</v>
       </c>
       <c r="C28" s="3">
-        <v>0.93484122537992298</v>
+        <v>0.92997773146495422</v>
       </c>
       <c r="D28" s="3">
-        <v>0.87762132195476705</v>
+        <v>0.83299902734817488</v>
       </c>
       <c r="E28" s="3">
-        <v>0.802302113975633</v>
+        <v>0.74397070949554966</v>
       </c>
       <c r="F28" s="3">
-        <v>0.72136507547429418</v>
+        <v>0.65733567951089911</v>
       </c>
       <c r="G28" s="3">
-        <v>0.59732132688089656</v>
+        <v>0.53643662139254944</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="5"/>
@@ -7709,22 +7709,22 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.96608452537155032</v>
+        <v>0.93848910079404868</v>
       </c>
       <c r="C29" s="3">
-        <v>0.90800180892831928</v>
+        <v>0.88264699778771127</v>
       </c>
       <c r="D29" s="3">
-        <v>0.79809295083445786</v>
+        <v>0.75643499427076966</v>
       </c>
       <c r="E29" s="3">
-        <v>0.71110153808539145</v>
+        <v>0.65287892897344713</v>
       </c>
       <c r="F29" s="3">
-        <v>0.62314182992523515</v>
+        <v>0.55869856080619784</v>
       </c>
       <c r="G29" s="3">
-        <v>0.49298208599053345</v>
+        <v>0.43818301137126281</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="5"/>
@@ -7735,22 +7735,22 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.93017175308436195</v>
+        <v>0.88946398868502863</v>
       </c>
       <c r="C30" s="3">
-        <v>0.86310246971346194</v>
+        <v>0.8275139330788015</v>
       </c>
       <c r="D30" s="3">
-        <v>0.7131671927609583</v>
+        <v>0.67252087330959043</v>
       </c>
       <c r="E30" s="3">
-        <v>0.63929457431652814</v>
+        <v>0.57925839148829661</v>
       </c>
       <c r="F30" s="3">
-        <v>0.54225627857963166</v>
+        <v>0.48187848064292799</v>
       </c>
       <c r="G30" s="3">
-        <v>0.41068645078904542</v>
+        <v>0.36126347637592054</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="5"/>
@@ -7761,22 +7761,22 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91822976574477999</v>
+        <v>0.89603449486895337</v>
       </c>
       <c r="C31" s="3">
-        <v>0.85212086134047849</v>
+        <v>0.82102357061019504</v>
       </c>
       <c r="D31" s="3">
-        <v>0.72342092499929778</v>
+        <v>0.67795765425139187</v>
       </c>
       <c r="E31" s="3">
-        <v>0.62618869244620745</v>
+        <v>0.57525745370197134</v>
       </c>
       <c r="F31" s="3">
-        <v>0.52225077277095133</v>
+        <v>0.47205607918143377</v>
       </c>
       <c r="G31" s="3">
-        <v>0.40608863707350473</v>
+        <v>0.3549644673491319</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="5"/>
@@ -7787,22 +7787,22 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.92194139588526192</v>
+        <v>0.90472334786093278</v>
       </c>
       <c r="C32" s="3">
-        <v>0.85583147578855889</v>
+        <v>0.81989575323928099</v>
       </c>
       <c r="D32" s="3">
-        <v>0.70993742545924565</v>
+        <v>0.65857100718455197</v>
       </c>
       <c r="E32" s="3">
-        <v>0.62071669032400034</v>
+        <v>0.56202750223239095</v>
       </c>
       <c r="F32" s="3">
-        <v>0.52285033444573781</v>
+        <v>0.47096085472219179</v>
       </c>
       <c r="G32" s="3">
-        <v>0.40149082335796404</v>
+        <v>0.3486654583223433</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="5"/>
@@ -7813,22 +7813,22 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.91626875801911589</v>
+        <v>0.88973423412343744</v>
       </c>
       <c r="C33" s="3">
-        <v>0.84093857106442482</v>
+        <v>0.80303089261753835</v>
       </c>
       <c r="D33" s="3">
-        <v>0.70376237099089434</v>
+        <v>0.65122752048611388</v>
       </c>
       <c r="E33" s="3">
-        <v>0.60438188240156121</v>
+        <v>0.55684205715350032</v>
       </c>
       <c r="F33" s="3">
-        <v>0.51351511268032057</v>
+        <v>0.46372144107364716</v>
       </c>
       <c r="G33" s="3">
-        <v>0.38789948457529672</v>
+        <v>0.33978591223095711</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="5"/>
@@ -7839,22 +7839,22 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.91737835441550386</v>
+        <v>0.88516031284099794</v>
       </c>
       <c r="C34" s="3">
-        <v>0.82872693580896717</v>
+        <v>0.79545701686990378</v>
       </c>
       <c r="D34" s="3">
-        <v>0.69320170197637898</v>
+        <v>0.6426667727057358</v>
       </c>
       <c r="E34" s="3">
-        <v>0.60265335931275055</v>
+        <v>0.53954668158191277</v>
       </c>
       <c r="F34" s="3">
-        <v>0.50416412024387069</v>
+        <v>0.45349103013685349</v>
       </c>
       <c r="G34" s="3">
-        <v>0.37430814579262939</v>
+        <v>0.33090636613957097</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="5"/>
@@ -7865,22 +7865,22 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.90851563302084148</v>
+        <v>0.88354116233149116</v>
       </c>
       <c r="C35" s="3">
-        <v>0.82587971844125074</v>
+        <v>0.79475896709437099</v>
       </c>
       <c r="D35" s="3">
-        <v>0.68185428606462262</v>
+        <v>0.64084431378382911</v>
       </c>
       <c r="E35" s="3">
-        <v>0.59111460570157548</v>
+        <v>0.54180655346228068</v>
       </c>
       <c r="F35" s="3">
-        <v>0.49655831984754017</v>
+        <v>0.44037779911042391</v>
       </c>
       <c r="G35" s="3">
-        <v>0.36250632323347481</v>
+        <v>0.32037441386323251</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="5"/>
@@ -7891,22 +7891,22 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.89875607642457012</v>
+        <v>0.86388140183282391</v>
       </c>
       <c r="C36" s="3">
-        <v>0.81898676931156666</v>
+        <v>0.77312915555972761</v>
       </c>
       <c r="D36" s="3">
-        <v>0.67694460287160141</v>
+        <v>0.62589530124256454</v>
       </c>
       <c r="E36" s="3">
-        <v>0.58497968184531857</v>
+        <v>0.51808500054457685</v>
       </c>
       <c r="F36" s="3">
-        <v>0.48144919431070976</v>
+        <v>0.43453771485352671</v>
       </c>
       <c r="G36" s="3">
-        <v>0.35070450067432024</v>
+        <v>0.3098424615868941</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="5"/>
@@ -7917,22 +7917,22 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.8974580145598563</v>
+        <v>0.86860140660296103</v>
       </c>
       <c r="C37" s="3">
-        <v>0.80468691675107284</v>
+        <v>0.77872162051525429</v>
       </c>
       <c r="D37" s="3">
-        <v>0.66778051791097803</v>
+        <v>0.61975575588190224</v>
       </c>
       <c r="E37" s="3">
-        <v>0.56885221631790028</v>
+        <v>0.51656746318722191</v>
       </c>
       <c r="F37" s="3">
-        <v>0.46908280346047654</v>
+        <v>0.4172115556271645</v>
       </c>
       <c r="G37" s="3">
-        <v>0.3418674515861605</v>
+        <v>0.30182725213849765</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="5"/>
@@ -7943,22 +7943,22 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.88902405286215669</v>
+        <v>0.8577857119551433</v>
       </c>
       <c r="C38" s="3">
-        <v>0.79958508079643398</v>
+        <v>0.76788336063415374</v>
       </c>
       <c r="D38" s="3">
-        <v>0.64757581704981559</v>
+        <v>0.61488360624385852</v>
       </c>
       <c r="E38" s="3">
-        <v>0.56656550263130256</v>
+        <v>0.50650029939656105</v>
       </c>
       <c r="F38" s="3">
-        <v>0.46384503186336346</v>
+        <v>0.41230384407067266</v>
       </c>
       <c r="G38" s="3">
-        <v>0.3330304024980007</v>
+        <v>0.29381204269010119</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="5"/>
@@ -7969,22 +7969,22 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.8728614867344946</v>
+        <v>0.85322902532195299</v>
       </c>
       <c r="C39" s="3">
-        <v>0.78686926477941421</v>
+        <v>0.76005744306491752</v>
       </c>
       <c r="D39" s="3">
-        <v>0.64290235504150228</v>
+        <v>0.59895435303621236</v>
       </c>
       <c r="E39" s="3">
-        <v>0.5474049368791305</v>
+        <v>0.50257537443887512</v>
       </c>
       <c r="F39" s="3">
-        <v>0.44326323982732596</v>
+        <v>0.39398208630097298</v>
       </c>
       <c r="G39" s="3">
-        <v>0.32145833403598323</v>
+        <v>0.27836043649999997</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="5"/>
@@ -7995,22 +7995,22 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.87981829173656945</v>
+        <v>0.83830154190392392</v>
       </c>
       <c r="C40" s="3">
-        <v>0.77745323208159567</v>
+        <v>0.7540836574927503</v>
       </c>
       <c r="D40" s="3">
-        <v>0.62809589513620256</v>
+        <v>0.59010217832222189</v>
       </c>
       <c r="E40" s="3">
-        <v>0.52609041237836851</v>
+        <v>0.48856074518564574</v>
       </c>
       <c r="F40" s="3">
-        <v>0.42281990428491156</v>
+        <v>0.38723058909799246</v>
       </c>
       <c r="G40" s="3">
-        <v>0.30988626557396581</v>
+        <v>0.26290883030989876</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="5"/>
@@ -8021,22 +8021,22 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.87221012805726317</v>
+        <v>0.83952550647370328</v>
       </c>
       <c r="C41" s="3">
-        <v>0.7692238828026543</v>
+        <v>0.74197474863884139</v>
       </c>
       <c r="D41" s="3">
-        <v>0.61990973958471318</v>
+        <v>0.57278839542519899</v>
       </c>
       <c r="E41" s="3">
-        <v>0.52901407149313751</v>
+        <v>0.47044838837622649</v>
       </c>
       <c r="F41" s="3">
-        <v>0.41070930920822957</v>
+        <v>0.36792319088532005</v>
       </c>
       <c r="G41" s="3">
-        <v>0.29090737218393325</v>
+        <v>0.25035871464612913</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="5"/>
@@ -8047,22 +8047,22 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.85931552225543784</v>
+        <v>0.83431115340668704</v>
       </c>
       <c r="C42" s="3">
-        <v>0.75011939086328727</v>
+        <v>0.72909856700244813</v>
       </c>
       <c r="D42" s="3">
-        <v>0.59646686113145486</v>
+        <v>0.56051598430247263</v>
       </c>
       <c r="E42" s="3">
-        <v>0.50171700504610672</v>
+        <v>0.45524944371491893</v>
       </c>
       <c r="F42" s="3">
-        <v>0.39880531578446954</v>
+        <v>0.35689939504685581</v>
       </c>
       <c r="G42" s="3">
-        <v>0.2719284787939007</v>
+        <v>0.23780859898235945</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="5"/>
@@ -8073,22 +8073,22 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.84855621471871878</v>
+        <v>0.8278560970548875</v>
       </c>
       <c r="C43" s="3">
-        <v>0.74268768285562126</v>
+        <v>0.71907503471390266</v>
       </c>
       <c r="D43" s="3">
-        <v>0.58746282756929258</v>
+        <v>0.54278790900203733</v>
       </c>
       <c r="E43" s="3">
-        <v>0.48959410507779511</v>
+        <v>0.42685344678136367</v>
       </c>
       <c r="F43" s="3">
-        <v>0.37478286008698863</v>
+        <v>0.32399290022101573</v>
       </c>
       <c r="G43" s="3">
-        <v>0.25475106529223324</v>
+        <v>0.22286730039082742</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="5"/>
@@ -8099,22 +8099,22 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.83710080083336313</v>
+        <v>0.82162125653387064</v>
       </c>
       <c r="C44" s="3">
-        <v>0.73572779006478739</v>
+        <v>0.7069538095979695</v>
       </c>
       <c r="D44" s="3">
-        <v>0.56816854399196326</v>
+        <v>0.52376715275757224</v>
       </c>
       <c r="E44" s="3">
-        <v>0.45865969096238246</v>
+        <v>0.41039248902737546</v>
       </c>
       <c r="F44" s="3">
-        <v>0.35131500119689474</v>
+        <v>0.31102421838518229</v>
       </c>
       <c r="G44" s="3">
-        <v>0.23757365179056572</v>
+        <v>0.20792600179929541</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="5"/>
@@ -8125,22 +8125,22 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.84377628093470092</v>
+        <v>0.81945254498219544</v>
       </c>
       <c r="C45" s="3">
-        <v>0.72443191413409713</v>
+        <v>0.69195132554259275</v>
       </c>
       <c r="D45" s="3">
-        <v>0.54266693798723731</v>
+        <v>0.50547267991022216</v>
       </c>
       <c r="E45" s="3">
-        <v>0.43494502487560427</v>
+        <v>0.3794331783387716</v>
       </c>
       <c r="F45" s="3">
-        <v>0.3211912096421532</v>
+        <v>0.28905264998516295</v>
       </c>
       <c r="G45" s="3">
-        <v>0.21247846407770432</v>
+        <v>0.1893514336013388</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="5"/>
@@ -8151,22 +8151,22 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.81822483072792318</v>
+        <v>0.80706682360104876</v>
       </c>
       <c r="C46" s="3">
-        <v>0.70352348791940711</v>
+        <v>0.67584142753025866</v>
       </c>
       <c r="D46" s="3">
-        <v>0.51120534189317424</v>
+        <v>0.46753706536697126</v>
       </c>
       <c r="E46" s="3">
-        <v>0.39978342464772554</v>
+        <v>0.35615486254932555</v>
       </c>
       <c r="F46" s="3">
-        <v>0.28853653114252492</v>
+        <v>0.25852926975051727</v>
       </c>
       <c r="G46" s="3">
-        <v>0.18738327636484292</v>
+        <v>0.17077686540338219</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="5"/>
@@ -8177,22 +8177,22 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.80595591553145818</v>
+        <v>0.78473389567932483</v>
       </c>
       <c r="C47" s="3">
-        <v>0.67573670307285338</v>
+        <v>0.64102683012472639</v>
       </c>
       <c r="D47" s="3">
-        <v>0.46584750267229913</v>
+        <v>0.4309062761278567</v>
       </c>
       <c r="E47" s="3">
-        <v>0.35983638591857392</v>
+        <v>0.31987509838487899</v>
       </c>
       <c r="F47" s="3">
-        <v>0.25976379166298491</v>
+        <v>0.23018811150801047</v>
       </c>
       <c r="G47" s="3">
-        <v>0.16651342730019772</v>
+        <v>0.14975862641204696</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="5"/>
@@ -8203,22 +8203,22 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.78589208502781227</v>
+        <v>0.76575881815585722</v>
       </c>
       <c r="C48" s="3">
-        <v>0.63904366212852715</v>
+        <v>0.61462611881947515</v>
       </c>
       <c r="D48" s="3">
-        <v>0.42573166527971112</v>
+        <v>0.40272154204746746</v>
       </c>
       <c r="E48" s="3">
-        <v>0.3130467812220124</v>
+        <v>0.27554913783939261</v>
       </c>
       <c r="F48" s="3">
-        <v>0.22307273615157139</v>
+        <v>0.19759353185048811</v>
       </c>
       <c r="G48" s="3">
-        <v>0.14564357823555252</v>
+        <v>0.12874038742071173</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="5"/>
@@ -8229,22 +8229,22 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.75044236582282986</v>
+        <v>0.72512820439338577</v>
       </c>
       <c r="C49" s="3">
-        <v>0.58429677792259727</v>
+        <v>0.55521576664655869</v>
       </c>
       <c r="D49" s="3">
-        <v>0.35895577413181046</v>
+        <v>0.3331156048402838</v>
       </c>
       <c r="E49" s="3">
-        <v>0.26383643712110505</v>
+        <v>0.24002350534353517</v>
       </c>
       <c r="F49" s="3">
-        <v>0.18713615198288333</v>
+        <v>0.16634859594088933</v>
       </c>
       <c r="G49" s="3">
-        <v>0.12326022821824975</v>
+        <v>0.10847822406903591</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="5"/>
@@ -8255,22 +8255,22 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.68440034258448867</v>
+        <v>0.66539876055823899</v>
       </c>
       <c r="C50" s="3">
-        <v>0.50190743320650244</v>
+        <v>0.47300240503498064</v>
       </c>
       <c r="D50" s="3">
-        <v>0.28511281684361051</v>
+        <v>0.27901319344718795</v>
       </c>
       <c r="E50" s="3">
-        <v>0.21563498170243922</v>
+        <v>0.19701290375711583</v>
       </c>
       <c r="F50" s="3">
-        <v>0.15181103069324559</v>
+        <v>0.13849462506903182</v>
       </c>
       <c r="G50" s="3">
-        <v>0.10087687820094698</v>
+        <v>8.8216060717360101E-2</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="5"/>
@@ -8281,22 +8281,22 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.57676937704962672</v>
+        <v>0.56791175708366715</v>
       </c>
       <c r="C51" s="3">
-        <v>0.37471774138590175</v>
+        <v>0.38043931846973505</v>
       </c>
       <c r="D51" s="3">
-        <v>0.20488205973083751</v>
+        <v>0.20565248169360673</v>
       </c>
       <c r="E51" s="3">
-        <v>0.14916715725418975</v>
+        <v>0.14642262333524866</v>
       </c>
       <c r="F51" s="3">
-        <v>0.11113487872187147</v>
+        <v>0.1070600803154728</v>
       </c>
       <c r="G51" s="3">
-        <v>9.1242856615662726E-2</v>
+        <v>7.5651470705485196E-2</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="5"/>
@@ -8307,22 +8307,22 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.38013237144288736</v>
+        <v>0.38324176118916586</v>
       </c>
       <c r="C52" s="3">
-        <v>0.23221809434485957</v>
+        <v>0.24049145130335414</v>
       </c>
       <c r="D52" s="3">
-        <v>0.12452613288507694</v>
+        <v>0.13359617664038342</v>
       </c>
       <c r="E52" s="3">
-        <v>0.11134046021993312</v>
+        <v>9.8167284792762127E-2</v>
       </c>
       <c r="F52" s="3">
-        <v>8.8796979806157569E-2</v>
+        <v>8.2327511027486922E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>8.1608835030378468E-2</v>
+        <v>6.3086880693610292E-2</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="5"/>
@@ -8333,22 +8333,22 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.14038458620128247</v>
+        <v>0.17390191005326869</v>
       </c>
       <c r="C53" s="3">
-        <v>0.10981451387187394</v>
+        <v>0.11678383401218158</v>
       </c>
       <c r="D53" s="3">
-        <v>6.4388528865131092E-2</v>
+        <v>7.860179805768798E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>6.9960447747626137E-2</v>
+        <v>7.176084404842753E-2</v>
       </c>
       <c r="F53" s="3">
-        <v>6.9459931025330462E-2</v>
+        <v>7.2389037256076136E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>7.562128393118632E-2</v>
+        <v>5.6573474944373939E-2</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="5"/>
@@ -8359,22 +8359,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>8.6220397542163735E-2</v>
+        <v>6.8101407198903841E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>8.0956895591917974E-2</v>
+        <v>5.9896277211644894E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>6.0733558006457133E-2</v>
+        <v>5.7448094926394862E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>7.6644375436459411E-2</v>
+        <v>5.9455457847600826E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>5.9553784828642951E-2</v>
+        <v>5.2364088979851509E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>6.9633732831994172E-2</v>
+        <v>5.0060069195137592E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="5"/>
@@ -8385,22 +8385,22 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.29398906049989104</v>
+        <v>0.19720064381411284</v>
       </c>
       <c r="C55" s="3">
-        <v>0.17173507571691699</v>
+        <v>0.13161960513546891</v>
       </c>
       <c r="D55" s="3">
-        <v>0.10917668149661908</v>
+        <v>8.5670748800488042E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>0.10703911394316772</v>
+        <v>7.3716170757209487E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>8.2607288301678183E-2</v>
+        <v>6.8925347266744819E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>7.8953716257620488E-2</v>
+        <v>5.6976521717710046E-2</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="5"/>
@@ -8411,22 +8411,22 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.52562263692748667</v>
+        <v>0.424902164843034</v>
       </c>
       <c r="C56" s="3">
-        <v>0.32790338851206313</v>
+        <v>0.26247672989361609</v>
       </c>
       <c r="D56" s="3">
-        <v>0.17697967168940701</v>
+        <v>0.1479112805969969</v>
       </c>
       <c r="E56" s="3">
-        <v>0.144251498491234</v>
+        <v>0.1078256648578419</v>
       </c>
       <c r="F56" s="3">
-        <v>0.1021147866052448</v>
+        <v>9.1879613286928841E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>8.8273699683246803E-2</v>
+        <v>6.3892974240282507E-2</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="5"/>
@@ -8437,22 +8437,22 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.66937812965425203</v>
+        <v>0.58806103632355811</v>
       </c>
       <c r="C57" s="3">
-        <v>0.47699045118033567</v>
+        <v>0.39234553734162353</v>
       </c>
       <c r="D57" s="3">
-        <v>0.2623638437153839</v>
+        <v>0.21151104891101374</v>
       </c>
       <c r="E57" s="3">
-        <v>0.18219061226904892</v>
+        <v>0.14571042126056924</v>
       </c>
       <c r="F57" s="3">
-        <v>0.13875503765938876</v>
+        <v>0.10716420345180695</v>
       </c>
       <c r="G57" s="3">
-        <v>0.10347599947230959</v>
+        <v>8.1130338831644486E-2</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="5"/>
@@ -8463,22 +8463,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.76019604093027837</v>
+        <v>0.68565355964434715</v>
       </c>
       <c r="C58" s="3">
-        <v>0.57612043702643256</v>
+        <v>0.49502644458029499</v>
       </c>
       <c r="D58" s="3">
-        <v>0.33862165463450511</v>
+        <v>0.27849835150869934</v>
       </c>
       <c r="E58" s="3">
-        <v>0.23909576717919367</v>
+        <v>0.18266038937905216</v>
       </c>
       <c r="F58" s="3">
-        <v>0.18265033320681773</v>
+        <v>0.14278254842482013</v>
       </c>
       <c r="G58" s="3">
-        <v>0.11867829926137237</v>
+        <v>9.8367703423006464E-2</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="5"/>
@@ -8489,22 +8489,22 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.80137073144637938</v>
+        <v>0.74568720017719869</v>
       </c>
       <c r="C59" s="3">
-        <v>0.63979142939229916</v>
+        <v>0.56799475314803183</v>
       </c>
       <c r="D59" s="3">
-        <v>0.41073576696333702</v>
+        <v>0.34233563489925939</v>
       </c>
       <c r="E59" s="3">
-        <v>0.29239151413285036</v>
+        <v>0.23226200324812687</v>
       </c>
       <c r="F59" s="3">
-        <v>0.20750106508535565</v>
+        <v>0.17066864185287045</v>
       </c>
       <c r="G59" s="3">
-        <v>0.13698204538755637</v>
+        <v>0.11618091659208417</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="5"/>
@@ -8515,22 +8515,22 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.83423714307313579</v>
+        <v>0.78643540749211038</v>
       </c>
       <c r="C60" s="3">
-        <v>0.69215206729347534</v>
+        <v>0.62177882156078246</v>
       </c>
       <c r="D60" s="3">
-        <v>0.46128210538498948</v>
+        <v>0.39165733612498305</v>
       </c>
       <c r="E60" s="3">
-        <v>0.34098268003685844</v>
+        <v>0.27732467800190558</v>
       </c>
       <c r="F60" s="3">
-        <v>0.23798278333744383</v>
+        <v>0.18699223486975119</v>
       </c>
       <c r="G60" s="3">
-        <v>0.15528579151374039</v>
+        <v>0.13399412976116187</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="5"/>
@@ -8541,22 +8541,22 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.85313777086202325</v>
+        <v>0.81294762223686745</v>
       </c>
       <c r="C61" s="3">
-        <v>0.72138542535175976</v>
+        <v>0.6645051235595224</v>
       </c>
       <c r="D61" s="3">
-        <v>0.51053161667226798</v>
+        <v>0.43158222690350379</v>
       </c>
       <c r="E61" s="3">
-        <v>0.38449084298003455</v>
+        <v>0.31331245125046797</v>
       </c>
       <c r="F61" s="3">
-        <v>0.28020976604364733</v>
+        <v>0.22208743173180484</v>
       </c>
       <c r="G61" s="3">
-        <v>0.18143105388325675</v>
+        <v>0.14521182240042826</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="5"/>
@@ -8567,22 +8567,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.86002348897845915</v>
+        <v>0.8260187026502106</v>
       </c>
       <c r="C62" s="3">
-        <v>0.74019510899643737</v>
+        <v>0.69797783184062157</v>
       </c>
       <c r="D62" s="3">
-        <v>0.55083680195852136</v>
+        <v>0.47642165972766909</v>
       </c>
       <c r="E62" s="3">
-        <v>0.41917185226286546</v>
+        <v>0.34759522489477063</v>
       </c>
       <c r="F62" s="3">
-        <v>0.31319384170907294</v>
+        <v>0.25460715374442033</v>
       </c>
       <c r="G62" s="3">
-        <v>0.20757631625277315</v>
+        <v>0.15642951503969466</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="5"/>
@@ -8593,22 +8593,22 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.8678295443786026</v>
+        <v>0.84368710732405627</v>
       </c>
       <c r="C63" s="3">
-        <v>0.77174861084150703</v>
+        <v>0.71136938412121209</v>
       </c>
       <c r="D63" s="3">
-        <v>0.57390531370421161</v>
+        <v>0.50383327808317691</v>
       </c>
       <c r="E63" s="3">
-        <v>0.45540235899400616</v>
+        <v>0.37944913483608339</v>
       </c>
       <c r="F63" s="3">
-        <v>0.33229302338676792</v>
+        <v>0.27317774509683768</v>
       </c>
       <c r="G63" s="3">
-        <v>0.22272864288907523</v>
+        <v>0.17673134136728275</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="5"/>
@@ -8619,22 +8619,22 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.88679947076516408</v>
+        <v>0.8429708009276784</v>
       </c>
       <c r="C64" s="3">
-        <v>0.79041959760332248</v>
+        <v>0.73583061472876843</v>
       </c>
       <c r="D64" s="3">
-        <v>0.59963850156641296</v>
+        <v>0.53488256576106186</v>
       </c>
       <c r="E64" s="3">
-        <v>0.48251782750192895</v>
+        <v>0.40806413923513363</v>
       </c>
       <c r="F64" s="3">
-        <v>0.36757676146147611</v>
+        <v>0.30919706132624641</v>
       </c>
       <c r="G64" s="3">
-        <v>0.23788096952537735</v>
+        <v>0.19703316769487081</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="5"/>
@@ -8645,22 +8645,22 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.88524572262867629</v>
+        <v>0.86668378100857213</v>
       </c>
       <c r="C65" s="3">
-        <v>0.79415089319580079</v>
+        <v>0.75100999938714086</v>
       </c>
       <c r="D65" s="3">
-        <v>0.61675334417172123</v>
+        <v>0.55351788555440617</v>
       </c>
       <c r="E65" s="3">
-        <v>0.50606233580191406</v>
+        <v>0.43819602111326889</v>
       </c>
       <c r="F65" s="3">
-        <v>0.38341409379470159</v>
+        <v>0.32270202833863226</v>
       </c>
       <c r="G65" s="3">
-        <v>0.25861810322281997</v>
+        <v>0.21227886470617457</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="5"/>
@@ -8671,22 +8671,22 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.88947078831528914</v>
+        <v>0.88037456674780512</v>
       </c>
       <c r="C66" s="3">
-        <v>0.80446211234124909</v>
+        <v>0.75830940034745953</v>
       </c>
       <c r="D66" s="3">
-        <v>0.63257958513725066</v>
+        <v>0.56724132457066956</v>
       </c>
       <c r="E66" s="3">
-        <v>0.52968257487585735</v>
+        <v>0.4525336573845849</v>
       </c>
       <c r="F66" s="3">
-        <v>0.4079999086855024</v>
+        <v>0.34053565654384332</v>
       </c>
       <c r="G66" s="3">
-        <v>0.27935523692026254</v>
+        <v>0.22752456171747837</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="5"/>
@@ -8697,22 +8697,22 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.89363532603160389</v>
+        <v>0.86911878011851462</v>
       </c>
       <c r="C67" s="3">
-        <v>0.80239492091202547</v>
+        <v>0.77346636200855012</v>
       </c>
       <c r="D67" s="3">
-        <v>0.64927771972898607</v>
+        <v>0.59089959925937474</v>
       </c>
       <c r="E67" s="3">
-        <v>0.55105287744614295</v>
+        <v>0.47690805330638397</v>
       </c>
       <c r="F67" s="3">
-        <v>0.42783032391535281</v>
+        <v>0.36192386386087405</v>
       </c>
       <c r="G67" s="3">
-        <v>0.29564050511794276</v>
+        <v>0.23943702386384919</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="5"/>
@@ -8723,22 +8723,22 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.89911401143253356</v>
+        <v>0.88036704352304818</v>
       </c>
       <c r="C68" s="3">
-        <v>0.81525369558108451</v>
+        <v>0.79183506570364126</v>
       </c>
       <c r="D68" s="3">
-        <v>0.66443877522975114</v>
+        <v>0.61425999460663616</v>
       </c>
       <c r="E68" s="3">
-        <v>0.56807260710651231</v>
+        <v>0.49391257642783615</v>
       </c>
       <c r="F68" s="3">
-        <v>0.43833663872289985</v>
+        <v>0.372878263233551</v>
       </c>
       <c r="G68" s="3">
-        <v>0.31192577331562299</v>
+        <v>0.25134948601022</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="5"/>
@@ -8749,22 +8749,22 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.91859585682723588</v>
+        <v>0.87953822571331042</v>
       </c>
       <c r="C69" s="3">
-        <v>0.8275741290432379</v>
+        <v>0.79492041887436393</v>
       </c>
       <c r="D69" s="3">
-        <v>0.68422189761058294</v>
+        <v>0.63143262999879191</v>
       </c>
       <c r="E69" s="3">
-        <v>0.58515468423890082</v>
+        <v>0.50733578623962072</v>
       </c>
       <c r="F69" s="3">
-        <v>0.45850638205330096</v>
+        <v>0.403310858655684</v>
       </c>
       <c r="G69" s="3">
-        <v>0.3278520006219639</v>
+        <v>0.26440428963304735</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="5"/>
@@ -8775,22 +8775,22 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.92483467446963474</v>
+        <v>0.90246790928612286</v>
       </c>
       <c r="C70" s="3">
-        <v>0.84047437282651594</v>
+        <v>0.81389812911829629</v>
       </c>
       <c r="D70" s="3">
-        <v>0.70058292324475446</v>
+        <v>0.63728085148236735</v>
       </c>
       <c r="E70" s="3">
-        <v>0.59878464761899419</v>
+        <v>0.52121859509238322</v>
       </c>
       <c r="F70" s="3">
-        <v>0.47822805975182675</v>
+        <v>0.41011247244317528</v>
       </c>
       <c r="G70" s="3">
-        <v>0.34377822792830481</v>
+        <v>0.2774590932558747</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="5"/>
@@ -8801,22 +8801,22 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.92058970056591205</v>
+        <v>0.90619413436338292</v>
       </c>
       <c r="C71" s="3">
-        <v>0.85121347054939733</v>
+        <v>0.83205059003651616</v>
       </c>
       <c r="D71" s="3">
-        <v>0.71375137286644663</v>
+        <v>0.65920816026948048</v>
       </c>
       <c r="E71" s="3">
-        <v>0.60627515139102384</v>
+        <v>0.54736656854056143</v>
       </c>
       <c r="F71" s="3">
-        <v>0.5029927162872061</v>
+        <v>0.42136797482690597</v>
       </c>
       <c r="G71" s="3">
-        <v>0.35119920829925788</v>
+        <v>0.2899241351644129</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="5"/>
@@ -8827,22 +8827,22 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.92700955403265839</v>
+        <v>0.90947278729942882</v>
       </c>
       <c r="C72" s="3">
-        <v>0.86266677042350026</v>
+        <v>0.82527318279047357</v>
       </c>
       <c r="D72" s="3">
-        <v>0.72386045925623677</v>
+        <v>0.67134493053239475</v>
       </c>
       <c r="E72" s="3">
-        <v>0.6216011008116602</v>
+        <v>0.55521370920370983</v>
       </c>
       <c r="F72" s="3">
-        <v>0.50993977675623103</v>
+        <v>0.43814923066817257</v>
       </c>
       <c r="G72" s="3">
-        <v>0.35862018867021089</v>
+        <v>0.3023891770729511</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="5"/>
@@ -8853,22 +8853,22 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.93585877584785671</v>
+        <v>0.91210021494675497</v>
       </c>
       <c r="C73" s="3">
-        <v>0.86196601932454309</v>
+        <v>0.82604484187531446</v>
       </c>
       <c r="D73" s="3">
-        <v>0.73572959166557816</v>
+        <v>0.67391997085042299</v>
       </c>
       <c r="E73" s="3">
-        <v>0.63526553945402586</v>
+        <v>0.5586555354294187</v>
       </c>
       <c r="F73" s="3">
-        <v>0.52322217147055938</v>
+        <v>0.44158750996955154</v>
       </c>
       <c r="G73" s="3">
-        <v>0.37660001625377193</v>
+        <v>0.314335847234264</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="5"/>
@@ -8879,22 +8879,22 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.93703404840081395</v>
+        <v>0.91027061162571177</v>
       </c>
       <c r="C74" s="3">
-        <v>0.86509388589836633</v>
+        <v>0.83546560734301778</v>
       </c>
       <c r="D74" s="3">
-        <v>0.74430315941044312</v>
+        <v>0.67724503147728721</v>
       </c>
       <c r="E74" s="3">
-        <v>0.64738716154402121</v>
+        <v>0.5748214917395732</v>
       </c>
       <c r="F74" s="3">
-        <v>0.5264798708423577</v>
+        <v>0.45715764420357985</v>
       </c>
       <c r="G74" s="3">
-        <v>0.39457984383733302</v>
+        <v>0.3262825173955769</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="5"/>
@@ -8905,22 +8905,22 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.9388122663770686</v>
+        <v>0.91214757049099371</v>
       </c>
       <c r="C75" s="3">
-        <v>0.8701206183522463</v>
+        <v>0.8472907438271855</v>
       </c>
       <c r="D75" s="3">
-        <v>0.75172582877492777</v>
+        <v>0.69697446163656795</v>
       </c>
       <c r="E75" s="3">
-        <v>0.65162368598048404</v>
+        <v>0.58060749585918026</v>
       </c>
       <c r="F75" s="3">
-        <v>0.54076047219465817</v>
+        <v>0.46802537473488792</v>
       </c>
       <c r="G75" s="3">
-        <v>0.40167312186549414</v>
+        <v>0.33564129697409945</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="5"/>
@@ -8931,22 +8931,22 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.9332594535075297</v>
+        <v>0.92174546280402325</v>
       </c>
       <c r="C76" s="3">
-        <v>0.88004175309089572</v>
+        <v>0.85362004847782857</v>
       </c>
       <c r="D76" s="3">
-        <v>0.75625884648889463</v>
+        <v>0.70642013895175626</v>
       </c>
       <c r="E76" s="3">
-        <v>0.67939760325797882</v>
+        <v>0.58592600155846997</v>
       </c>
       <c r="F76" s="3">
-        <v>0.55525038277499128</v>
+        <v>0.48845383738312331</v>
       </c>
       <c r="G76" s="3">
-        <v>0.40876639989365526</v>
+        <v>0.34500007655262199</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="5"/>
@@ -8957,22 +8957,22 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.93761625822436367</v>
+        <v>0.9200088101031787</v>
       </c>
       <c r="C77" s="3">
-        <v>0.88532811279795576</v>
+        <v>0.85799384717129212</v>
       </c>
       <c r="D77" s="3">
-        <v>0.76880556182244608</v>
+        <v>0.70866780381509997</v>
       </c>
       <c r="E77" s="3">
-        <v>0.66667631646051095</v>
+        <v>0.59676695276431002</v>
       </c>
       <c r="F77" s="3">
-        <v>0.5639898803299066</v>
+        <v>0.49800711375793483</v>
       </c>
       <c r="G77" s="3">
-        <v>0.42259288432961145</v>
+        <v>0.35254097444469712</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="5"/>
@@ -8983,22 +8983,22 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.94116613040425756</v>
+        <v>0.92247804930442101</v>
       </c>
       <c r="C78" s="3">
-        <v>0.89175547952688872</v>
+        <v>0.86805578673598927</v>
       </c>
       <c r="D78" s="3">
-        <v>0.76176844468803795</v>
+        <v>0.7096860934077045</v>
       </c>
       <c r="E78" s="3">
-        <v>0.67963169185954841</v>
+        <v>0.60364101759018074</v>
       </c>
       <c r="F78" s="3">
-        <v>0.57031236841935806</v>
+        <v>0.49465725499531876</v>
       </c>
       <c r="G78" s="3">
-        <v>0.43641936876556764</v>
+        <v>0.36008187233677225</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="5"/>
@@ -9009,22 +9009,22 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.94882517072864592</v>
+        <v>0.93982251337341638</v>
       </c>
       <c r="C79" s="3">
-        <v>0.9173632477501299</v>
+        <v>0.89805594125718757</v>
       </c>
       <c r="D79" s="3">
-        <v>0.83752533272819785</v>
+        <v>0.78044109807296747</v>
       </c>
       <c r="E79" s="3">
-        <v>0.75101876698416259</v>
+        <v>0.68989191624348778</v>
       </c>
       <c r="F79" s="3">
-        <v>0.65340303834463809</v>
+        <v>0.58102795790067041</v>
       </c>
       <c r="G79" s="3">
-        <v>0.52006223165628951</v>
+        <v>0.44620481891165265</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="5"/>
@@ -9035,22 +9035,22 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.95924556529054128</v>
+        <v>0.95803239249525596</v>
       </c>
       <c r="C80" s="3">
-        <v>0.93876854396090681</v>
+        <v>0.93780478727224348</v>
       </c>
       <c r="D80" s="3">
-        <v>0.88063930042668925</v>
+        <v>0.84924557707247228</v>
       </c>
       <c r="E80" s="3">
-        <v>0.81902382053938005</v>
+        <v>0.77406041223602917</v>
       </c>
       <c r="F80" s="3">
-        <v>0.74101213349307216</v>
+        <v>0.67327246636522042</v>
       </c>
       <c r="G80" s="3">
-        <v>0.61823848612683863</v>
+        <v>0.54690371961273643</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="5"/>
@@ -9061,22 +9061,22 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.98494821042230707</v>
+        <v>0.96702842658050658</v>
       </c>
       <c r="C81" s="3">
-        <v>0.95714058822823467</v>
+        <v>0.952484824921771</v>
       </c>
       <c r="D81" s="3">
-        <v>0.91571840632741675</v>
+        <v>0.88096748672917879</v>
       </c>
       <c r="E81" s="3">
-        <v>0.86591081500883016</v>
+        <v>0.81829458307361613</v>
       </c>
       <c r="F81" s="3">
-        <v>0.79117363096136351</v>
+        <v>0.73210389941964649</v>
       </c>
       <c r="G81" s="3">
-        <v>0.67664614893017461</v>
+        <v>0.60264583341807954</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="5"/>
@@ -9087,22 +9087,22 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98268741852765973</v>
+        <v>0.98934413891111972</v>
       </c>
       <c r="C82" s="3">
-        <v>0.96909466157537172</v>
+        <v>0.96299449219533539</v>
       </c>
       <c r="D82" s="3">
-        <v>0.94152081306338331</v>
+        <v>0.93083977239660398</v>
       </c>
       <c r="E82" s="3">
-        <v>0.90616565834225449</v>
+        <v>0.87372816039764445</v>
       </c>
       <c r="F82" s="3">
-        <v>0.85449191278236114</v>
+        <v>0.80718758651224232</v>
       </c>
       <c r="G82" s="3">
-        <v>0.75260910278647963</v>
+        <v>0.69892032234612722</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="5"/>
@@ -9113,22 +9113,22 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.97443847518653937</v>
+        <v>0.98272221481907018</v>
       </c>
       <c r="C83" s="3">
-        <v>0.9690132879052521</v>
+        <v>0.98606109318842328</v>
       </c>
       <c r="D83" s="3">
-        <v>0.9594596613466837</v>
+        <v>0.94871761667243948</v>
       </c>
       <c r="E83" s="3">
-        <v>0.95161391687040786</v>
+        <v>0.92814832753325482</v>
       </c>
       <c r="F83" s="3">
-        <v>0.89706683241225593</v>
+        <v>0.87281215295758463</v>
       </c>
       <c r="G83" s="3">
-        <v>0.82681231314939196</v>
+        <v>0.77856808856239212</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="5"/>
@@ -9139,22 +9139,22 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.98746965374220885</v>
+        <v>0.99426547424289657</v>
       </c>
       <c r="C84" s="3">
-        <v>0.97932062883080451</v>
+        <v>0.98600459906751525</v>
       </c>
       <c r="D84" s="3">
-        <v>0.97831336527020607</v>
+        <v>0.97812374491618015</v>
       </c>
       <c r="E84" s="3">
-        <v>0.95867160021923936</v>
+        <v>0.95480067115649758</v>
       </c>
       <c r="F84" s="3">
-        <v>0.93978753219598388</v>
+        <v>0.91830627705364298</v>
       </c>
       <c r="G84" s="3">
-        <v>0.877922151921532</v>
+        <v>0.84964382467358912</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="5"/>
@@ -10262,11 +10262,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="A21:Q21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
@@ -10274,6 +10269,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="A21:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10286,7 +10286,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="21">
-        <v>0.99470000000000003</v>
+        <v>0.99560000000000004</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -10672,22 +10672,22 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.98922753031477517</v>
+        <v>0.97782918508928385</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98122392550455351</v>
+        <v>0.98327402576898548</v>
       </c>
       <c r="D24" s="3">
-        <v>0.9708740455959155</v>
+        <v>0.95045849885548483</v>
       </c>
       <c r="E24" s="3">
-        <v>0.95941892244724447</v>
+        <v>0.94508922177986432</v>
       </c>
       <c r="F24" s="3">
-        <v>0.92015422155193238</v>
+        <v>0.90414251184170236</v>
       </c>
       <c r="G24" s="3">
-        <v>0.87094252009948148</v>
+        <v>0.83314695695045471</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="5"/>
@@ -10698,22 +10698,22 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99603077031646081</v>
+        <v>0.98230176785346879</v>
       </c>
       <c r="C25" s="3">
-        <v>0.97126794738096067</v>
+        <v>0.98445433695189521</v>
       </c>
       <c r="D25" s="3">
-        <v>0.9559968465565305</v>
+        <v>0.93871482430898001</v>
       </c>
       <c r="E25" s="3">
-        <v>0.92927072227929797</v>
+        <v>0.89356809051566688</v>
       </c>
       <c r="F25" s="3">
-        <v>0.88649261726353856</v>
+        <v>0.83795320778293936</v>
       </c>
       <c r="G25" s="3">
-        <v>0.8099800451520982</v>
+        <v>0.75793586981666028</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="5"/>
@@ -10724,22 +10724,22 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.98698186253312403</v>
+        <v>0.98028288545272191</v>
       </c>
       <c r="C26" s="3">
-        <v>0.97088211711893502</v>
+        <v>0.95094053053969962</v>
       </c>
       <c r="D26" s="3">
-        <v>0.93039241415349661</v>
+        <v>0.88477016805740472</v>
       </c>
       <c r="E26" s="3">
-        <v>0.89383717689749653</v>
+        <v>0.84616425089757252</v>
       </c>
       <c r="F26" s="3">
-        <v>0.83270614927791864</v>
+        <v>0.7594066354566078</v>
       </c>
       <c r="G26" s="3">
-        <v>0.73256230791747257</v>
+        <v>0.64432738443882798</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="5"/>
@@ -10750,22 +10750,22 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.97564636718955755</v>
+        <v>0.96956395437695608</v>
       </c>
       <c r="C27" s="3">
-        <v>0.9466910208057101</v>
+        <v>0.92251772941732746</v>
       </c>
       <c r="D27" s="3">
-        <v>0.89396491934807543</v>
+        <v>0.82479796484992129</v>
       </c>
       <c r="E27" s="3">
-        <v>0.8475206364115111</v>
+        <v>0.75972331139040739</v>
       </c>
       <c r="F27" s="3">
-        <v>0.77766595336124045</v>
+        <v>0.67098443192985846</v>
       </c>
       <c r="G27" s="3">
-        <v>0.65714460119583984</v>
+        <v>0.53884062183403159</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="5"/>
@@ -10776,22 +10776,22 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.96998121993004338</v>
+        <v>0.9519558047297636</v>
       </c>
       <c r="C28" s="3">
-        <v>0.93323557195083151</v>
+        <v>0.89382975127401176</v>
       </c>
       <c r="D28" s="3">
-        <v>0.86618504197277368</v>
+        <v>0.78324617353660408</v>
       </c>
       <c r="E28" s="3">
-        <v>0.79591617284038507</v>
+        <v>0.70120402826034278</v>
       </c>
       <c r="F28" s="3">
-        <v>0.71866259113989472</v>
+        <v>0.60596541160237094</v>
       </c>
       <c r="G28" s="3">
-        <v>0.60341156611699043</v>
+        <v>0.48952297270333861</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="5"/>
@@ -10802,22 +10802,22 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.95594602639638193</v>
+        <v>0.91721440721902447</v>
       </c>
       <c r="C29" s="3">
-        <v>0.89530669619075687</v>
+        <v>0.83971051861112966</v>
       </c>
       <c r="D29" s="3">
-        <v>0.79284773847988954</v>
+        <v>0.6951768197578827</v>
       </c>
       <c r="E29" s="3">
-        <v>0.72341284508832038</v>
+        <v>0.60789280664959144</v>
       </c>
       <c r="F29" s="3">
-        <v>0.62560287654945879</v>
+        <v>0.52022510307983372</v>
       </c>
       <c r="G29" s="3">
-        <v>0.5076640243710866</v>
+        <v>0.4025933008128334</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="5"/>
@@ -10828,22 +10828,22 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.91866662365308838</v>
+        <v>0.87665191067357173</v>
       </c>
       <c r="C30" s="3">
-        <v>0.84312645149760712</v>
+        <v>0.77480154012202296</v>
       </c>
       <c r="D30" s="3">
-        <v>0.72397074298926878</v>
+        <v>0.62451048307804646</v>
       </c>
       <c r="E30" s="3">
-        <v>0.64482237518120455</v>
+        <v>0.53638746692410333</v>
       </c>
       <c r="F30" s="3">
-        <v>0.55303783309496157</v>
+        <v>0.44635699949706603</v>
       </c>
       <c r="G30" s="3">
-        <v>0.43745543257649355</v>
+        <v>0.34881114617328884</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="5"/>
@@ -10854,22 +10854,22 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.91795416149362896</v>
+        <v>0.86205064763301975</v>
       </c>
       <c r="C31" s="3">
-        <v>0.84522453831778777</v>
+        <v>0.78017194955841385</v>
       </c>
       <c r="D31" s="3">
-        <v>0.72678299144541103</v>
+        <v>0.618666083617186</v>
       </c>
       <c r="E31" s="3">
-        <v>0.63788733189671809</v>
+        <v>0.53153944957995225</v>
       </c>
       <c r="F31" s="3">
-        <v>0.54218813579883263</v>
+        <v>0.43958049675579786</v>
       </c>
       <c r="G31" s="3">
-        <v>0.43163350386717858</v>
+        <v>0.34214275071782313</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="5"/>
@@ -10880,22 +10880,22 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.92031617963810086</v>
+        <v>0.88013659385119958</v>
       </c>
       <c r="C32" s="3">
-        <v>0.84826266722475752</v>
+        <v>0.78064562830355011</v>
       </c>
       <c r="D32" s="3">
-        <v>0.71118861913365428</v>
+        <v>0.6145013045265264</v>
       </c>
       <c r="E32" s="3">
-        <v>0.63674339359731047</v>
+        <v>0.53392015709515384</v>
       </c>
       <c r="F32" s="3">
-        <v>0.53608776475770969</v>
+        <v>0.44018448883829259</v>
       </c>
       <c r="G32" s="3">
-        <v>0.42581157515786361</v>
+        <v>0.33547435526235742</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="5"/>
@@ -10906,22 +10906,22 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.9190303411824341</v>
+        <v>0.86219429266825665</v>
       </c>
       <c r="C33" s="3">
-        <v>0.83544863692173088</v>
+        <v>0.75988799190407408</v>
       </c>
       <c r="D33" s="3">
-        <v>0.71002043939032622</v>
+        <v>0.59620009583311617</v>
       </c>
       <c r="E33" s="3">
-        <v>0.62790454392427664</v>
+        <v>0.52215262859069944</v>
       </c>
       <c r="F33" s="3">
-        <v>0.53148809120197915</v>
+        <v>0.42820487907555826</v>
       </c>
       <c r="G33" s="3">
-        <v>0.41633346863151233</v>
+        <v>0.32919910948257436</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="5"/>
@@ -10932,22 +10932,22 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.91019009320371291</v>
+        <v>0.86573445814553085</v>
       </c>
       <c r="C34" s="3">
-        <v>0.8312106172958369</v>
+        <v>0.75904367637258707</v>
       </c>
       <c r="D34" s="3">
-        <v>0.69977918306776576</v>
+        <v>0.60159386247232793</v>
       </c>
       <c r="E34" s="3">
-        <v>0.61674344677117321</v>
+        <v>0.51758532633004628</v>
       </c>
       <c r="F34" s="3">
-        <v>0.52424018798672622</v>
+        <v>0.42386080478207733</v>
       </c>
       <c r="G34" s="3">
-        <v>0.40685536210516104</v>
+        <v>0.32292386370279125</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="5"/>
@@ -10958,22 +10958,22 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.90505899472489548</v>
+        <v>0.85034631711876085</v>
       </c>
       <c r="C35" s="3">
-        <v>0.82089568871639096</v>
+        <v>0.75245630015840459</v>
       </c>
       <c r="D35" s="3">
-        <v>0.69504071903381048</v>
+        <v>0.58234920625223652</v>
       </c>
       <c r="E35" s="3">
-        <v>0.60794122229161962</v>
+        <v>0.50127043917501757</v>
       </c>
       <c r="F35" s="3">
-        <v>0.51320644035302387</v>
+        <v>0.41304362057860394</v>
       </c>
       <c r="G35" s="3">
-        <v>0.39575029013029006</v>
+        <v>0.31821214041385298</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="5"/>
@@ -10984,22 +10984,22 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.8990287319360889</v>
+        <v>0.8533506782852045</v>
       </c>
       <c r="C36" s="3">
-        <v>0.81408464369480638</v>
+        <v>0.73587768941156317</v>
       </c>
       <c r="D36" s="3">
-        <v>0.68019132427765683</v>
+        <v>0.57967959452099482</v>
       </c>
       <c r="E36" s="3">
-        <v>0.5994610109132259</v>
+        <v>0.49749011348573785</v>
       </c>
       <c r="F36" s="3">
-        <v>0.49772676185733428</v>
+        <v>0.41149649897077956</v>
       </c>
       <c r="G36" s="3">
-        <v>0.38464521815541902</v>
+        <v>0.31350041712491472</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="5"/>
@@ -11010,22 +11010,22 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.889529560985162</v>
+        <v>0.84768935206753893</v>
       </c>
       <c r="C37" s="3">
-        <v>0.8052071759295174</v>
+        <v>0.74974193614018581</v>
       </c>
       <c r="D37" s="3">
-        <v>0.67242733764146689</v>
+        <v>0.57517772409902757</v>
       </c>
       <c r="E37" s="3">
-        <v>0.59181385332836123</v>
+        <v>0.50184714988031032</v>
       </c>
       <c r="F37" s="3">
-        <v>0.49236826283908036</v>
+        <v>0.41010430934191638</v>
       </c>
       <c r="G37" s="3">
-        <v>0.37730179717979351</v>
+        <v>0.30576471084331808</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="5"/>
@@ -11036,22 +11036,22 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.88171477494172024</v>
+        <v>0.83577408950689824</v>
       </c>
       <c r="C38" s="3">
-        <v>0.79890200497006714</v>
+        <v>0.74094405241675787</v>
       </c>
       <c r="D38" s="3">
-        <v>0.65843411650699135</v>
+        <v>0.56977984053512554</v>
       </c>
       <c r="E38" s="3">
-        <v>0.58080341297173155</v>
+        <v>0.48999116267220205</v>
       </c>
       <c r="F38" s="3">
-        <v>0.49220827754619706</v>
+        <v>0.39131166345494561</v>
       </c>
       <c r="G38" s="3">
-        <v>0.36995837620416794</v>
+        <v>0.29802900456172143</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="5"/>
@@ -11062,22 +11062,22 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.87682517495713563</v>
+        <v>0.83224162662709522</v>
       </c>
       <c r="C39" s="3">
-        <v>0.79380520457896719</v>
+        <v>0.7268422151302566</v>
       </c>
       <c r="D39" s="3">
-        <v>0.65522805472405665</v>
+        <v>0.56621795858773771</v>
       </c>
       <c r="E39" s="3">
-        <v>0.56739635074314299</v>
+        <v>0.47213727268192252</v>
       </c>
       <c r="F39" s="3">
-        <v>0.46812500417013569</v>
+        <v>0.38552244968321608</v>
       </c>
       <c r="G39" s="3">
-        <v>0.35482498648402738</v>
+        <v>0.28831647977688984</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="5"/>
@@ -11088,22 +11088,22 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.87084056492118334</v>
+        <v>0.81881465227648231</v>
       </c>
       <c r="C40" s="3">
-        <v>0.78857004001319686</v>
+        <v>0.72176006683711846</v>
       </c>
       <c r="D40" s="3">
-        <v>0.64729916463375914</v>
+        <v>0.55558512859560261</v>
       </c>
       <c r="E40" s="3">
-        <v>0.55379755647787965</v>
+        <v>0.46953257902848655</v>
       </c>
       <c r="F40" s="3">
-        <v>0.45296020481174837</v>
+        <v>0.38351450418562361</v>
       </c>
       <c r="G40" s="3">
-        <v>0.33969159676388677</v>
+        <v>0.27860395499205826</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="5"/>
@@ -11114,22 +11114,22 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.8748697366296343</v>
+        <v>0.82167405583452147</v>
       </c>
       <c r="C41" s="3">
-        <v>0.77497649430927851</v>
+        <v>0.71527408847577179</v>
       </c>
       <c r="D41" s="3">
-        <v>0.63356842360028653</v>
+        <v>0.5451893844433261</v>
       </c>
       <c r="E41" s="3">
-        <v>0.54086578889618253</v>
+        <v>0.45487909669865234</v>
       </c>
       <c r="F41" s="3">
-        <v>0.44579122593994303</v>
+        <v>0.37389736657508865</v>
       </c>
       <c r="G41" s="3">
-        <v>0.32887645971950985</v>
+        <v>0.26697821948833395</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="5"/>
@@ -11140,22 +11140,22 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.86440838079746718</v>
+        <v>0.81128377729064116</v>
       </c>
       <c r="C42" s="3">
-        <v>0.76671714461814588</v>
+        <v>0.71332813626924396</v>
       </c>
       <c r="D42" s="3">
-        <v>0.62009332691464236</v>
+        <v>0.53584487267927705</v>
       </c>
       <c r="E42" s="3">
-        <v>0.52825221857721461</v>
+        <v>0.44749086955729955</v>
       </c>
       <c r="F42" s="3">
-        <v>0.42595888878245736</v>
+        <v>0.35168311794399587</v>
       </c>
       <c r="G42" s="3">
-        <v>0.31806132267513293</v>
+        <v>0.25535248398460964</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="5"/>
@@ -11166,22 +11166,22 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.86041975742222709</v>
+        <v>0.81691179597125563</v>
       </c>
       <c r="C43" s="3">
-        <v>0.7650012739444354</v>
+        <v>0.70625823821513944</v>
       </c>
       <c r="D43" s="3">
-        <v>0.60640045731049452</v>
+        <v>0.52626396130597553</v>
       </c>
       <c r="E43" s="3">
-        <v>0.51023056494888919</v>
+        <v>0.42847430793415198</v>
       </c>
       <c r="F43" s="3">
-        <v>0.4023920580532776</v>
+        <v>0.34328274786324808</v>
       </c>
       <c r="G43" s="3">
-        <v>0.30134010614992401</v>
+        <v>0.24017500954957252</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="5"/>
@@ -11192,22 +11192,22 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.85113909564364509</v>
+        <v>0.81083265484425715</v>
       </c>
       <c r="C44" s="3">
-        <v>0.74748635821318943</v>
+        <v>0.68741438435806468</v>
       </c>
       <c r="D44" s="3">
-        <v>0.59147743693127963</v>
+        <v>0.51573344498580598</v>
       </c>
       <c r="E44" s="3">
-        <v>0.48603787133794291</v>
+        <v>0.42014473278081949</v>
       </c>
       <c r="F44" s="3">
-        <v>0.38910959939094503</v>
+        <v>0.32635912864945354</v>
       </c>
       <c r="G44" s="3">
-        <v>0.28461888962471515</v>
+        <v>0.22499753511453541</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="5"/>
@@ -11218,22 +11218,22 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.85231242299176091</v>
+        <v>0.79487274218566439</v>
       </c>
       <c r="C45" s="3">
-        <v>0.73927853946202537</v>
+        <v>0.67352400800249057</v>
       </c>
       <c r="D45" s="3">
-        <v>0.56156160158655077</v>
+        <v>0.4869042941137085</v>
       </c>
       <c r="E45" s="3">
-        <v>0.46610887620012365</v>
+        <v>0.39353705171520598</v>
       </c>
       <c r="F45" s="3">
-        <v>0.36129159684654777</v>
+        <v>0.30577988718635785</v>
       </c>
       <c r="G45" s="3">
-        <v>0.26278244804209339</v>
+        <v>0.20864891607410985</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="5"/>
@@ -11244,22 +11244,22 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.83408799624222563</v>
+        <v>0.80645226459519392</v>
       </c>
       <c r="C46" s="3">
-        <v>0.72713697710555913</v>
+        <v>0.67469652078819586</v>
       </c>
       <c r="D46" s="3">
-        <v>0.53648394436039504</v>
+        <v>0.47443956737053677</v>
       </c>
       <c r="E46" s="3">
-        <v>0.43488017835956061</v>
+        <v>0.37714677977903133</v>
       </c>
       <c r="F46" s="3">
-        <v>0.32869576789005484</v>
+        <v>0.27780229186476912</v>
       </c>
       <c r="G46" s="3">
-        <v>0.24094600645947165</v>
+        <v>0.19230029703368429</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="5"/>
@@ -11270,22 +11270,22 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.81587206548259283</v>
+        <v>0.78859954566755397</v>
       </c>
       <c r="C47" s="3">
-        <v>0.69268863428229643</v>
+        <v>0.64030517123750919</v>
       </c>
       <c r="D47" s="3">
-        <v>0.51127642219030522</v>
+        <v>0.44086319441073368</v>
       </c>
       <c r="E47" s="3">
-        <v>0.39829561364235821</v>
+        <v>0.34581849091529721</v>
       </c>
       <c r="F47" s="3">
-        <v>0.30391394457782989</v>
+        <v>0.25987196697596093</v>
       </c>
       <c r="G47" s="3">
-        <v>0.21667312018246393</v>
+        <v>0.17433933918608252</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="5"/>
@@ -11296,22 +11296,22 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.8067402243869497</v>
+        <v>0.76689503499996881</v>
       </c>
       <c r="C48" s="3">
-        <v>0.66125587669286223</v>
+        <v>0.62337424133501784</v>
       </c>
       <c r="D48" s="3">
-        <v>0.46044674642282901</v>
+        <v>0.40715837718958758</v>
       </c>
       <c r="E48" s="3">
-        <v>0.35610778496015388</v>
+        <v>0.315266652393279</v>
       </c>
       <c r="F48" s="3">
-        <v>0.27387536430382048</v>
+        <v>0.23508088563009269</v>
       </c>
       <c r="G48" s="3">
-        <v>0.19240023390545619</v>
+        <v>0.15637838133848073</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="5"/>
@@ -11322,22 +11322,22 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.77047621653523357</v>
+        <v>0.7415053518428818</v>
       </c>
       <c r="C49" s="3">
-        <v>0.60422025383746103</v>
+        <v>0.5739874012954449</v>
       </c>
       <c r="D49" s="3">
-        <v>0.40630372857134284</v>
+        <v>0.36329516650788662</v>
       </c>
       <c r="E49" s="3">
-        <v>0.3124380911086993</v>
+        <v>0.27581803578011294</v>
       </c>
       <c r="F49" s="3">
-        <v>0.23085591423328661</v>
+        <v>0.19468250068722318</v>
       </c>
       <c r="G49" s="3">
-        <v>0.1707910480027483</v>
+        <v>0.14078816367807984</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="5"/>
@@ -11348,22 +11348,22 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.7127244739178703</v>
+        <v>0.69760922503714817</v>
       </c>
       <c r="C50" s="3">
-        <v>0.53507748321664028</v>
+        <v>0.5189590033780741</v>
       </c>
       <c r="D50" s="3">
-        <v>0.32783689123196885</v>
+        <v>0.30159757536850718</v>
       </c>
       <c r="E50" s="3">
-        <v>0.2596247863144866</v>
+        <v>0.23332827406505879</v>
       </c>
       <c r="F50" s="3">
-        <v>0.1960648915269933</v>
+        <v>0.15755141892149513</v>
       </c>
       <c r="G50" s="3">
-        <v>0.14918186210004045</v>
+        <v>0.12519794601767892</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="5"/>
@@ -11374,22 +11374,22 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.60888935267912325</v>
+        <v>0.599880248028137</v>
       </c>
       <c r="C51" s="3">
-        <v>0.41753550444240989</v>
+        <v>0.41652745189016771</v>
       </c>
       <c r="D51" s="3">
-        <v>0.25004974939867208</v>
+        <v>0.2449436351045165</v>
       </c>
       <c r="E51" s="3">
-        <v>0.19906446355386279</v>
+        <v>0.18292295538627823</v>
       </c>
       <c r="F51" s="3">
-        <v>0.15975862933253876</v>
+        <v>0.14322414490264845</v>
       </c>
       <c r="G51" s="3">
-        <v>0.12749831292455638</v>
+        <v>0.11113108800794715</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="5"/>
@@ -11400,22 +11400,22 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.41817260261423633</v>
+        <v>0.4499952284912479</v>
       </c>
       <c r="C52" s="3">
-        <v>0.27180143868826867</v>
+        <v>0.30060034110512535</v>
       </c>
       <c r="D52" s="3">
-        <v>0.1610206983094003</v>
+        <v>0.16573314636277975</v>
       </c>
       <c r="E52" s="3">
-        <v>0.14718736744898628</v>
+        <v>0.13949148421956495</v>
       </c>
       <c r="F52" s="3">
-        <v>0.10735598693391685</v>
+        <v>0.11242121459523949</v>
       </c>
       <c r="G52" s="3">
-        <v>0.10581476374907228</v>
+        <v>9.7064229998215373E-2</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="5"/>
@@ -11426,22 +11426,22 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.17813129417159085</v>
+        <v>0.23618458486713617</v>
       </c>
       <c r="C53" s="3">
-        <v>0.13558311122029271</v>
+        <v>0.15595423102276768</v>
       </c>
       <c r="D53" s="3">
-        <v>0.12096871803044609</v>
+        <v>0.11450207553838905</v>
       </c>
       <c r="E53" s="3">
-        <v>0.11182164033734314</v>
+        <v>9.6011463978411496E-2</v>
       </c>
       <c r="F53" s="3">
-        <v>9.4553978902966407E-2</v>
+        <v>8.4542215301018145E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.10050727215183558</v>
+        <v>8.7977105900615277E-2</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="5"/>
@@ -11452,22 +11452,22 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>0.11220070863934928</v>
+        <v>7.4849293804058581E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>0.10616432158452045</v>
+        <v>8.5746910938829163E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>9.5703750598895229E-2</v>
+        <v>8.3484457216752087E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>0.10140243943580533</v>
+        <v>7.3393171783862426E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>0.10114723558192733</v>
+        <v>7.891621030595361E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>9.5199780554598892E-2</v>
+        <v>7.888998180301518E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="5"/>
@@ -11478,22 +11478,22 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.29777953128876244</v>
+        <v>0.25141574412828865</v>
       </c>
       <c r="C55" s="3">
-        <v>0.19271438112273692</v>
+        <v>0.15943632693191195</v>
       </c>
       <c r="D55" s="3">
-        <v>0.15031153290576243</v>
+        <v>0.11591375830641477</v>
       </c>
       <c r="E55" s="3">
-        <v>0.12743398975775991</v>
+        <v>9.5242054286799077E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>0.12081499421043754</v>
+        <v>8.8237004098202843E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.11045704688545865</v>
+        <v>8.358185304501381E-2</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="5"/>
@@ -11504,22 +11504,22 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.52025679973094174</v>
+        <v>0.4674729610871754</v>
       </c>
       <c r="C56" s="3">
-        <v>0.35811051047689801</v>
+        <v>0.29622818192880651</v>
       </c>
       <c r="D56" s="3">
-        <v>0.21997231709712686</v>
+        <v>0.1700604297201864</v>
       </c>
       <c r="E56" s="3">
-        <v>0.17386636623868737</v>
+        <v>0.13397156357006704</v>
       </c>
       <c r="F56" s="3">
-        <v>0.14663419529610411</v>
+        <v>0.11824470653130896</v>
       </c>
       <c r="G56" s="3">
-        <v>0.12571431321631843</v>
+        <v>8.8273724287012439E-2</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="5"/>
@@ -11530,22 +11530,22 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.66621452571420114</v>
+        <v>0.61072060357205538</v>
       </c>
       <c r="C57" s="3">
-        <v>0.49386234001349805</v>
+        <v>0.41677945020934226</v>
       </c>
       <c r="D57" s="3">
-        <v>0.29873993038356167</v>
+        <v>0.2297790792851489</v>
       </c>
       <c r="E57" s="3">
-        <v>0.23377349635631017</v>
+        <v>0.17761782394660536</v>
       </c>
       <c r="F57" s="3">
-        <v>0.17693230044512526</v>
+        <v>0.13552421144777488</v>
       </c>
       <c r="G57" s="3">
-        <v>0.14431589686615875</v>
+        <v>0.10846738465720476</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="5"/>
@@ -11556,22 +11556,22 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.75346091795030445</v>
+        <v>0.69969627577949578</v>
       </c>
       <c r="C58" s="3">
-        <v>0.58306862218627931</v>
+        <v>0.50615615827446581</v>
       </c>
       <c r="D58" s="3">
-        <v>0.3773531633423427</v>
+        <v>0.29203313909724116</v>
       </c>
       <c r="E58" s="3">
-        <v>0.27739812451816165</v>
+        <v>0.21326455494191082</v>
       </c>
       <c r="F58" s="3">
-        <v>0.21473872451162673</v>
+        <v>0.15815003641818265</v>
       </c>
       <c r="G58" s="3">
-        <v>0.16291748051599908</v>
+        <v>0.12866104502739709</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="5"/>
@@ -11582,22 +11582,22 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.80734252513298899</v>
+        <v>0.74392016462606048</v>
       </c>
       <c r="C59" s="3">
-        <v>0.65724190716714581</v>
+        <v>0.57546885669228443</v>
       </c>
       <c r="D59" s="3">
-        <v>0.43387616926658323</v>
+        <v>0.34437945711538476</v>
       </c>
       <c r="E59" s="3">
-        <v>0.32807004502610809</v>
+        <v>0.26083110788992148</v>
       </c>
       <c r="F59" s="3">
-        <v>0.24839411403891132</v>
+        <v>0.19271755592298132</v>
       </c>
       <c r="G59" s="3">
-        <v>0.18358084073497929</v>
+        <v>0.1447518998296462</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="5"/>
@@ -11608,22 +11608,22 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.83328036451301035</v>
+        <v>0.79238296754973314</v>
       </c>
       <c r="C60" s="3">
-        <v>0.69496571556850983</v>
+        <v>0.61644710572436234</v>
       </c>
       <c r="D60" s="3">
-        <v>0.49019124837427219</v>
+        <v>0.39962028901250185</v>
       </c>
       <c r="E60" s="3">
-        <v>0.37440536716107414</v>
+        <v>0.30264020873233399</v>
       </c>
       <c r="F60" s="3">
-        <v>0.2859381370209077</v>
+        <v>0.22227616570763828</v>
       </c>
       <c r="G60" s="3">
-        <v>0.20424420095395951</v>
+        <v>0.16084275463189529</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="5"/>
@@ -11634,22 +11634,22 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.84396145994632543</v>
+        <v>0.79933646780976753</v>
       </c>
       <c r="C61" s="3">
-        <v>0.72796225233465339</v>
+        <v>0.64936283072193834</v>
       </c>
       <c r="D61" s="3">
-        <v>0.52950732641282827</v>
+        <v>0.42710165532066247</v>
       </c>
       <c r="E61" s="3">
-        <v>0.42366289418693082</v>
+        <v>0.3327803287030725</v>
       </c>
       <c r="F61" s="3">
-        <v>0.31460881445699129</v>
+        <v>0.2454366841502385</v>
       </c>
       <c r="G61" s="3">
-        <v>0.2268738296356182</v>
+        <v>0.17747509056805272</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="5"/>
@@ -11660,22 +11660,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.86617847740877851</v>
+        <v>0.818203483734111</v>
       </c>
       <c r="C62" s="3">
-        <v>0.75533032278332579</v>
+        <v>0.67918072157457932</v>
       </c>
       <c r="D62" s="3">
-        <v>0.56522124340880175</v>
+        <v>0.46809489578379465</v>
       </c>
       <c r="E62" s="3">
-        <v>0.45228045666335553</v>
+        <v>0.35937209703665152</v>
       </c>
       <c r="F62" s="3">
-        <v>0.34183557071519821</v>
+        <v>0.27819482217560532</v>
       </c>
       <c r="G62" s="3">
-        <v>0.24950345831727691</v>
+        <v>0.19410742650421017</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="5"/>
@@ -11686,22 +11686,22 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.8717380980601106</v>
+        <v>0.82933863806177244</v>
       </c>
       <c r="C63" s="3">
-        <v>0.76632909643134184</v>
+        <v>0.69828422370811849</v>
       </c>
       <c r="D63" s="3">
-        <v>0.58416067138094596</v>
+        <v>0.48830319917548221</v>
       </c>
       <c r="E63" s="3">
-        <v>0.47260967622341721</v>
+        <v>0.39300031558636356</v>
       </c>
       <c r="F63" s="3">
-        <v>0.37111183869946412</v>
+        <v>0.28788746304332846</v>
       </c>
       <c r="G63" s="3">
-        <v>0.26427546315455946</v>
+        <v>0.20196855388889778</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="5"/>
@@ -11712,22 +11712,22 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.88758747997701226</v>
+        <v>0.83912117701683842</v>
       </c>
       <c r="C64" s="3">
-        <v>0.78568843698570034</v>
+        <v>0.7214623653102743</v>
       </c>
       <c r="D64" s="3">
-        <v>0.61330762981648013</v>
+        <v>0.52054396742948794</v>
       </c>
       <c r="E64" s="3">
-        <v>0.50548466366947731</v>
+        <v>0.41235412248341613</v>
       </c>
       <c r="F64" s="3">
-        <v>0.38792732018812986</v>
+        <v>0.31065457928151896</v>
       </c>
       <c r="G64" s="3">
-        <v>0.27904746799184205</v>
+        <v>0.20982968127358537</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="5"/>
@@ -11738,22 +11738,22 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.89079326600178732</v>
+        <v>0.83410787285070875</v>
       </c>
       <c r="C65" s="3">
-        <v>0.80295202696276502</v>
+        <v>0.73856810923911276</v>
       </c>
       <c r="D65" s="3">
-        <v>0.63053485808696097</v>
+        <v>0.53187845898308206</v>
       </c>
       <c r="E65" s="3">
-        <v>0.52207297537652475</v>
+        <v>0.42879428076351822</v>
       </c>
       <c r="F65" s="3">
-        <v>0.41741605715996727</v>
+        <v>0.32599234270916777</v>
       </c>
       <c r="G65" s="3">
-        <v>0.2988288192943469</v>
+        <v>0.22497034870868166</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="5"/>
@@ -11764,22 +11764,22 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.89288013333264082</v>
+        <v>0.86279729867942867</v>
       </c>
       <c r="C66" s="3">
-        <v>0.80449521339036834</v>
+        <v>0.73074819145742187</v>
       </c>
       <c r="D66" s="3">
-        <v>0.64687212968089969</v>
+        <v>0.55276272759558809</v>
       </c>
       <c r="E66" s="3">
-        <v>0.54750017150422459</v>
+        <v>0.45454691945985204</v>
       </c>
       <c r="F66" s="3">
-        <v>0.4329045277029257</v>
+        <v>0.34182819388037589</v>
       </c>
       <c r="G66" s="3">
-        <v>0.31861017059685176</v>
+        <v>0.24011101614377797</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="5"/>
@@ -11790,22 +11790,22 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.89652558732769638</v>
+        <v>0.8598106605110285</v>
       </c>
       <c r="C67" s="3">
-        <v>0.81180282777389012</v>
+        <v>0.75042387795596832</v>
       </c>
       <c r="D67" s="3">
-        <v>0.66306864957236833</v>
+        <v>0.55429521120387126</v>
       </c>
       <c r="E67" s="3">
-        <v>0.5578257014284278</v>
+        <v>0.46343595698881057</v>
       </c>
       <c r="F67" s="3">
-        <v>0.44953349035533052</v>
+        <v>0.35753127064587503</v>
       </c>
       <c r="G67" s="3">
-        <v>0.33195384651272319</v>
+        <v>0.25115700313287481</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="5"/>
@@ -11816,22 +11816,22 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.89681622709089104</v>
+        <v>0.84748341204475874</v>
       </c>
       <c r="C68" s="3">
-        <v>0.8205559244396019</v>
+        <v>0.76425442627904183</v>
       </c>
       <c r="D68" s="3">
-        <v>0.67350592916316954</v>
+        <v>0.57141832185773078</v>
       </c>
       <c r="E68" s="3">
-        <v>0.57823951808165919</v>
+        <v>0.4765763314887746</v>
       </c>
       <c r="F68" s="3">
-        <v>0.46344102980497703</v>
+        <v>0.37033257298254552</v>
       </c>
       <c r="G68" s="3">
-        <v>0.34529752242859468</v>
+        <v>0.26220299012197168</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="5"/>
@@ -11842,22 +11842,22 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.9106343275844776</v>
+        <v>0.86982032898632045</v>
       </c>
       <c r="C69" s="3">
-        <v>0.82588857900941237</v>
+        <v>0.7626842983308888</v>
       </c>
       <c r="D69" s="3">
-        <v>0.68697056920640742</v>
+        <v>0.5905254685586323</v>
       </c>
       <c r="E69" s="3">
-        <v>0.59110267225499025</v>
+        <v>0.48494759093323897</v>
       </c>
       <c r="F69" s="3">
-        <v>0.47362949730770898</v>
+        <v>0.38813847065496027</v>
       </c>
       <c r="G69" s="3">
-        <v>0.35757366908189742</v>
+        <v>0.27180595087138471</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="5"/>
@@ -11868,22 +11868,22 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.91852413947428901</v>
+        <v>0.88279527796252777</v>
       </c>
       <c r="C70" s="3">
-        <v>0.84771882141015176</v>
+        <v>0.77973344981888659</v>
       </c>
       <c r="D70" s="3">
-        <v>0.7057076793406456</v>
+        <v>0.59993653879388931</v>
       </c>
       <c r="E70" s="3">
-        <v>0.60475455381566023</v>
+        <v>0.49806902581914175</v>
       </c>
       <c r="F70" s="3">
-        <v>0.4974040197050581</v>
+        <v>0.40043327079936092</v>
       </c>
       <c r="G70" s="3">
-        <v>0.36984981573520015</v>
+        <v>0.28140891162079773</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="5"/>
@@ -11894,22 +11894,22 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.92456434569947543</v>
+        <v>0.87075349708348093</v>
       </c>
       <c r="C71" s="3">
-        <v>0.85083250848640779</v>
+        <v>0.80186581895964559</v>
       </c>
       <c r="D71" s="3">
-        <v>0.7166946433178516</v>
+        <v>0.61468455333907979</v>
       </c>
       <c r="E71" s="3">
-        <v>0.61974363090583617</v>
+        <v>0.50785895804686743</v>
       </c>
       <c r="F71" s="3">
-        <v>0.5114300428857218</v>
+        <v>0.41006580526216341</v>
       </c>
       <c r="G71" s="3">
-        <v>0.38384329714844756</v>
+        <v>0.29139088339851144</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="5"/>
@@ -11920,22 +11920,22 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.92571391645853307</v>
+        <v>0.8913140646408424</v>
       </c>
       <c r="C72" s="3">
-        <v>0.85371251404884929</v>
+        <v>0.78646909050380243</v>
       </c>
       <c r="D72" s="3">
-        <v>0.72823709740900533</v>
+        <v>0.62035333656383729</v>
       </c>
       <c r="E72" s="3">
-        <v>0.6305558839448081</v>
+        <v>0.5151138697809311</v>
       </c>
       <c r="F72" s="3">
-        <v>0.52238631826788517</v>
+        <v>0.41220308761967467</v>
       </c>
       <c r="G72" s="3">
-        <v>0.39783677856169497</v>
+        <v>0.30137285517622514</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="5"/>
@@ -11946,22 +11946,22 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.93630553847590847</v>
+        <v>0.90117744072503236</v>
       </c>
       <c r="C73" s="3">
-        <v>0.86187065877380109</v>
+        <v>0.79537219642715784</v>
       </c>
       <c r="D73" s="3">
-        <v>0.73085303192751139</v>
+        <v>0.62919290917843729</v>
       </c>
       <c r="E73" s="3">
-        <v>0.6427920415033106</v>
+        <v>0.53272594297780418</v>
       </c>
       <c r="F73" s="3">
-        <v>0.53154825690336838</v>
+        <v>0.42214149109645671</v>
       </c>
       <c r="G73" s="3">
-        <v>0.40711066197006907</v>
+        <v>0.31214385883375023</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="5"/>
@@ -11972,22 +11972,22 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.93030612483526398</v>
+        <v>0.89079444108522843</v>
       </c>
       <c r="C74" s="3">
-        <v>0.86432879403948348</v>
+        <v>0.80903720719594752</v>
       </c>
       <c r="D74" s="3">
-        <v>0.7450063141428287</v>
+        <v>0.63318769871727421</v>
       </c>
       <c r="E74" s="3">
-        <v>0.64997993869567539</v>
+        <v>0.53179738213407268</v>
       </c>
       <c r="F74" s="3">
-        <v>0.54487796521139331</v>
+        <v>0.42722035202895076</v>
       </c>
       <c r="G74" s="3">
-        <v>0.41638454537844316</v>
+        <v>0.32291486249127532</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="5"/>
@@ -11998,22 +11998,22 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.93110788412408851</v>
+        <v>0.90153478919762498</v>
       </c>
       <c r="C75" s="3">
-        <v>0.88081030822081685</v>
+        <v>0.80804433960062882</v>
       </c>
       <c r="D75" s="3">
-        <v>0.75208705532533904</v>
+        <v>0.63494732495214845</v>
       </c>
       <c r="E75" s="3">
-        <v>0.66500019200096905</v>
+        <v>0.55610644870049886</v>
       </c>
       <c r="F75" s="3">
-        <v>0.54635023949413597</v>
+        <v>0.43386258484830859</v>
       </c>
       <c r="G75" s="3">
-        <v>0.42748686383785384</v>
+        <v>0.3303980140134819</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="5"/>
@@ -12024,22 +12024,22 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.93745579493533859</v>
+        <v>0.89993078395985582</v>
       </c>
       <c r="C76" s="3">
-        <v>0.87956713226705041</v>
+        <v>0.81792436057959184</v>
       </c>
       <c r="D76" s="3">
-        <v>0.7548094043725655</v>
+        <v>0.65066311200487836</v>
       </c>
       <c r="E76" s="3">
-        <v>0.67496369730658234</v>
+        <v>0.54680718485151592</v>
       </c>
       <c r="F76" s="3">
-        <v>0.56066459116713896</v>
+        <v>0.44746703131439769</v>
       </c>
       <c r="G76" s="3">
-        <v>0.43858918229726451</v>
+        <v>0.33788116553568842</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="5"/>
@@ -12050,22 +12050,22 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.93813379016238929</v>
+        <v>0.90522940032467147</v>
       </c>
       <c r="C77" s="3">
-        <v>0.87910566457884509</v>
+        <v>0.82451476257111855</v>
       </c>
       <c r="D77" s="3">
-        <v>0.76513130587477196</v>
+        <v>0.64138672512368866</v>
       </c>
       <c r="E77" s="3">
-        <v>0.67620553203351008</v>
+        <v>0.55671740085394372</v>
       </c>
       <c r="F77" s="3">
-        <v>0.56516279188414553</v>
+        <v>0.45148295997704546</v>
       </c>
       <c r="G77" s="3">
-        <v>0.44637974902941757</v>
+        <v>0.34327715106256995</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="5"/>
@@ -12076,22 +12076,22 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.93387192588647627</v>
+        <v>0.90621415434573804</v>
       </c>
       <c r="C78" s="3">
-        <v>0.88194899902368862</v>
+        <v>0.82076920418070998</v>
       </c>
       <c r="D78" s="3">
-        <v>0.76458339628574157</v>
+        <v>0.65657481644980531</v>
       </c>
       <c r="E78" s="3">
-        <v>0.68706431493013476</v>
+        <v>0.56503465827139954</v>
       </c>
       <c r="F78" s="3">
-        <v>0.58057875494093569</v>
+        <v>0.46190088122469658</v>
       </c>
       <c r="G78" s="3">
-        <v>0.45417031576157063</v>
+        <v>0.34867313658945143</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="5"/>
@@ -12102,22 +12102,22 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.9585678518997135</v>
+        <v>0.92817303440874299</v>
       </c>
       <c r="C79" s="3">
-        <v>0.91579951120975023</v>
+        <v>0.87143887732913039</v>
       </c>
       <c r="D79" s="3">
-        <v>0.81866583604387966</v>
+        <v>0.71735854923166487</v>
       </c>
       <c r="E79" s="3">
-        <v>0.74625971458638629</v>
+        <v>0.63683842813265712</v>
       </c>
       <c r="F79" s="3">
-        <v>0.65139464786510848</v>
+        <v>0.53656776696369068</v>
       </c>
       <c r="G79" s="3">
-        <v>0.52171865098172754</v>
+        <v>0.41671345726945469</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="5"/>
@@ -12128,22 +12128,22 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.97125743330433145</v>
+        <v>0.95049281637162242</v>
       </c>
       <c r="C80" s="3">
-        <v>0.94129938264779245</v>
+        <v>0.9186259060477534</v>
       </c>
       <c r="D80" s="3">
-        <v>0.88060489481725956</v>
+        <v>0.79675098191586069</v>
       </c>
       <c r="E80" s="3">
-        <v>0.82225318127507385</v>
+        <v>0.72359315523957979</v>
       </c>
       <c r="F80" s="3">
-        <v>0.7340130717755482</v>
+        <v>0.63027738524298338</v>
       </c>
       <c r="G80" s="3">
-        <v>0.62224770744597546</v>
+        <v>0.4931546268742622</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="5"/>
@@ -12154,22 +12154,22 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.97166085420532711</v>
+        <v>0.96891351445155449</v>
       </c>
       <c r="C81" s="3">
-        <v>0.94652305119872016</v>
+        <v>0.93243922402346457</v>
       </c>
       <c r="D81" s="3">
-        <v>0.90872059294437402</v>
+        <v>0.84449567352450283</v>
       </c>
       <c r="E81" s="3">
-        <v>0.8574783952373829</v>
+        <v>0.77429110461105177</v>
       </c>
       <c r="F81" s="3">
-        <v>0.78243342360185697</v>
+        <v>0.68234932924585556</v>
       </c>
       <c r="G81" s="3">
-        <v>0.66712706741752592</v>
+        <v>0.56159491735998202</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="5"/>
@@ -12180,22 +12180,22 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98343977593853049</v>
+        <v>0.98006738938989491</v>
       </c>
       <c r="C82" s="3">
-        <v>0.96792645103389852</v>
+        <v>0.94620710164120836</v>
       </c>
       <c r="D82" s="3">
-        <v>0.94077096459064458</v>
+        <v>0.89319797432985015</v>
       </c>
       <c r="E82" s="3">
-        <v>0.91154093660115465</v>
+        <v>0.85548896401017627</v>
       </c>
       <c r="F82" s="3">
-        <v>0.8426530120948007</v>
+        <v>0.77624481136030021</v>
       </c>
       <c r="G82" s="3">
-        <v>0.7470432945649873</v>
+        <v>0.67082517577683354</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="5"/>
@@ -12206,22 +12206,22 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.98185293208743762</v>
+        <v>0.97919973169364705</v>
       </c>
       <c r="C83" s="3">
-        <v>0.97307219435024228</v>
+        <v>0.97920829559420564</v>
       </c>
       <c r="D83" s="3">
-        <v>0.96543655637404868</v>
+        <v>0.9288477387714108</v>
       </c>
       <c r="E83" s="3">
-        <v>0.93411318763045781</v>
+        <v>0.91185857540193782</v>
       </c>
       <c r="F83" s="3">
-        <v>0.89526492326680529</v>
+        <v>0.86699181477439047</v>
       </c>
       <c r="G83" s="3">
-        <v>0.82399905874826651</v>
+        <v>0.76360377615819475</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="5"/>
@@ -12232,22 +12232,22 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.99590845103821679</v>
+        <v>0.9847177068466102</v>
       </c>
       <c r="C84" s="3">
-        <v>0.98134432941116889</v>
+        <v>0.98634095709848846</v>
       </c>
       <c r="D84" s="3">
-        <v>0.98086951185904159</v>
+        <v>0.96314217799839974</v>
       </c>
       <c r="E84" s="3">
-        <v>0.96259723995095614</v>
+        <v>0.96140159941158898</v>
       </c>
       <c r="F84" s="3">
-        <v>0.92933516634589797</v>
+        <v>0.93369504798668124</v>
       </c>
       <c r="G84" s="3">
-        <v>0.876157045027391</v>
+        <v>0.84794956472411509</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="5"/>
@@ -13355,6 +13355,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D11:J11"/>
@@ -13362,12 +13368,6 @@
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/XLS_qCEST_MultiB0B1.xlsx
+++ b/XLS_qCEST_MultiB0B1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyrachfx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\radiologie\mr-physik-data\Mitarbeiter\Tyrach\LabLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370BDD6-5D5D-4928-86EA-175F679B7ED2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D570CB2F-FBF4-4B91-8638-FCF8671A8E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GM_7T" sheetId="14" r:id="rId1"/>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -252,6 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,15 +882,15 @@
       <c r="B3" s="14">
         <v>3.5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -902,15 +908,15 @@
       <c r="B4" s="14">
         <v>1.9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -927,8 +933,8 @@
       <c r="B5" s="19">
         <v>1.7917000000000001</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -945,8 +951,8 @@
       <c r="B6" s="19">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -963,8 +969,8 @@
       <c r="B7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -978,8 +984,8 @@
       <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -993,22 +999,22 @@
       <c r="B9" s="16">
         <v>0.85</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="16">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>22</v>
@@ -1027,32 +1033,32 @@
       <c r="B11" s="16">
         <v>61</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="16">
-        <v>6</v>
-      </c>
-      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -1061,15 +1067,15 @@
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -1126,36 +1132,36 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1171,25 +1177,27 @@
       <c r="A23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="8">
         <v>0.6</v>
       </c>
-      <c r="C23" s="4">
+      <c r="D23" s="4">
         <v>0.9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>1.5</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>2.7</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>4</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1205,22 +1213,25 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.99408175575171787</v>
+        <v>1.0000506559075646</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98515515011686816</v>
+        <v>1.0000473010386082</v>
       </c>
       <c r="D24" s="3">
-        <v>0.98954494133602744</v>
+        <v>0.99995053576847548</v>
       </c>
       <c r="E24" s="3">
-        <v>0.98339480773616428</v>
+        <v>1.0001505068578609</v>
       </c>
       <c r="F24" s="3">
-        <v>0.98337084565678556</v>
+        <v>1.0000473419931708</v>
       </c>
       <c r="G24" s="3">
-        <v>0.97363858172893236</v>
+        <v>1.0000686631386442</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.0003372790439478</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -1231,22 +1242,25 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99294671317974659</v>
+        <v>0.99721975876389857</v>
       </c>
       <c r="C25" s="3">
-        <v>0.98546528961374791</v>
+        <v>0.99896240542302961</v>
       </c>
       <c r="D25" s="3">
-        <v>0.97950145834125868</v>
+        <v>1.0002264233955318</v>
       </c>
       <c r="E25" s="3">
-        <v>0.96305079021604678</v>
+        <v>0.99014826528287425</v>
       </c>
       <c r="F25" s="3">
-        <v>0.95993948700338794</v>
+        <v>0.97941667708110036</v>
       </c>
       <c r="G25" s="3">
-        <v>0.92599268739071938</v>
+        <v>0.97630435378068681</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.95170635733735687</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -1257,22 +1271,25 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.98680032430632736</v>
+        <v>0.98991937294641719</v>
       </c>
       <c r="C26" s="3">
-        <v>0.97917479312639111</v>
+        <v>0.99281971788377654</v>
       </c>
       <c r="D26" s="3">
-        <v>0.961426682578855</v>
+        <v>0.99378227264750596</v>
       </c>
       <c r="E26" s="3">
-        <v>0.93095090490649413</v>
+        <v>0.97202124594435502</v>
       </c>
       <c r="F26" s="3">
-        <v>0.90665080300960621</v>
+        <v>0.94681027021996966</v>
       </c>
       <c r="G26" s="3">
-        <v>0.8276643958643719</v>
+        <v>0.9221652956845896</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.85093389291753951</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -1283,22 +1300,25 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.97714753907081764</v>
+        <v>0.98859529015393144</v>
       </c>
       <c r="C27" s="3">
-        <v>0.95361652049113399</v>
+        <v>0.98315866615782399</v>
       </c>
       <c r="D27" s="3">
-        <v>0.91153433050218347</v>
+        <v>0.96780041151466301</v>
       </c>
       <c r="E27" s="3">
-        <v>0.85372356319662024</v>
+        <v>0.92171897162195693</v>
       </c>
       <c r="F27" s="3">
-        <v>0.79601356110743671</v>
+        <v>0.86830316602387181</v>
       </c>
       <c r="G27" s="3">
-        <v>0.67772790584028686</v>
+        <v>0.80969062941451941</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.69700878862706994</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -1309,22 +1329,25 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.96894905741843673</v>
+        <v>0.97953628922169267</v>
       </c>
       <c r="C28" s="3">
-        <v>0.92981555852018061</v>
+        <v>0.97495953430434168</v>
       </c>
       <c r="D28" s="3">
-        <v>0.86311803867585102</v>
+        <v>0.94359865856848701</v>
       </c>
       <c r="E28" s="3">
-        <v>0.79522385712177857</v>
+        <v>0.87289143730327667</v>
       </c>
       <c r="F28" s="3">
-        <v>0.71892007535678171</v>
+        <v>0.80884443239742931</v>
       </c>
       <c r="G28" s="3">
-        <v>0.58683035189574262</v>
+        <v>0.73132494117239644</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.60372476073113479</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="5"/>
@@ -1335,22 +1358,25 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.94289646352425005</v>
+        <v>0.97146183218814941</v>
       </c>
       <c r="C29" s="3">
-        <v>0.88343518494450257</v>
+        <v>0.94878148438826571</v>
       </c>
       <c r="D29" s="3">
-        <v>0.77499546888491799</v>
+        <v>0.89648844482974566</v>
       </c>
       <c r="E29" s="3">
-        <v>0.68042287213252028</v>
+        <v>0.78389125717440011</v>
       </c>
       <c r="F29" s="3">
-        <v>0.58941058863803009</v>
+        <v>0.69210068111254852</v>
       </c>
       <c r="G29" s="3">
-        <v>0.46438789102335626</v>
+        <v>0.59961902468439587</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.47791606385333202</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -1361,22 +1387,25 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.90733531617780172</v>
+        <v>0.9655033864879019</v>
       </c>
       <c r="C30" s="3">
-        <v>0.83327927307307581</v>
+        <v>0.91303686410092988</v>
       </c>
       <c r="D30" s="3">
-        <v>0.69512479696209406</v>
+        <v>0.84555206163970698</v>
       </c>
       <c r="E30" s="3">
-        <v>0.59528923856942539</v>
+        <v>0.7032074281457521</v>
       </c>
       <c r="F30" s="3">
-        <v>0.50286902611813555</v>
+        <v>0.60553506613169239</v>
       </c>
       <c r="G30" s="3">
-        <v>0.39434442741125048</v>
+        <v>0.51161315897091864</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.40597152605103898</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -1387,22 +1416,25 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.90225805536735426</v>
+        <v>0.96042708397226906</v>
       </c>
       <c r="C31" s="3">
-        <v>0.82489073422718051</v>
+        <v>0.907973400441481</v>
       </c>
       <c r="D31" s="3">
-        <v>0.68310747218729084</v>
+        <v>0.83699898643226933</v>
       </c>
       <c r="E31" s="3">
-        <v>0.5840867372969244</v>
+        <v>0.69115399128879829</v>
       </c>
       <c r="F31" s="3">
-        <v>0.50195880020852213</v>
+        <v>0.59416577002139126</v>
       </c>
       <c r="G31" s="3">
-        <v>0.388437264844399</v>
+        <v>0.51071673327833911</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.39995607191096405</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -1413,22 +1445,25 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.8955335255602872</v>
+        <v>0.96522113374564489</v>
       </c>
       <c r="C32" s="3">
-        <v>0.81514401645031043</v>
+        <v>0.90125299129455505</v>
       </c>
       <c r="D32" s="3">
-        <v>0.6781344803475069</v>
+        <v>0.82706591287814735</v>
       </c>
       <c r="E32" s="3">
-        <v>0.57953395851506506</v>
+        <v>0.68621890518009498</v>
       </c>
       <c r="F32" s="3">
-        <v>0.49495732986432767</v>
+        <v>0.58955635975373033</v>
       </c>
       <c r="G32" s="3">
-        <v>0.38253010227754747</v>
+        <v>0.50363260259858533</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.39394061777088912</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -1439,22 +1474,25 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.89620369129095323</v>
+        <v>0.95953292603480023</v>
       </c>
       <c r="C33" s="3">
-        <v>0.80709818144180878</v>
+        <v>0.9019717961543976</v>
       </c>
       <c r="D33" s="3">
-        <v>0.66771928871176356</v>
+        <v>0.81886058764159031</v>
       </c>
       <c r="E33" s="3">
-        <v>0.56970610679370526</v>
+        <v>0.67578601653665693</v>
       </c>
       <c r="F33" s="3">
-        <v>0.4856908995847764</v>
+        <v>0.57959498987584412</v>
       </c>
       <c r="G33" s="3">
-        <v>0.38027250860570655</v>
+        <v>0.49423850289968119</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.39168171766678195</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -1465,22 +1503,25 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.89200973395819128</v>
+        <v>0.95929593487863241</v>
       </c>
       <c r="C34" s="3">
-        <v>0.80048549711037054</v>
+        <v>0.89778530045136196</v>
       </c>
       <c r="D34" s="3">
-        <v>0.6637961318381429</v>
+        <v>0.8121083618245023</v>
       </c>
       <c r="E34" s="3">
-        <v>0.56245658977701574</v>
+        <v>0.67191639447577567</v>
       </c>
       <c r="F34" s="3">
-        <v>0.48329013467654525</v>
+        <v>0.57224457566049536</v>
       </c>
       <c r="G34" s="3">
-        <v>0.37801491493386563</v>
+        <v>0.49182403745358372</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.38942281756267472</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -1491,22 +1532,25 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.88014305002431525</v>
+        <v>0.95466403644287434</v>
       </c>
       <c r="C35" s="3">
-        <v>0.7952845808693727</v>
+        <v>0.88588816655068225</v>
       </c>
       <c r="D35" s="3">
-        <v>0.64882176889189136</v>
+        <v>0.80679967418958543</v>
       </c>
       <c r="E35" s="3">
-        <v>0.54974621428062831</v>
+        <v>0.65685710940718656</v>
       </c>
       <c r="F35" s="3">
-        <v>0.46924178660718274</v>
+        <v>0.55934016127989095</v>
       </c>
       <c r="G35" s="3">
-        <v>0.36785815164680247</v>
+        <v>0.47756620479601863</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.37902092769523321</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -1517,22 +1561,25 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.87457677456440452</v>
+        <v>0.953009809186807</v>
       </c>
       <c r="C36" s="3">
-        <v>0.77914839341323594</v>
+        <v>0.88032435093417105</v>
       </c>
       <c r="D36" s="3">
-        <v>0.63982306347677431</v>
+        <v>0.79038086737175517</v>
       </c>
       <c r="E36" s="3">
-        <v>0.54301083732662048</v>
+        <v>0.64784346181674834</v>
       </c>
       <c r="F36" s="3">
-        <v>0.465257301097453</v>
+        <v>0.55251434258730381</v>
       </c>
       <c r="G36" s="3">
-        <v>0.3577013883597393</v>
+        <v>0.47354008401405745</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.36861903782779171</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5"/>
@@ -1543,22 +1590,25 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.85822480380037114</v>
+        <v>0.94541934816164663</v>
       </c>
       <c r="C37" s="3">
-        <v>0.7621419441629369</v>
+        <v>0.86390704922355255</v>
       </c>
       <c r="D37" s="3">
-        <v>0.62579813843896581</v>
+        <v>0.77309384889964639</v>
       </c>
       <c r="E37" s="3">
-        <v>0.53165499394392091</v>
+        <v>0.63374047155469027</v>
       </c>
       <c r="F37" s="3">
-        <v>0.45318254333994351</v>
+        <v>0.54098634992065397</v>
       </c>
       <c r="G37" s="3">
-        <v>0.35060951027032711</v>
+        <v>0.46128299665107325</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.36136944375098323</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="5"/>
@@ -1569,22 +1619,25 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.85076606706032654</v>
+        <v>0.93920672828223994</v>
       </c>
       <c r="C38" s="3">
-        <v>0.7593133212430081</v>
+        <v>0.85642942875989347</v>
       </c>
       <c r="D38" s="3">
-        <v>0.61228880445154477</v>
+        <v>0.77019779306516112</v>
       </c>
       <c r="E38" s="3">
-        <v>0.5177648334813626</v>
+        <v>0.62015251986280706</v>
       </c>
       <c r="F38" s="3">
-        <v>0.44672178533768364</v>
+        <v>0.52687955298376821</v>
       </c>
       <c r="G38" s="3">
-        <v>0.34351763218091491</v>
+        <v>0.45473608347408434</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.35411984967417476</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="5"/>
@@ -1595,22 +1648,25 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.84152672470765677</v>
+        <v>0.93147980085230941</v>
       </c>
       <c r="C39" s="3">
-        <v>0.73938370176690227</v>
+        <v>0.84717576956174412</v>
       </c>
       <c r="D39" s="3">
-        <v>0.60005494203498999</v>
+        <v>0.74993858508579403</v>
       </c>
       <c r="E39" s="3">
-        <v>0.51486689138566666</v>
+        <v>0.60784865521563169</v>
       </c>
       <c r="F39" s="3">
-        <v>0.43843115414700323</v>
+        <v>0.5239493169661199</v>
       </c>
       <c r="G39" s="3">
-        <v>0.33437912695409816</v>
+        <v>0.44632781733298466</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.34475551159706513</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="5"/>
@@ -1621,22 +1677,25 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.83516843425894327</v>
+        <v>0.93181008579378721</v>
       </c>
       <c r="C40" s="3">
-        <v>0.73072252170570962</v>
+        <v>0.84082155719439367</v>
       </c>
       <c r="D40" s="3">
-        <v>0.58871964227321072</v>
+        <v>0.74111793066756315</v>
       </c>
       <c r="E40" s="3">
-        <v>0.50608345520008535</v>
+        <v>0.59646080792064826</v>
       </c>
       <c r="F40" s="3">
-        <v>0.42866868127027796</v>
+        <v>0.51503979515555587</v>
       </c>
       <c r="G40" s="3">
-        <v>0.32524062172728141</v>
+        <v>0.43642213628007548</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.33539117351995551</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -1647,22 +1706,25 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.83103449967561394</v>
+        <v>0.93343332869157558</v>
       </c>
       <c r="C41" s="3">
-        <v>0.72753871321188945</v>
+        <v>0.83670051655464484</v>
       </c>
       <c r="D41" s="3">
-        <v>0.58384028981724279</v>
+        <v>0.73784474924161536</v>
       </c>
       <c r="E41" s="3">
-        <v>0.4965195925348711</v>
+        <v>0.59160366787281893</v>
       </c>
       <c r="F41" s="3">
-        <v>0.41970123028992867</v>
+        <v>0.50533011234860126</v>
       </c>
       <c r="G41" s="3">
-        <v>0.31649613133156229</v>
+        <v>0.42731687319383926</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.32642936968752406</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
@@ -1673,22 +1735,25 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.83106587484764394</v>
+        <v>0.93318094642619565</v>
       </c>
       <c r="C42" s="3">
-        <v>0.73038350327699164</v>
+        <v>0.83676437537894799</v>
       </c>
       <c r="D42" s="3">
-        <v>0.58149458681986499</v>
+        <v>0.74068966093183219</v>
       </c>
       <c r="E42" s="3">
-        <v>0.48707658207739368</v>
+        <v>0.58931947532977991</v>
       </c>
       <c r="F42" s="3">
-        <v>0.40728723376456483</v>
+        <v>0.49574118440437531</v>
       </c>
       <c r="G42" s="3">
-        <v>0.30775164093584317</v>
+        <v>0.4147110119930158</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.31746756585509261</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -1699,22 +1764,25 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.82885064113293216</v>
+        <v>0.93394636810122234</v>
       </c>
       <c r="C43" s="3">
-        <v>0.72756554787669858</v>
+        <v>0.83457623767379374</v>
       </c>
       <c r="D43" s="3">
-        <v>0.57588900623931871</v>
+        <v>0.7377980503936078</v>
       </c>
       <c r="E43" s="3">
-        <v>0.48043887620139059</v>
+        <v>0.58372329370582055</v>
       </c>
       <c r="F43" s="3">
-        <v>0.40226858792858422</v>
+        <v>0.48900545872251322</v>
       </c>
       <c r="G43" s="3">
-        <v>0.29324487484539563</v>
+        <v>0.40962603212088639</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.30255021772230756</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="5"/>
@@ -1725,22 +1793,25 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.82937174966663374</v>
+        <v>0.93337784765108422</v>
       </c>
       <c r="C44" s="3">
-        <v>0.72718957778648563</v>
+        <v>0.83513097773289391</v>
       </c>
       <c r="D44" s="3">
-        <v>0.56565855297631651</v>
+        <v>0.73738613194575375</v>
       </c>
       <c r="E44" s="3">
-        <v>0.47080554868444691</v>
+        <v>0.57344442022817643</v>
       </c>
       <c r="F44" s="3">
-        <v>0.38819337555651007</v>
+        <v>0.47922321254626687</v>
       </c>
       <c r="G44" s="3">
-        <v>0.27873810875494809</v>
+        <v>0.39532179072928347</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.2876328695895225</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="5"/>
@@ -1751,22 +1822,25 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.83159112368053711</v>
+        <v>0.93880739536947044</v>
       </c>
       <c r="C45" s="3">
-        <v>0.71897257109753343</v>
+        <v>0.83741604735096176</v>
       </c>
       <c r="D45" s="3">
-        <v>0.55965201013581711</v>
+        <v>0.7290191320775441</v>
       </c>
       <c r="E45" s="3">
-        <v>0.45622682942598375</v>
+        <v>0.56744025149778898</v>
       </c>
       <c r="F45" s="3">
-        <v>0.36889001784946862</v>
+        <v>0.46441253134195121</v>
       </c>
       <c r="G45" s="3">
-        <v>0.2632762069862169</v>
+        <v>0.37569099739030071</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.27172281005982668</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="5"/>
@@ -1777,22 +1851,25 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.82787164592609197</v>
+        <v>0.93800081004032321</v>
       </c>
       <c r="C46" s="3">
-        <v>0.71900702219369195</v>
+        <v>0.83370831370448184</v>
       </c>
       <c r="D46" s="3">
-        <v>0.54422986076968383</v>
+        <v>0.72901382471193032</v>
       </c>
       <c r="E46" s="3">
-        <v>0.43614444905457095</v>
+        <v>0.55188502856103938</v>
       </c>
       <c r="F46" s="3">
-        <v>0.34850523470477424</v>
+        <v>0.44398535070999057</v>
       </c>
       <c r="G46" s="3">
-        <v>0.24781430521748568</v>
+        <v>0.35494997490412977</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.25581275053013081</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -1803,22 +1880,25 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.82239213280133039</v>
+        <v>0.93643052315305275</v>
       </c>
       <c r="C47" s="3">
-        <v>0.70677936569818167</v>
+        <v>0.82823271512604657</v>
       </c>
       <c r="D47" s="3">
-        <v>0.52589716023939692</v>
+        <v>0.71658441199467138</v>
       </c>
       <c r="E47" s="3">
-        <v>0.42118922465349479</v>
+        <v>0.53337234165301528</v>
       </c>
       <c r="F47" s="3">
-        <v>0.32833958035813254</v>
+        <v>0.42877801896642509</v>
       </c>
       <c r="G47" s="3">
-        <v>0.22470091162409858</v>
+        <v>0.33443967558722809</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.23198573487615698</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
@@ -1829,22 +1909,25 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.81650554970512523</v>
+        <v>0.93074957255414725</v>
       </c>
       <c r="C48" s="3">
-        <v>0.69582449361597654</v>
+        <v>0.82233959428567283</v>
       </c>
       <c r="D48" s="3">
-        <v>0.50341669977744108</v>
+        <v>0.70544461447122253</v>
       </c>
       <c r="E48" s="3">
-        <v>0.39282747519842887</v>
+        <v>0.51064830346045931</v>
       </c>
       <c r="F48" s="3">
-        <v>0.29416015566619291</v>
+        <v>0.3999302613672826</v>
       </c>
       <c r="G48" s="3">
-        <v>0.20158751803071148</v>
+        <v>0.29964557539348269</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.20815871922218313</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
@@ -1855,22 +1938,25 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.80854568488041467</v>
+        <v>0.92832033671949432</v>
       </c>
       <c r="C49" s="3">
-        <v>0.66843071956057942</v>
+        <v>0.814367385500401</v>
       </c>
       <c r="D49" s="3">
-        <v>0.4681068012157914</v>
+        <v>0.67763152494000412</v>
       </c>
       <c r="E49" s="3">
-        <v>0.35517715177078579</v>
+        <v>0.47490438103233956</v>
       </c>
       <c r="F49" s="3">
-        <v>0.26267608586376667</v>
+        <v>0.36161093466924477</v>
       </c>
       <c r="G49" s="3">
-        <v>0.17591511335400578</v>
+        <v>0.26758668309234357</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.18167286609749922</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="5"/>
@@ -1881,22 +1967,25 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.78283967170949476</v>
+        <v>0.9236631770746393</v>
       </c>
       <c r="C50" s="3">
-        <v>0.63018977523513109</v>
+        <v>0.78851413794043967</v>
       </c>
       <c r="D50" s="3">
-        <v>0.41238411046716533</v>
+        <v>0.63883959433606941</v>
       </c>
       <c r="E50" s="3">
-        <v>0.30581251384901187</v>
+        <v>0.41842839002078808</v>
       </c>
       <c r="F50" s="3">
-        <v>0.22013529586847239</v>
+        <v>0.31136575711023073</v>
       </c>
       <c r="G50" s="3">
-        <v>0.15024270867730008</v>
+        <v>0.22427087456742417</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.15518701297281534</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5"/>
@@ -1907,22 +1996,25 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.73499090287667745</v>
+        <v>0.90352785899768306</v>
       </c>
       <c r="C51" s="3">
-        <v>0.55716539585913538</v>
+        <v>0.74034393978073498</v>
       </c>
       <c r="D51" s="3">
-        <v>0.34142851882325437</v>
+        <v>0.56477242050129373</v>
       </c>
       <c r="E51" s="3">
-        <v>0.24206960792701565</v>
+        <v>0.34648507106923926</v>
       </c>
       <c r="F51" s="3">
-        <v>0.17553588851504859</v>
+        <v>0.24647636859699218</v>
       </c>
       <c r="G51" s="3">
-        <v>0.12461232797954362</v>
+        <v>0.17884065102178126</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.1287326866595383</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
@@ -1933,22 +2025,25 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.62080430662311337</v>
+        <v>0.85162692795890216</v>
       </c>
       <c r="C52" s="3">
-        <v>0.42044308904932598</v>
+        <v>0.62535346774788003</v>
       </c>
       <c r="D52" s="3">
-        <v>0.23664622749228353</v>
+        <v>0.42617093027806979</v>
       </c>
       <c r="E52" s="3">
-        <v>0.17090346238768619</v>
+        <v>0.2401835566870559</v>
       </c>
       <c r="F52" s="3">
-        <v>0.13031359745310492</v>
+        <v>0.17402311431807718</v>
       </c>
       <c r="G52" s="3">
-        <v>9.8981947281787164E-2</v>
+        <v>0.13277580741794842</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.10227836034626123</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
@@ -1959,22 +2054,25 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.35931992569972143</v>
+        <v>0.66165140970334846</v>
       </c>
       <c r="C53" s="3">
-        <v>0.21939262928909181</v>
+        <v>0.36196361201922461</v>
       </c>
       <c r="D53" s="3">
-        <v>0.13758192701353783</v>
+        <v>0.22238037911882053</v>
       </c>
       <c r="E53" s="3">
-        <v>0.11117156861258187</v>
+        <v>0.13966271877524034</v>
       </c>
       <c r="F53" s="3">
-        <v>9.32531084052797E-2</v>
+        <v>0.11320651380311533</v>
       </c>
       <c r="G53" s="3">
-        <v>8.3260593517801268E-2</v>
+        <v>9.5021238535805408E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>8.6044212115636634E-2</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
@@ -1985,22 +2083,25 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>7.3415539890531706E-2</v>
+        <v>7.4600343734596869E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>7.2502741426891268E-2</v>
+        <v>7.3957128565839664E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>7.4005119827092042E-2</v>
+        <v>7.34833791952334E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>7.2116051794131941E-2</v>
+        <v>7.5135354903769644E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>7.1461371930516604E-2</v>
+        <v>7.3440350130974622E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>6.7539239753815372E-2</v>
+        <v>7.2823094536036581E-2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6.9810063885012041E-2</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
@@ -2011,22 +2112,25 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.20950594440405162</v>
+        <v>0.48899121857898376</v>
       </c>
       <c r="C55" s="3">
-        <v>0.13601820639097312</v>
+        <v>0.21106372331208062</v>
       </c>
       <c r="D55" s="3">
-        <v>9.6324710230184962E-2</v>
+        <v>0.13784244513752661</v>
       </c>
       <c r="E55" s="3">
-        <v>8.7927730137422E-2</v>
+        <v>9.7805956878211878E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>7.6609905077898818E-2</v>
+        <v>8.9540323788185813E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>7.6223685756411808E-2</v>
+        <v>7.8071001080898983E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>7.8804599735201E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
@@ -2037,22 +2141,25 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.50879733838025332</v>
+        <v>0.81207205655808135</v>
       </c>
       <c r="C56" s="3">
-        <v>0.31560451633296394</v>
+        <v>0.51260862987540468</v>
       </c>
       <c r="D56" s="3">
-        <v>0.17355872426296115</v>
+        <v>0.31982163124180057</v>
       </c>
       <c r="E56" s="3">
-        <v>0.1320728735743778</v>
+        <v>0.17626100655605284</v>
       </c>
       <c r="F56" s="3">
-        <v>0.10898412442763973</v>
+        <v>0.13451175383615854</v>
       </c>
       <c r="G56" s="3">
-        <v>8.4908131759008257E-2</v>
+        <v>0.11107040033019014</v>
+      </c>
+      <c r="H56" s="3">
+        <v>8.7799135585389959E-2</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="5"/>
@@ -2063,22 +2170,25 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.69326892990938616</v>
+        <v>0.90129425166141452</v>
       </c>
       <c r="C57" s="3">
-        <v>0.49461887157970219</v>
+        <v>0.69851556518671565</v>
       </c>
       <c r="D57" s="3">
-        <v>0.27022283288505788</v>
+        <v>0.50121439613282348</v>
       </c>
       <c r="E57" s="3">
-        <v>0.19441278772397649</v>
+        <v>0.2744617613211523</v>
       </c>
       <c r="F57" s="3">
-        <v>0.14180404160127297</v>
+        <v>0.19800841064658614</v>
       </c>
       <c r="G57" s="3">
-        <v>0.10523163811371708</v>
+        <v>0.14453449813120567</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.10883094191840424</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
@@ -2089,22 +2199,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.78423432150714023</v>
+        <v>0.92094260793612492</v>
       </c>
       <c r="C58" s="3">
-        <v>0.61046166548979297</v>
+        <v>0.79021539443236155</v>
       </c>
       <c r="D58" s="3">
-        <v>0.36570969114649421</v>
+        <v>0.61858391668184043</v>
       </c>
       <c r="E58" s="3">
-        <v>0.25884724067929726</v>
+        <v>0.37151627986749786</v>
       </c>
       <c r="F58" s="3">
-        <v>0.18220505132274795</v>
+        <v>0.26365225671774023</v>
       </c>
       <c r="G58" s="3">
-        <v>0.12555514446842589</v>
+        <v>0.18573138557762381</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.12986274825141852</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
@@ -2115,22 +2228,25 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.81900679787642749</v>
+        <v>0.94080592992000089</v>
       </c>
       <c r="C59" s="3">
-        <v>0.67510675172851986</v>
+        <v>0.82529186307861013</v>
       </c>
       <c r="D59" s="3">
-        <v>0.43419065730704232</v>
+        <v>0.68405934783693934</v>
       </c>
       <c r="E59" s="3">
-        <v>0.31520358568939744</v>
+        <v>0.441156357237939</v>
       </c>
       <c r="F59" s="3">
-        <v>0.22252751012632963</v>
+        <v>0.32107201541133745</v>
       </c>
       <c r="G59" s="3">
-        <v>0.14829961717895754</v>
+        <v>0.22684057738155416</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.1534159710205637</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
@@ -2141,22 +2257,25 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.84447277425841949</v>
+        <v>0.94697985746953872</v>
       </c>
       <c r="C60" s="3">
-        <v>0.70955801185692535</v>
+        <v>0.85099351038296189</v>
       </c>
       <c r="D60" s="3">
-        <v>0.48596452577454763</v>
+        <v>0.71893324387540158</v>
       </c>
       <c r="E60" s="3">
-        <v>0.36395636340866261</v>
+        <v>0.4938343228944625</v>
       </c>
       <c r="F60" s="3">
-        <v>0.26137154175480853</v>
+        <v>0.37074713552674576</v>
       </c>
       <c r="G60" s="3">
-        <v>0.17104408988948919</v>
+        <v>0.26645736207454651</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.17696919378970888</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="5"/>
@@ -2167,22 +2286,25 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.8549105838815394</v>
+        <v>0.95249145233247179</v>
       </c>
       <c r="C61" s="3">
-        <v>0.73003045891675278</v>
+        <v>0.86155293541353584</v>
       </c>
       <c r="D61" s="3">
-        <v>0.51941029910541214</v>
+        <v>0.73963601406657919</v>
       </c>
       <c r="E61" s="3">
-        <v>0.39907112391063315</v>
+        <v>0.52789856544253544</v>
       </c>
       <c r="F61" s="3">
-        <v>0.29089295066986265</v>
+        <v>0.40653410158798697</v>
       </c>
       <c r="G61" s="3">
-        <v>0.19206183008626798</v>
+        <v>0.29658407289586802</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.19875969955023459</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
@@ -2193,22 +2315,25 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.85937552927033001</v>
+        <v>0.95451705026095102</v>
       </c>
       <c r="C62" s="3">
-        <v>0.73942541542662454</v>
+        <v>0.86609497466261542</v>
       </c>
       <c r="D62" s="3">
-        <v>0.5397020389918038</v>
+        <v>0.74911637778267648</v>
       </c>
       <c r="E62" s="3">
-        <v>0.41973148913439362</v>
+        <v>0.54861097501098077</v>
       </c>
       <c r="F62" s="3">
-        <v>0.31681895628252243</v>
+        <v>0.42760301740957396</v>
       </c>
       <c r="G62" s="3">
-        <v>0.2130795702830468</v>
+        <v>0.32303879228075216</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.22055020531076031</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
@@ -2219,22 +2344,25 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.87003101706059072</v>
+        <v>0.95884214202774665</v>
       </c>
       <c r="C63" s="3">
-        <v>0.75177503871900564</v>
+        <v>0.87687055681823822</v>
       </c>
       <c r="D63" s="3">
-        <v>0.5656729836676051</v>
+        <v>0.76158785378553362</v>
       </c>
       <c r="E63" s="3">
-        <v>0.44919387254328103</v>
+        <v>0.57510112491463716</v>
       </c>
       <c r="F63" s="3">
-        <v>0.34121834196918838</v>
+        <v>0.45764343215309389</v>
       </c>
       <c r="G63" s="3">
-        <v>0.23012418981090724</v>
+        <v>0.34794023597258572</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.23823543638059705</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="5"/>
@@ -2245,22 +2373,25 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.87951435751413531</v>
+        <v>0.95910987117111979</v>
       </c>
       <c r="C64" s="3">
-        <v>0.77027330228377289</v>
+        <v>0.88647184306987792</v>
       </c>
       <c r="D64" s="3">
-        <v>0.59020439024180515</v>
+        <v>0.78029558101288643</v>
       </c>
       <c r="E64" s="3">
-        <v>0.47369146118088767</v>
+        <v>0.60013670335163694</v>
       </c>
       <c r="F64" s="3">
-        <v>0.36265097769377563</v>
+        <v>0.48262103103486476</v>
       </c>
       <c r="G64" s="3">
-        <v>0.24716880933876767</v>
+        <v>0.36981225502148191</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.25592066745043379</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="5"/>
@@ -2271,22 +2402,25 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.88207161784877464</v>
+        <v>0.96012544902689445</v>
       </c>
       <c r="C65" s="3">
-        <v>0.78440612675665811</v>
+        <v>0.88908507756458099</v>
       </c>
       <c r="D65" s="3">
-        <v>0.60908139942231687</v>
+        <v>0.79457109568234152</v>
       </c>
       <c r="E65" s="3">
-        <v>0.50010038882458785</v>
+        <v>0.61942115014059995</v>
       </c>
       <c r="F65" s="3">
-        <v>0.38510898970597929</v>
+        <v>0.50955677910338371</v>
       </c>
       <c r="G65" s="3">
-        <v>0.2641979241111862</v>
+        <v>0.39274239484788964</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.27360552468653654</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="5"/>
@@ -2297,22 +2431,25 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.89096603838422128</v>
+        <v>0.95984599297321549</v>
       </c>
       <c r="C66" s="3">
-        <v>0.79423718038215896</v>
+        <v>0.89809496260726895</v>
       </c>
       <c r="D66" s="3">
-        <v>0.62635553593430382</v>
+        <v>0.80449020099438218</v>
       </c>
       <c r="E66" s="3">
-        <v>0.51672272992982493</v>
+        <v>0.63708421827657369</v>
       </c>
       <c r="F66" s="3">
-        <v>0.40296351294859034</v>
+        <v>0.52651640754352436</v>
       </c>
       <c r="G66" s="3">
-        <v>0.28122703888360473</v>
+        <v>0.41097977437614841</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.29129038192263929</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="5"/>
@@ -2323,22 +2460,25 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.89653305970950559</v>
+        <v>0.96059541645499547</v>
       </c>
       <c r="C67" s="3">
-        <v>0.7978345144217952</v>
+        <v>0.90375591552289414</v>
       </c>
       <c r="D67" s="3">
-        <v>0.63721813414168182</v>
+        <v>0.80809948540812038</v>
       </c>
       <c r="E67" s="3">
-        <v>0.52990702550811974</v>
+        <v>0.64823093586999603</v>
       </c>
       <c r="F67" s="3">
-        <v>0.41729846579533114</v>
+        <v>0.53997932740099142</v>
       </c>
       <c r="G67" s="3">
-        <v>0.29548813825039477</v>
+        <v>0.42562924363837984</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.30611407915531608</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="5"/>
@@ -2349,22 +2489,25 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.89487759163894509</v>
+        <v>0.95862598913070918</v>
       </c>
       <c r="C68" s="3">
-        <v>0.80093617518208737</v>
+        <v>0.90212211276682375</v>
       </c>
       <c r="D68" s="3">
-        <v>0.64614913629441584</v>
+        <v>0.81120601240462864</v>
       </c>
       <c r="E68" s="3">
-        <v>0.54183279670803541</v>
+        <v>0.65742039544836395</v>
       </c>
       <c r="F68" s="3">
-        <v>0.43318671573059775</v>
+        <v>0.55215840410586803</v>
       </c>
       <c r="G68" s="3">
-        <v>0.30974923761718481</v>
+        <v>0.44186602523615948</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.32093777638799281</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="5"/>
@@ -2375,22 +2518,25 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.89652303512656339</v>
+        <v>0.96369448313646433</v>
       </c>
       <c r="C69" s="3">
-        <v>0.8079830017201397</v>
+        <v>0.90383440988385788</v>
       </c>
       <c r="D69" s="3">
-        <v>0.65588837039919412</v>
+        <v>0.81829909288155678</v>
       </c>
       <c r="E69" s="3">
-        <v>0.55189871701574811</v>
+        <v>0.66743370962796711</v>
       </c>
       <c r="F69" s="3">
-        <v>0.44549372302493828</v>
+        <v>0.56243858072995123</v>
       </c>
       <c r="G69" s="3">
-        <v>0.32372605966624302</v>
+        <v>0.45445495603408465</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.33548188786182792</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="5"/>
@@ -2401,22 +2547,25 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.90988050199490889</v>
+        <v>0.96989265548052062</v>
       </c>
       <c r="C70" s="3">
-        <v>0.8203638148286162</v>
+        <v>0.9173314580972971</v>
       </c>
       <c r="D70" s="3">
-        <v>0.67239267926961566</v>
+        <v>0.83079447777594362</v>
       </c>
       <c r="E70" s="3">
-        <v>0.57222335248081224</v>
+        <v>0.68432701864814027</v>
       </c>
       <c r="F70" s="3">
-        <v>0.45549585423562067</v>
+        <v>0.5831816964381169</v>
       </c>
       <c r="G70" s="3">
-        <v>0.33770288171530127</v>
+        <v>0.46468889886822551</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.35002599933566303</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
@@ -2427,22 +2576,25 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.90984554418919339</v>
+        <v>0.96965084714451821</v>
       </c>
       <c r="C71" s="3">
-        <v>0.85310690625264274</v>
+        <v>0.91734758362026714</v>
       </c>
       <c r="D71" s="3">
-        <v>0.68494854580357578</v>
+        <v>0.86391322224171962</v>
       </c>
       <c r="E71" s="3">
-        <v>0.5848612452811105</v>
+        <v>0.69721171953566285</v>
       </c>
       <c r="F71" s="3">
-        <v>0.47046930002857867</v>
+        <v>0.5960913493494433</v>
       </c>
       <c r="G71" s="3">
-        <v>0.34959003512646314</v>
+        <v>0.47999590050583191</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.36240456453052522</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="5"/>
@@ -2453,22 +2605,25 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.91480338541378969</v>
+        <v>0.97587173643284952</v>
       </c>
       <c r="C72" s="3">
-        <v>0.85478560400089476</v>
+        <v>0.92239385937997465</v>
       </c>
       <c r="D72" s="3">
-        <v>0.69886557283917827</v>
+        <v>0.86556342333733283</v>
       </c>
       <c r="E72" s="3">
-        <v>0.5966318038964451</v>
+        <v>0.71149245327363531</v>
       </c>
       <c r="F72" s="3">
-        <v>0.4867081602023926</v>
+        <v>0.60811608803656603</v>
       </c>
       <c r="G72" s="3">
-        <v>0.361477188537625</v>
+        <v>0.49659753852191513</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.37478312972538741</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="5"/>
@@ -2479,22 +2634,25 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.92220560309724764</v>
+        <v>0.97721756460305864</v>
       </c>
       <c r="C73" s="3">
-        <v>0.85649990366546158</v>
+        <v>0.92989588111172372</v>
       </c>
       <c r="D73" s="3">
-        <v>0.70869346731120686</v>
+        <v>0.8672597419309771</v>
       </c>
       <c r="E73" s="3">
-        <v>0.60756204667171798</v>
+        <v>0.72160124758570376</v>
       </c>
       <c r="F73" s="3">
-        <v>0.49881295641967027</v>
+        <v>0.61928567934695566</v>
       </c>
       <c r="G73" s="3">
-        <v>0.37058554334919097</v>
+        <v>0.50898015682967435</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.38429761704909893</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="5"/>
@@ -2505,22 +2663,25 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.92638405602447593</v>
+        <v>0.98105845862876651</v>
       </c>
       <c r="C74" s="3">
-        <v>0.86492816723352495</v>
+        <v>0.93415864396067994</v>
       </c>
       <c r="D74" s="3">
-        <v>0.7197488496638772</v>
+        <v>0.8757609154841498</v>
       </c>
       <c r="E74" s="3">
-        <v>0.6141570045629724</v>
+        <v>0.73297502769232725</v>
       </c>
       <c r="F74" s="3">
-        <v>0.50339945453339963</v>
+        <v>0.62603759861108854</v>
       </c>
       <c r="G74" s="3">
-        <v>0.37969389816075694</v>
+        <v>0.51370445680428134</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.39381210437281045</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="5"/>
@@ -2531,22 +2692,25 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.93126625083493064</v>
+        <v>0.98644602774142598</v>
       </c>
       <c r="C75" s="3">
-        <v>0.87320408584473763</v>
+        <v>0.93912054962265612</v>
       </c>
       <c r="D75" s="3">
-        <v>0.72592374908852619</v>
+        <v>0.88409315955299828</v>
       </c>
       <c r="E75" s="3">
-        <v>0.62739492982391909</v>
+        <v>0.73937264760409305</v>
       </c>
       <c r="F75" s="3">
-        <v>0.51463132026466452</v>
+        <v>0.63956326001910935</v>
       </c>
       <c r="G75" s="3">
-        <v>0.38697441996300352</v>
+        <v>0.52519724284598113</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.40143204724894366</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="5"/>
@@ -2557,22 +2721,25 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.93027912008419267</v>
+        <v>0.9827764927093432</v>
       </c>
       <c r="C76" s="3">
-        <v>0.87555821244808518</v>
+        <v>0.93817855599570654</v>
       </c>
       <c r="D76" s="3">
-        <v>0.73431755106972441</v>
+        <v>0.88643429462522172</v>
       </c>
       <c r="E76" s="3">
-        <v>0.63485069095280289</v>
+        <v>0.74802922229169111</v>
       </c>
       <c r="F76" s="3">
-        <v>0.52670335373607702</v>
+        <v>0.64719557910228631</v>
       </c>
       <c r="G76" s="3">
-        <v>0.39425494176525011</v>
+        <v>0.53756102848613385</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.40905199012507681</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="5"/>
@@ -2583,22 +2750,25 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.93024178411837122</v>
+        <v>0.98393471428335988</v>
       </c>
       <c r="C77" s="3">
-        <v>0.87809241829682416</v>
+        <v>0.93817997962863475</v>
       </c>
       <c r="D77" s="3">
-        <v>0.73927861613690227</v>
+        <v>0.88895319210200374</v>
       </c>
       <c r="E77" s="3">
-        <v>0.6435869195595163</v>
+        <v>0.75320946806976563</v>
       </c>
       <c r="F77" s="3">
-        <v>0.53595295077212979</v>
+        <v>0.6561339343188366</v>
       </c>
       <c r="G77" s="3">
-        <v>0.40209202778161823</v>
+        <v>0.54703133211751931</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.41725480359141043</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="5"/>
@@ -2609,22 +2779,25 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.93461627237728917</v>
+        <v>0.98704906899380052</v>
       </c>
       <c r="C78" s="3">
-        <v>0.88109134226206021</v>
+        <v>0.94264065002810982</v>
       </c>
       <c r="D78" s="3">
-        <v>0.74793305483211125</v>
+        <v>0.89194092603447872</v>
       </c>
       <c r="E78" s="3">
-        <v>0.64909806093962852</v>
+        <v>0.76213645260559493</v>
       </c>
       <c r="F78" s="3">
-        <v>0.540887009068864</v>
+        <v>0.66178241209835875</v>
       </c>
       <c r="G78" s="3">
-        <v>0.4099291137979863</v>
+        <v>0.55210735028076996</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.42545761705774404</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="5"/>
@@ -2635,22 +2808,25 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.95326226764009014</v>
+        <v>0.99242407216030859</v>
       </c>
       <c r="C79" s="3">
-        <v>0.91351741436833189</v>
+        <v>0.96149010127170242</v>
       </c>
       <c r="D79" s="3">
-        <v>0.81024842232608463</v>
+        <v>0.92472457988529777</v>
       </c>
       <c r="E79" s="3">
-        <v>0.72848146824673943</v>
+        <v>0.82575722176110777</v>
       </c>
       <c r="F79" s="3">
-        <v>0.62846082586835417</v>
+        <v>0.74275207103672036</v>
       </c>
       <c r="G79" s="3">
-        <v>0.49314121544359535</v>
+        <v>0.641545260303372</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.51200730538510086</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="5"/>
@@ -2661,22 +2837,25 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.97118608982010901</v>
+        <v>0.99465804165826976</v>
       </c>
       <c r="C80" s="3">
-        <v>0.94983824108293369</v>
+        <v>0.97961532147924424</v>
       </c>
       <c r="D80" s="3">
-        <v>0.88506548669030671</v>
+        <v>0.96144787820108468</v>
       </c>
       <c r="E80" s="3">
-        <v>0.82908884279701911</v>
+        <v>0.90215718011980883</v>
       </c>
       <c r="F80" s="3">
-        <v>0.7496871357971584</v>
+        <v>0.84537571715832549</v>
       </c>
       <c r="G80" s="3">
-        <v>0.61386119524892768</v>
+        <v>0.765347926488536</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.63757339740905961</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="5"/>
@@ -2687,22 +2866,25 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.97918499425669814</v>
+        <v>0.99560946460613153</v>
       </c>
       <c r="C81" s="3">
-        <v>0.96709709789230347</v>
+        <v>0.98773568573607973</v>
       </c>
       <c r="D81" s="3">
-        <v>0.92439983282067895</v>
+        <v>0.97886686959101021</v>
       </c>
       <c r="E81" s="3">
-        <v>0.8799419847068064</v>
+        <v>0.94239666385650134</v>
       </c>
       <c r="F81" s="3">
-        <v>0.82419544245089094</v>
+        <v>0.89726811259405426</v>
       </c>
       <c r="G81" s="3">
-        <v>0.70483108608519507</v>
+        <v>0.84147454933384958</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.7322950283183669</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="5"/>
@@ -2713,22 +2895,25 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98611988253010441</v>
+        <v>0.99632442201392069</v>
       </c>
       <c r="C82" s="3">
-        <v>0.97821638293848145</v>
+        <v>0.99477534941920509</v>
       </c>
       <c r="D82" s="3">
-        <v>0.95637839715425277</v>
+        <v>0.99007673094281268</v>
       </c>
       <c r="E82" s="3">
-        <v>0.94636356631688212</v>
+        <v>0.97514727969562931</v>
       </c>
       <c r="F82" s="3">
-        <v>0.91554992721136419</v>
+        <v>0.96504463826945741</v>
       </c>
       <c r="G82" s="3">
-        <v>0.84195141481354541</v>
+        <v>0.93481436129649753</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.8750744382289074</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="5"/>
@@ -2739,22 +2924,25 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.98994096968340095</v>
+        <v>0.99682868474366726</v>
       </c>
       <c r="C83" s="3">
-        <v>0.98930537862213563</v>
+        <v>0.99867459195640185</v>
       </c>
       <c r="D83" s="3">
-        <v>0.98005265050725066</v>
+        <v>1.0012480092532754</v>
       </c>
       <c r="E83" s="3">
-        <v>0.97324576116498751</v>
+        <v>0.99943681076004531</v>
       </c>
       <c r="F83" s="3">
-        <v>0.96394860092079138</v>
+        <v>0.99250574083524479</v>
       </c>
       <c r="G83" s="3">
-        <v>0.92845414093798839</v>
+        <v>0.98430039174499662</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.96531049182746476</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="5"/>
@@ -2765,22 +2953,25 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.99116714850489818</v>
+        <v>0.99994913010126651</v>
       </c>
       <c r="C84" s="3">
-        <v>0.98817155149078006</v>
+        <v>0.99995255301280439</v>
       </c>
       <c r="D84" s="3">
-        <v>0.98031324934793806</v>
+        <v>1.0000492221383084</v>
       </c>
       <c r="E84" s="3">
-        <v>0.98050384027378124</v>
+        <v>0.99984804010718065</v>
       </c>
       <c r="F84" s="3">
-        <v>0.97918465141491107</v>
+        <v>0.99995246736229615</v>
       </c>
       <c r="G84" s="3">
-        <v>0.96116595338940791</v>
+        <v>0.99993097815804466</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0.99965828560234282</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="5"/>
@@ -4012,7 +4203,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,15 +4248,15 @@
       <c r="B3" s="14">
         <v>3.5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -4084,15 +4275,15 @@
       <c r="B4" s="14">
         <v>1.9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -4109,8 +4300,8 @@
       <c r="B5" s="21">
         <v>1.4945999999999999</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4127,8 +4318,8 @@
       <c r="B6" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -4145,8 +4336,8 @@
       <c r="B7" s="16">
         <v>0</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -4160,8 +4351,8 @@
       <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4175,22 +4366,22 @@
       <c r="B9" s="16">
         <v>0.9</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="16">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>22</v>
@@ -4209,32 +4400,32 @@
       <c r="B11" s="16">
         <v>61</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="16">
-        <v>6</v>
-      </c>
-      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -4243,15 +4434,15 @@
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -4285,14 +4476,14 @@
       <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -4319,36 +4510,36 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -4364,25 +4555,27 @@
       <c r="A23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="24">
         <v>0.6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="D23" s="10">
         <v>0.9</v>
       </c>
-      <c r="D23" s="10">
+      <c r="E23" s="10">
         <v>1.5</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>2.7</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>4</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -4398,22 +4591,25 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.99721574720733297</v>
+        <v>1.0000526541652841</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98486783369079822</v>
+        <v>1.00012664770408</v>
       </c>
       <c r="D24" s="3">
-        <v>0.98978893452555161</v>
+        <v>1.0000141729334353</v>
       </c>
       <c r="E24" s="3">
-        <v>0.98227190113616492</v>
+        <v>1.0001326044763623</v>
       </c>
       <c r="F24" s="3">
-        <v>0.9905076715929646</v>
+        <v>1.0001040180026775</v>
       </c>
       <c r="G24" s="3">
-        <v>0.98019598576151612</v>
+        <v>1.0001283088943445</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.0003826976996943</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -4424,22 +4620,25 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99660047326255585</v>
+        <v>0.99188085465538445</v>
       </c>
       <c r="C25" s="3">
-        <v>0.98394760090188671</v>
+        <v>0.99965412321271852</v>
       </c>
       <c r="D25" s="3">
-        <v>0.98353062110051115</v>
+        <v>0.99911486199887045</v>
       </c>
       <c r="E25" s="3">
-        <v>0.96700730521731071</v>
+        <v>0.99394796605562397</v>
       </c>
       <c r="F25" s="3">
-        <v>0.96539514283548356</v>
+        <v>0.98467927812649836</v>
       </c>
       <c r="G25" s="3">
-        <v>0.94339388126347645</v>
+        <v>0.97490938441521779</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.96319171664553394</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -4450,22 +4649,25 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.98901817205673037</v>
+        <v>0.9892660903852194</v>
       </c>
       <c r="C26" s="3">
-        <v>0.97281262772321531</v>
+        <v>0.99217443140232042</v>
       </c>
       <c r="D26" s="3">
-        <v>0.95956881213635525</v>
+        <v>0.98780746056190671</v>
       </c>
       <c r="E26" s="3">
-        <v>0.92546254565081953</v>
+        <v>0.96986456544788058</v>
       </c>
       <c r="F26" s="3">
-        <v>0.89919310533496688</v>
+        <v>0.94249371514874269</v>
       </c>
       <c r="G26" s="3">
-        <v>0.81830412714571144</v>
+        <v>0.90816738361837768</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.83579997769938608</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -4476,22 +4678,25 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.97385738298771007</v>
+        <v>0.98869525074174691</v>
       </c>
       <c r="C27" s="3">
-        <v>0.93818209554181353</v>
+        <v>0.97709119984536963</v>
       </c>
       <c r="D27" s="3">
-        <v>0.88254867618153532</v>
+        <v>0.95266328413540546</v>
       </c>
       <c r="E27" s="3">
-        <v>0.81459175292286279</v>
+        <v>0.89213307840716882</v>
       </c>
       <c r="F27" s="3">
-        <v>0.74797112732300275</v>
+        <v>0.82965234086820527</v>
       </c>
       <c r="G27" s="3">
-        <v>0.63177112916060008</v>
+        <v>0.75554960781272218</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.64552605224850823</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -4502,22 +4707,25 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.95807121385318417</v>
+        <v>0.97718288510533868</v>
       </c>
       <c r="C28" s="3">
-        <v>0.9015349746486836</v>
+        <v>0.96137781143175471</v>
       </c>
       <c r="D28" s="3">
-        <v>0.81164022911061939</v>
+        <v>0.91545406176963717</v>
       </c>
       <c r="E28" s="3">
-        <v>0.73304044813689717</v>
+        <v>0.82056625573739839</v>
       </c>
       <c r="F28" s="3">
-        <v>0.65120325623973652</v>
+        <v>0.7466658682124715</v>
       </c>
       <c r="G28" s="3">
-        <v>0.52289887532307411</v>
+        <v>0.65787965335665588</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.53448972867700772</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="5"/>
@@ -4528,22 +4736,25 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.90974769150326296</v>
+        <v>0.95937341595260717</v>
       </c>
       <c r="C29" s="3">
-        <v>0.82438073370360121</v>
+        <v>0.91298237530093973</v>
       </c>
       <c r="D29" s="3">
-        <v>0.68831267489527614</v>
+        <v>0.83712240495627799</v>
       </c>
       <c r="E29" s="3">
-        <v>0.59189014370514603</v>
+        <v>0.69597609088585233</v>
       </c>
       <c r="F29" s="3">
-        <v>0.51157147943246317</v>
+        <v>0.60296170389341019</v>
       </c>
       <c r="G29" s="3">
-        <v>0.40278990935696585</v>
+        <v>0.51685780585550878</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.41187677981906068</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -4554,22 +4765,25 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.8687804769175973</v>
+        <v>0.94706657219973134</v>
       </c>
       <c r="C30" s="3">
-        <v>0.75564344953161977</v>
+        <v>0.87199414590497581</v>
       </c>
       <c r="D30" s="3">
-        <v>0.60177867526285345</v>
+        <v>0.76734784597322148</v>
       </c>
       <c r="E30" s="3">
-        <v>0.50659286360925004</v>
+        <v>0.60856475718401271</v>
       </c>
       <c r="F30" s="3">
-        <v>0.43391859751552797</v>
+        <v>0.51612827603653955</v>
       </c>
       <c r="G30" s="3">
-        <v>0.34456685678594512</v>
+        <v>0.43845838244964208</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.35247525595464618</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -4580,22 +4794,25 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.86086343507351959</v>
+        <v>0.94483420764024761</v>
       </c>
       <c r="C31" s="3">
-        <v>0.74764596166117525</v>
+        <v>0.8641558153596085</v>
       </c>
       <c r="D31" s="3">
-        <v>0.59280120648712964</v>
+        <v>0.75923669397954952</v>
       </c>
       <c r="E31" s="3">
-        <v>0.49538220991876508</v>
+        <v>0.59957109134398645</v>
       </c>
       <c r="F31" s="3">
-        <v>0.42814270961249407</v>
+        <v>0.50475266145305575</v>
       </c>
       <c r="G31" s="3">
-        <v>0.33938493296251226</v>
+        <v>0.43268439401887526</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.34723964502015187</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -4606,22 +4823,25 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.85353004793224296</v>
+        <v>0.94665976826593323</v>
       </c>
       <c r="C32" s="3">
-        <v>0.7425282288770495</v>
+        <v>0.85689565708476856</v>
       </c>
       <c r="D32" s="3">
-        <v>0.58464055202033127</v>
+        <v>0.75405990319963911</v>
       </c>
       <c r="E32" s="3">
-        <v>0.48778070571758858</v>
+        <v>0.59139737905582501</v>
       </c>
       <c r="F32" s="3">
-        <v>0.42531810963409178</v>
+        <v>0.49704074155469619</v>
       </c>
       <c r="G32" s="3">
-        <v>0.33420300913907941</v>
+        <v>0.42988028876801609</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.34200403408565755</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -4632,22 +4852,25 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.85242945271249371</v>
+        <v>0.93846641877964598</v>
       </c>
       <c r="C33" s="3">
-        <v>0.73032146100267359</v>
+        <v>0.85591213300649116</v>
       </c>
       <c r="D33" s="3">
-        <v>0.5763350894343654</v>
+        <v>0.74167065258299336</v>
       </c>
       <c r="E33" s="3">
-        <v>0.48504495619421845</v>
+        <v>0.58306684742127879</v>
       </c>
       <c r="F33" s="3">
-        <v>0.4166138869491805</v>
+        <v>0.49434382603051752</v>
       </c>
       <c r="G33" s="3">
-        <v>0.3279396640648794</v>
+        <v>0.42113974456146613</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.33565834139337253</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -4658,22 +4881,25 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.84052798347630753</v>
+        <v>0.94464387970231589</v>
       </c>
       <c r="C34" s="3">
-        <v>0.72782884676845216</v>
+        <v>0.84406481961114499</v>
       </c>
       <c r="D34" s="3">
-        <v>0.56829357495006227</v>
+        <v>0.73915879205174606</v>
       </c>
       <c r="E34" s="3">
-        <v>0.47773676801033893</v>
+        <v>0.57500831672230723</v>
       </c>
       <c r="F34" s="3">
-        <v>0.41282075523088491</v>
+        <v>0.48692075801352191</v>
       </c>
       <c r="G34" s="3">
-        <v>0.32167631899067939</v>
+        <v>0.41735979490954839</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.32931264870108751</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -4684,22 +4910,25 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.83391811964654816</v>
+        <v>0.93270622985597496</v>
       </c>
       <c r="C35" s="3">
-        <v>0.71708465130734145</v>
+        <v>0.83752997459297218</v>
       </c>
       <c r="D35" s="3">
-        <v>0.56391223315459293</v>
+        <v>0.72824557962571135</v>
       </c>
       <c r="E35" s="3">
-        <v>0.46858769519731969</v>
+        <v>0.57065433225111772</v>
       </c>
       <c r="F35" s="3">
-        <v>0.39812761880465775</v>
+        <v>0.47764765512926433</v>
       </c>
       <c r="G35" s="3">
-        <v>0.31772258575333145</v>
+        <v>0.40256153076878098</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.32532593975972812</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -4710,22 +4939,25 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.82448787907144472</v>
+        <v>0.93293521075455543</v>
       </c>
       <c r="C36" s="3">
-        <v>0.70381234972616813</v>
+        <v>0.82816930648049092</v>
       </c>
       <c r="D36" s="3">
-        <v>0.55089935429148773</v>
+        <v>0.71477722748323758</v>
       </c>
       <c r="E36" s="3">
-        <v>0.46572806808824685</v>
+        <v>0.55756372525586395</v>
       </c>
       <c r="F36" s="3">
-        <v>0.39623789437346302</v>
+        <v>0.47480711285585908</v>
       </c>
       <c r="G36" s="3">
-        <v>0.31376885251598352</v>
+        <v>0.40069902590893403</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.32133923081836868</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5"/>
@@ -4736,22 +4968,25 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.80954070019348878</v>
+        <v>0.92792251381802493</v>
       </c>
       <c r="C37" s="3">
-        <v>0.6931550932000794</v>
+        <v>0.81327069286654596</v>
       </c>
       <c r="D37" s="3">
-        <v>0.54075247873676291</v>
+        <v>0.7039554124723908</v>
       </c>
       <c r="E37" s="3">
-        <v>0.45602782283833437</v>
+        <v>0.54736661212449944</v>
       </c>
       <c r="F37" s="3">
-        <v>0.3888993958134771</v>
+        <v>0.46494338424438775</v>
       </c>
       <c r="G37" s="3">
-        <v>0.31093012986921442</v>
+        <v>0.39333864878005542</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.31849189522923954</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="5"/>
@@ -4762,22 +4997,25 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.80351659967318145</v>
+        <v>0.92628224840983542</v>
       </c>
       <c r="C38" s="3">
-        <v>0.68798079024710856</v>
+        <v>0.80731343660520616</v>
       </c>
       <c r="D38" s="3">
-        <v>0.52696327189200987</v>
+        <v>0.69871682798140322</v>
       </c>
       <c r="E38" s="3">
-        <v>0.44581148801451909</v>
+        <v>0.53347306322146115</v>
       </c>
       <c r="F38" s="3">
-        <v>0.38843260244530398</v>
+        <v>0.4545998624377412</v>
       </c>
       <c r="G38" s="3">
-        <v>0.30809140722244532</v>
+        <v>0.3929024238206888</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.3156445596401104</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="5"/>
@@ -4788,22 +5026,25 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.78939789371822633</v>
+        <v>0.90889131518776378</v>
       </c>
       <c r="C39" s="3">
-        <v>0.66829333558584259</v>
+        <v>0.79322080433559028</v>
       </c>
       <c r="D39" s="3">
-        <v>0.52474727268766452</v>
+        <v>0.67874604796118021</v>
       </c>
       <c r="E39" s="3">
-        <v>0.4430534018737326</v>
+        <v>0.53129743946261576</v>
       </c>
       <c r="F39" s="3">
-        <v>0.37791356522456548</v>
+        <v>0.45181610362278368</v>
       </c>
       <c r="G39" s="3">
-        <v>0.30266900385987189</v>
+        <v>0.38232078563305261</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.31014943091615854</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="5"/>
@@ -4814,22 +5055,25 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.78147397026593757</v>
+        <v>0.90910370933345686</v>
       </c>
       <c r="C40" s="3">
-        <v>0.66251912334910801</v>
+        <v>0.78535428581361388</v>
       </c>
       <c r="D40" s="3">
-        <v>0.51528540393420563</v>
+        <v>0.67288071593749321</v>
       </c>
       <c r="E40" s="3">
-        <v>0.43402860858257564</v>
+        <v>0.521793636245105</v>
       </c>
       <c r="F40" s="3">
-        <v>0.37216418237101168</v>
+        <v>0.44267609208987457</v>
       </c>
       <c r="G40" s="3">
-        <v>0.29724660049729845</v>
+        <v>0.37654515300648195</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.30465430219220674</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -4840,22 +5084,25 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.78322134240018604</v>
+        <v>0.91320483639932859</v>
       </c>
       <c r="C41" s="3">
-        <v>0.65894727463133151</v>
+        <v>0.78721009491722016</v>
       </c>
       <c r="D41" s="3">
-        <v>0.51390541881380292</v>
+        <v>0.66925964427287421</v>
       </c>
       <c r="E41" s="3">
-        <v>0.43088692840640652</v>
+        <v>0.52046208489086954</v>
       </c>
       <c r="F41" s="3">
-        <v>0.3692348442462039</v>
+        <v>0.43950727168764747</v>
       </c>
       <c r="G41" s="3">
-        <v>0.28984244905319861</v>
+        <v>0.37362821056504369</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.29712010665685556</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
@@ -4866,22 +5113,25 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.78596898663104442</v>
+        <v>0.9125073040582532</v>
       </c>
       <c r="C42" s="3">
-        <v>0.65767246359622122</v>
+        <v>0.79006929549264382</v>
       </c>
       <c r="D42" s="3">
-        <v>0.50721900566355216</v>
+        <v>0.66797757792372248</v>
       </c>
       <c r="E42" s="3">
-        <v>0.42597373806346112</v>
+        <v>0.51376406957258491</v>
       </c>
       <c r="F42" s="3">
-        <v>0.35792068696633339</v>
+        <v>0.43454865105311313</v>
       </c>
       <c r="G42" s="3">
-        <v>0.28243829760909878</v>
+        <v>0.36223184359244931</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.28958591112150439</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -4892,22 +5142,25 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.77911419201618681</v>
+        <v>0.90639652978729379</v>
       </c>
       <c r="C43" s="3">
-        <v>0.65767878101634469</v>
+        <v>0.78327529072113677</v>
       </c>
       <c r="D43" s="3">
-        <v>0.50991589644720003</v>
+        <v>0.66798959895689869</v>
       </c>
       <c r="E43" s="3">
-        <v>0.41754968077527377</v>
+        <v>0.51655851202924874</v>
       </c>
       <c r="F43" s="3">
-        <v>0.35254078735247363</v>
+        <v>0.42597218444134494</v>
       </c>
       <c r="G43" s="3">
-        <v>0.27362464344212578</v>
+        <v>0.35683095783722929</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.28060177218706428</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="5"/>
@@ -4918,22 +5171,25 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.78687017018420902</v>
+        <v>0.91608560692375907</v>
       </c>
       <c r="C44" s="3">
-        <v>0.65793856805622331</v>
+        <v>0.79118986414415227</v>
       </c>
       <c r="D44" s="3">
-        <v>0.497941650024112</v>
+        <v>0.66826768049722585</v>
       </c>
       <c r="E44" s="3">
-        <v>0.4111654195243073</v>
+        <v>0.50449839655167339</v>
       </c>
       <c r="F44" s="3">
-        <v>0.34685777885887137</v>
+        <v>0.41953068954909456</v>
       </c>
       <c r="G44" s="3">
-        <v>0.26481098927515279</v>
+        <v>0.35112091752600555</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.27161763325262422</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="5"/>
@@ -4944,22 +5200,25 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.78838140705452342</v>
+        <v>0.92256429112990967</v>
       </c>
       <c r="C45" s="3">
-        <v>0.65338523620980837</v>
+        <v>0.79279871113674805</v>
       </c>
       <c r="D45" s="3">
-        <v>0.49494757474962103</v>
+        <v>0.66365526399158958</v>
       </c>
       <c r="E45" s="3">
-        <v>0.40325526650120719</v>
+        <v>0.50153260293481883</v>
       </c>
       <c r="F45" s="3">
-        <v>0.33460195717911817</v>
+        <v>0.41149283377057533</v>
       </c>
       <c r="G45" s="3">
-        <v>0.25100792348136969</v>
+        <v>0.3387684429427531</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.25750693341746156</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="5"/>
@@ -4970,22 +5229,25 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.78797824541808859</v>
+        <v>0.91791232551534174</v>
       </c>
       <c r="C46" s="3">
-        <v>0.65685101135303303</v>
+        <v>0.79249587366171181</v>
       </c>
       <c r="D46" s="3">
-        <v>0.48804383993676276</v>
+        <v>0.667184352183256</v>
       </c>
       <c r="E46" s="3">
-        <v>0.39762570668197139</v>
+        <v>0.49459919973462868</v>
       </c>
       <c r="F46" s="3">
-        <v>0.32336480481559787</v>
+        <v>0.40579466495104777</v>
       </c>
       <c r="G46" s="3">
-        <v>0.23720485768758665</v>
+        <v>0.32741256759817111</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.24339623358229892</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -4996,22 +5258,25 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.78751995347753245</v>
+        <v>0.92065702197583565</v>
       </c>
       <c r="C47" s="3">
-        <v>0.65002461345575679</v>
+        <v>0.79212525905059561</v>
       </c>
       <c r="D47" s="3">
-        <v>0.47865012215459612</v>
+        <v>0.66026065195454631</v>
       </c>
       <c r="E47" s="3">
-        <v>0.38198675331442999</v>
+        <v>0.48514323113857555</v>
       </c>
       <c r="F47" s="3">
-        <v>0.30771095575870583</v>
+        <v>0.38987047670384828</v>
       </c>
       <c r="G47" s="3">
-        <v>0.22249530290837427</v>
+        <v>0.31160043510825342</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.22834485662323648</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
@@ -5022,22 +5287,25 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.77790947349243411</v>
+        <v>0.91679716352884133</v>
       </c>
       <c r="C48" s="3">
-        <v>0.65101328377160395</v>
+        <v>0.78257182302645911</v>
       </c>
       <c r="D48" s="3">
-        <v>0.45825942604851522</v>
+        <v>0.66127532310851822</v>
       </c>
       <c r="E48" s="3">
-        <v>0.36656647631127476</v>
+        <v>0.46453757483995606</v>
       </c>
       <c r="F48" s="3">
-        <v>0.29051894998867062</v>
+        <v>0.37417403493655793</v>
       </c>
       <c r="G48" s="3">
-        <v>0.20778574812916192</v>
+        <v>0.29424581438527364</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.21329347966417403</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
@@ -5048,22 +5316,25 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.7761940532196856</v>
+        <v>0.91348718085456204</v>
       </c>
       <c r="C49" s="3">
-        <v>0.63576856856307684</v>
+        <v>0.78093445255085636</v>
       </c>
       <c r="D49" s="3">
-        <v>0.44342098105926669</v>
+        <v>0.64578376339544419</v>
       </c>
       <c r="E49" s="3">
-        <v>0.34645385757975378</v>
+        <v>0.44955820932543411</v>
       </c>
       <c r="F49" s="3">
-        <v>0.25863674205630116</v>
+        <v>0.35366009913287522</v>
       </c>
       <c r="G49" s="3">
-        <v>0.18436113616817223</v>
+        <v>0.26198372188239355</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.18927790816328921</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="5"/>
@@ -5074,22 +5345,25 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.76639079533775245</v>
+        <v>0.91363776449099954</v>
       </c>
       <c r="C50" s="3">
-        <v>0.6050295242993583</v>
+        <v>0.77116377921167378</v>
       </c>
       <c r="D50" s="3">
-        <v>0.40705152581316606</v>
+        <v>0.61458553668697868</v>
       </c>
       <c r="E50" s="3">
-        <v>0.30886863051418889</v>
+        <v>0.41274346853161586</v>
       </c>
       <c r="F50" s="3">
-        <v>0.23734652427448877</v>
+        <v>0.31533387288632597</v>
       </c>
       <c r="G50" s="3">
-        <v>0.16093652420718255</v>
+        <v>0.24045488702637391</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.16526233666240436</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5"/>
@@ -5100,22 +5374,25 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.72344854525143076</v>
+        <v>0.89781973402581983</v>
       </c>
       <c r="C51" s="3">
-        <v>0.55946971072616303</v>
+        <v>0.72806296671216275</v>
       </c>
       <c r="D51" s="3">
-        <v>0.35499683141749827</v>
+        <v>0.56830852355836114</v>
       </c>
       <c r="E51" s="3">
-        <v>0.25798171733862685</v>
+        <v>0.35999897587046287</v>
       </c>
       <c r="F51" s="3">
-        <v>0.19099116420100276</v>
+        <v>0.26341573330338491</v>
       </c>
       <c r="G51" s="3">
-        <v>0.13258661460237314</v>
+        <v>0.19351886953634065</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.13617254773092785</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
@@ -5126,22 +5403,25 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.64555110494422807</v>
+        <v>0.86365378961354833</v>
       </c>
       <c r="C52" s="3">
-        <v>0.45616776619206229</v>
+        <v>0.64975546532136519</v>
       </c>
       <c r="D52" s="3">
-        <v>0.26637876855926479</v>
+        <v>0.46337790389348338</v>
       </c>
       <c r="E52" s="3">
-        <v>0.19167014741909078</v>
+        <v>0.27017326011214338</v>
       </c>
       <c r="F52" s="3">
-        <v>0.1438723859680105</v>
+        <v>0.19572941626049412</v>
       </c>
       <c r="G52" s="3">
-        <v>0.10423670499756374</v>
+        <v>0.14579371257300749</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.10708275879945137</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
@@ -5152,22 +5432,25 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.4135169530912064</v>
+        <v>0.70840636591868633</v>
       </c>
       <c r="C53" s="3">
-        <v>0.26432299669730702</v>
+        <v>0.41625241638463184</v>
       </c>
       <c r="D53" s="3">
-        <v>0.15518571941457043</v>
+        <v>0.26851303269279969</v>
       </c>
       <c r="E53" s="3">
-        <v>0.12376981730561958</v>
+        <v>0.15742211180230145</v>
       </c>
       <c r="F53" s="3">
-        <v>0.10372367068217925</v>
+        <v>0.1264143925106683</v>
       </c>
       <c r="G53" s="3">
-        <v>8.8811928504302834E-2</v>
+        <v>0.10512230356875855</v>
+      </c>
+      <c r="H53" s="3">
+        <v>9.1251466225870909E-2</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
@@ -5178,22 +5461,25 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>8.2551004330868899E-2</v>
+        <v>8.5397483612706243E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>8.3658745559897926E-2</v>
+        <v>8.3102002846402789E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>8.151129160947837E-2</v>
+        <v>8.4995272630099233E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>7.4525952518379832E-2</v>
+        <v>8.2706097928378935E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>7.4131451316440347E-2</v>
+        <v>7.6125949251001718E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>7.3387152011041915E-2</v>
+        <v>7.5136738698059119E-2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7.5420173652290451E-2</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
@@ -5204,22 +5490,25 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.29469976667644698</v>
+        <v>0.60068339151815242</v>
       </c>
       <c r="C55" s="3">
-        <v>0.17660230107140937</v>
+        <v>0.29675078014488138</v>
       </c>
       <c r="D55" s="3">
-        <v>0.11917754218153716</v>
+        <v>0.17941280292577985</v>
       </c>
       <c r="E55" s="3">
-        <v>9.8706934279363973E-2</v>
+        <v>0.12092046663284592</v>
       </c>
       <c r="F55" s="3">
-        <v>8.4186141093654451E-2</v>
+        <v>0.10083998383362473</v>
       </c>
       <c r="G55" s="3">
-        <v>8.4393859715356206E-2</v>
+        <v>8.5338531166239767E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>8.6750489185460217E-2</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
@@ -5230,22 +5519,25 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.58662612434075889</v>
+        <v>0.84404861235411732</v>
       </c>
       <c r="C56" s="3">
-        <v>0.37804806411836456</v>
+        <v>0.59075524281570835</v>
       </c>
       <c r="D56" s="3">
-        <v>0.21793508656347127</v>
+        <v>0.38405921015338301</v>
       </c>
       <c r="E56" s="3">
-        <v>0.15574116983570591</v>
+        <v>0.22116208432846246</v>
       </c>
       <c r="F56" s="3">
-        <v>0.1186269599840974</v>
+        <v>0.1591024480671713</v>
       </c>
       <c r="G56" s="3">
-        <v>9.5400567419670484E-2</v>
+        <v>0.12026501709983344</v>
+      </c>
+      <c r="H56" s="3">
+        <v>9.8080804718629969E-2</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="5"/>
@@ -5256,22 +5548,25 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.7181621062922352</v>
+        <v>0.90479295523088332</v>
       </c>
       <c r="C57" s="3">
-        <v>0.52873871478566703</v>
+        <v>0.72329706401270477</v>
       </c>
       <c r="D57" s="3">
-        <v>0.30822554755823017</v>
+        <v>0.53714575541013332</v>
       </c>
       <c r="E57" s="3">
-        <v>0.21463755577240157</v>
+        <v>0.31282194906003419</v>
       </c>
       <c r="F57" s="3">
-        <v>0.16506850684764601</v>
+        <v>0.21930832413582307</v>
       </c>
       <c r="G57" s="3">
-        <v>0.11822378677415604</v>
+        <v>0.16738862151410278</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.12157346723956355</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
@@ -5282,22 +5577,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.77441343260724227</v>
+        <v>0.91860670661217791</v>
       </c>
       <c r="C58" s="3">
-        <v>0.60720194831994068</v>
+        <v>0.78005080704247898</v>
       </c>
       <c r="D58" s="3">
-        <v>0.38029387303754636</v>
+        <v>0.61686596015796791</v>
       </c>
       <c r="E58" s="3">
-        <v>0.27574054071942006</v>
+        <v>0.38602104891420108</v>
       </c>
       <c r="F58" s="3">
-        <v>0.20107641770406884</v>
+        <v>0.2817621893329646</v>
       </c>
       <c r="G58" s="3">
-        <v>0.1410470061286416</v>
+        <v>0.20392270550453931</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.14506612976049715</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="5"/>
@@ -5308,22 +5606,25 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.8046350164862005</v>
+        <v>0.93463399863542596</v>
       </c>
       <c r="C59" s="3">
-        <v>0.64427269420288269</v>
+        <v>0.8105873059053087</v>
       </c>
       <c r="D59" s="3">
-        <v>0.43546484564197846</v>
+        <v>0.65453585332769826</v>
       </c>
       <c r="E59" s="3">
-        <v>0.32104897092946211</v>
+        <v>0.44207983952207475</v>
       </c>
       <c r="F59" s="3">
-        <v>0.24050038743828375</v>
+        <v>0.32809033826874795</v>
       </c>
       <c r="G59" s="3">
-        <v>0.16142130132707508</v>
+        <v>0.24394418746882435</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.16605360816515546</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
@@ -5334,22 +5635,25 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.82276731761368571</v>
+        <v>0.93839822919134463</v>
       </c>
       <c r="C60" s="3">
-        <v>0.67946234614760992</v>
+        <v>0.8289605277103762</v>
       </c>
       <c r="D60" s="3">
-        <v>0.46982068800104815</v>
+        <v>0.69027702404559144</v>
       </c>
       <c r="E60" s="3">
-        <v>0.35954846429152171</v>
+        <v>0.47702332231861916</v>
       </c>
       <c r="F60" s="3">
-        <v>0.26577788258090551</v>
+        <v>0.3674653575374392</v>
       </c>
       <c r="G60" s="3">
-        <v>0.18179559652550856</v>
+        <v>0.26959743292046351</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.1870410865698138</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="5"/>
@@ -5360,22 +5664,25 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.82790625229800763</v>
+        <v>0.94369172329218964</v>
       </c>
       <c r="C61" s="3">
-        <v>0.69560408313419519</v>
+        <v>0.83425004534176672</v>
       </c>
       <c r="D61" s="3">
-        <v>0.49543823582049684</v>
+        <v>0.70669725096785063</v>
       </c>
       <c r="E61" s="3">
-        <v>0.3767301328968109</v>
+        <v>0.50311455958697504</v>
       </c>
       <c r="F61" s="3">
-        <v>0.28663046481582211</v>
+        <v>0.38506117562145525</v>
       </c>
       <c r="G61" s="3">
-        <v>0.19895988365712947</v>
+        <v>0.29079243260944854</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.20474412724187052</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
@@ -5386,22 +5693,25 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.8393966716656418</v>
+        <v>0.94051353213015021</v>
       </c>
       <c r="C62" s="3">
-        <v>0.70737421282904189</v>
+        <v>0.84592330532811322</v>
       </c>
       <c r="D62" s="3">
-        <v>0.50857848343923573</v>
+        <v>0.7186609246998269</v>
       </c>
       <c r="E62" s="3">
-        <v>0.39508154331485729</v>
+        <v>0.51652146586345604</v>
       </c>
       <c r="F62" s="3">
-        <v>0.30831933766327296</v>
+        <v>0.40386077239831841</v>
       </c>
       <c r="G62" s="3">
-        <v>0.21612417078875037</v>
+        <v>0.31284205468627468</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.22244716791392721</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="5"/>
@@ -5412,22 +5722,25 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.84976461080823529</v>
+        <v>0.94511130608014537</v>
       </c>
       <c r="C63" s="3">
-        <v>0.71540328428610045</v>
+        <v>0.8564766746103526</v>
       </c>
       <c r="D63" s="3">
-        <v>0.5223523834941638</v>
+        <v>0.72682377430474843</v>
       </c>
       <c r="E63" s="3">
-        <v>0.41200971642895318</v>
+        <v>0.53057507000409454</v>
       </c>
       <c r="F63" s="3">
-        <v>0.32351199067662623</v>
+        <v>0.42120976130001903</v>
       </c>
       <c r="G63" s="3">
-        <v>0.23008128762709362</v>
+        <v>0.32829771113552159</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.2368623737760894</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="5"/>
@@ -5438,22 +5751,25 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.85055724917494013</v>
+        <v>0.94108185439228076</v>
       </c>
       <c r="C64" s="3">
-        <v>0.72708161589081832</v>
+        <v>0.85739769609288774</v>
       </c>
       <c r="D64" s="3">
-        <v>0.54394706701629469</v>
+        <v>0.73869647096708535</v>
       </c>
       <c r="E64" s="3">
-        <v>0.43148199947640081</v>
+        <v>0.55258387029063449</v>
       </c>
       <c r="F64" s="3">
-        <v>0.34316771543326374</v>
+        <v>0.44115399723592114</v>
       </c>
       <c r="G64" s="3">
-        <v>0.2440384044654369</v>
+        <v>0.34828870409599089</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.25127757963825159</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="5"/>
@@ -5464,22 +5780,25 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.86255049132622452</v>
+        <v>0.94559862889901791</v>
       </c>
       <c r="C65" s="3">
-        <v>0.73771014496810849</v>
+        <v>0.86958703157219897</v>
       </c>
       <c r="D65" s="3">
-        <v>0.55936861460823406</v>
+        <v>0.74952144227372075</v>
       </c>
       <c r="E65" s="3">
-        <v>0.44963264149032306</v>
+        <v>0.5683263273600444</v>
       </c>
       <c r="F65" s="3">
-        <v>0.35604030351373128</v>
+        <v>0.45975929532789001</v>
       </c>
       <c r="G65" s="3">
-        <v>0.25630809105023472</v>
+        <v>0.36140801434603043</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.26396256198036744</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="5"/>
@@ -5490,22 +5809,25 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.86397803755022262</v>
+        <v>0.94520818119065475</v>
       </c>
       <c r="C66" s="3">
-        <v>0.74626140254424389</v>
+        <v>0.87115002481131076</v>
       </c>
       <c r="D66" s="3">
-        <v>0.5689500971720477</v>
+        <v>0.75821242484658702</v>
       </c>
       <c r="E66" s="3">
-        <v>0.46626808180453699</v>
+        <v>0.57814871049108529</v>
       </c>
       <c r="F66" s="3">
-        <v>0.36780547011581782</v>
+        <v>0.47681499188467413</v>
       </c>
       <c r="G66" s="3">
-        <v>0.26857777763503254</v>
+        <v>0.37339667976914293</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.27664754432248329</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="5"/>
@@ -5516,22 +5838,25 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.86584199672202389</v>
+        <v>0.95252841522632214</v>
       </c>
       <c r="C67" s="3">
-        <v>0.75362877588322008</v>
+        <v>0.8731344514020396</v>
       </c>
       <c r="D67" s="3">
-        <v>0.57928673195222813</v>
+        <v>0.76570016745541891</v>
       </c>
       <c r="E67" s="3">
-        <v>0.47431635059103111</v>
+        <v>0.58871838696697232</v>
       </c>
       <c r="F67" s="3">
-        <v>0.3754877966035462</v>
+        <v>0.48508640386300306</v>
       </c>
       <c r="G67" s="3">
-        <v>0.27872329639716809</v>
+        <v>0.38124543347189005</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.28715744730253656</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="5"/>
@@ -5542,22 +5867,25 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.86980585332427385</v>
+        <v>0.9478170975178376</v>
       </c>
       <c r="C68" s="3">
-        <v>0.76021760922139914</v>
+        <v>0.87725379521464819</v>
       </c>
       <c r="D68" s="3">
-        <v>0.58890457927490814</v>
+        <v>0.77241308846594703</v>
       </c>
       <c r="E68" s="3">
-        <v>0.48289823603938942</v>
+        <v>0.59857739997219883</v>
       </c>
       <c r="F68" s="3">
-        <v>0.38747322604705714</v>
+        <v>0.49390481675559333</v>
       </c>
       <c r="G68" s="3">
-        <v>0.28886881515930363</v>
+        <v>0.39346585730524908</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.29766735028258984</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="5"/>
@@ -5568,22 +5896,25 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.86958261267378578</v>
+        <v>0.9521122632977006</v>
       </c>
       <c r="C69" s="3">
-        <v>0.76284906064426272</v>
+        <v>0.87713569648528755</v>
       </c>
       <c r="D69" s="3">
-        <v>0.59192132550375987</v>
+        <v>0.77510029171886763</v>
       </c>
       <c r="E69" s="3">
-        <v>0.4903614844581593</v>
+        <v>0.60171102841851698</v>
       </c>
       <c r="F69" s="3">
-        <v>0.40005882260953579</v>
+        <v>0.5016132634155257</v>
       </c>
       <c r="G69" s="3">
-        <v>0.29900284411505701</v>
+        <v>0.40630148838269953</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.30817131124412478</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="5"/>
@@ -5594,22 +5925,25 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.87868468323585647</v>
+        <v>0.95864433083959733</v>
       </c>
       <c r="C70" s="3">
-        <v>0.77291321427786497</v>
+        <v>0.88642215939573765</v>
       </c>
       <c r="D70" s="3">
-        <v>0.60956807168541016</v>
+        <v>0.7853277246757806</v>
       </c>
       <c r="E70" s="3">
-        <v>0.50951120803029837</v>
+        <v>0.61974322732556375</v>
       </c>
       <c r="F70" s="3">
-        <v>0.40850148590331559</v>
+        <v>0.52122773685675716</v>
       </c>
       <c r="G70" s="3">
-        <v>0.30913687307081039</v>
+        <v>0.41492845704495351</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.31867527220565972</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
@@ -5620,22 +5954,25 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.88540918834242954</v>
+        <v>0.96202733049999301</v>
       </c>
       <c r="C71" s="3">
-        <v>0.79716018863140403</v>
+        <v>0.89333320276477135</v>
       </c>
       <c r="D71" s="3">
-        <v>0.61780903646030816</v>
+        <v>0.80997538503392597</v>
       </c>
       <c r="E71" s="3">
-        <v>0.51257259301114044</v>
+        <v>0.62820934917621307</v>
       </c>
       <c r="F71" s="3">
-        <v>0.42168105865886546</v>
+        <v>0.52444641107199708</v>
       </c>
       <c r="G71" s="3">
-        <v>0.31554016131644602</v>
+        <v>0.42836678621645091</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.32534182570366055</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="5"/>
@@ -5646,22 +5983,25 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.89751539023710492</v>
+        <v>0.96336825991303654</v>
       </c>
       <c r="C72" s="3">
-        <v>0.80314080244159403</v>
+        <v>0.9056427162133055</v>
       </c>
       <c r="D72" s="3">
-        <v>0.62687833895275813</v>
+        <v>0.8160620485934752</v>
       </c>
       <c r="E72" s="3">
-        <v>0.5304450272693455</v>
+        <v>0.63752132576406817</v>
       </c>
       <c r="F72" s="3">
-        <v>0.432542639540409</v>
+        <v>0.54278336891347467</v>
       </c>
       <c r="G72" s="3">
-        <v>0.32194344956208171</v>
+        <v>0.43945375094525696</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.33200837920166137</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="5"/>
@@ -5672,22 +6012,25 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.90155321176286551</v>
+        <v>0.96306813412930858</v>
       </c>
       <c r="C73" s="3">
-        <v>0.80856282548139902</v>
+        <v>0.90985732250152862</v>
       </c>
       <c r="D73" s="3">
-        <v>0.63689336362811833</v>
+        <v>0.82158146092092532</v>
       </c>
       <c r="E73" s="3">
-        <v>0.53450774606302498</v>
+        <v>0.64779403528680068</v>
       </c>
       <c r="F73" s="3">
-        <v>0.44340359826178116</v>
+        <v>0.54700010962071399</v>
       </c>
       <c r="G73" s="3">
-        <v>0.33176063444320847</v>
+        <v>0.45055468706866825</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.34219790256304999</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="5"/>
@@ -5698,22 +6041,25 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.90515062785490952</v>
+        <v>0.96568816423446147</v>
       </c>
       <c r="C74" s="3">
-        <v>0.8110522798655847</v>
+        <v>0.91360527543825787</v>
       </c>
       <c r="D74" s="3">
-        <v>0.65710584124561144</v>
+        <v>0.82413382311893724</v>
       </c>
       <c r="E74" s="3">
-        <v>0.54650272003393074</v>
+        <v>0.66844059103552067</v>
       </c>
       <c r="F74" s="3">
-        <v>0.45141011802962544</v>
+        <v>0.55930041623039251</v>
       </c>
       <c r="G74" s="3">
-        <v>0.34157781932433517</v>
+        <v>0.45874196267847889</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.35238742592443861</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="5"/>
@@ -5724,22 +6070,25 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.90952050986394073</v>
+        <v>0.96834331563518161</v>
       </c>
       <c r="C75" s="3">
-        <v>0.81891012700937238</v>
+        <v>0.91813021307322662</v>
       </c>
       <c r="D75" s="3">
-        <v>0.65734580039197421</v>
+        <v>0.83212016406363143</v>
       </c>
       <c r="E75" s="3">
-        <v>0.55593964479419788</v>
+        <v>0.66876806839902059</v>
       </c>
       <c r="F75" s="3">
-        <v>0.45282809970587323</v>
+        <v>0.56903453740901921</v>
       </c>
       <c r="G75" s="3">
-        <v>0.34688108061912937</v>
+        <v>0.46024785474760604</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.35792981603821467</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="5"/>
@@ -5750,22 +6099,25 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.91113206317424977</v>
+        <v>0.96713828271242475</v>
       </c>
       <c r="C76" s="3">
-        <v>0.82247311726701466</v>
+        <v>0.91987157712382639</v>
       </c>
       <c r="D76" s="3">
-        <v>0.66145620206502764</v>
+        <v>0.83576542139918009</v>
       </c>
       <c r="E76" s="3">
-        <v>0.55799723986029115</v>
+        <v>0.6730359181351051</v>
       </c>
       <c r="F76" s="3">
-        <v>0.46175608877854779</v>
+        <v>0.57119962492107168</v>
       </c>
       <c r="G76" s="3">
-        <v>0.3521843419139235</v>
+        <v>0.46937687702729425</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.36347220615199072</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="5"/>
@@ -5776,22 +6128,25 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.90743022238502447</v>
+        <v>0.96974223775937496</v>
       </c>
       <c r="C77" s="3">
-        <v>0.82791150761016863</v>
+        <v>0.91623703789610489</v>
       </c>
       <c r="D77" s="3">
-        <v>0.67325238130239451</v>
+        <v>0.84128981472832298</v>
       </c>
       <c r="E77" s="3">
-        <v>0.5689967280017344</v>
+        <v>0.68515331426065473</v>
       </c>
       <c r="F77" s="3">
-        <v>0.47454739622582637</v>
+        <v>0.58252253849628266</v>
       </c>
       <c r="G77" s="3">
-        <v>0.35688500050732375</v>
+        <v>0.48244555129418432</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.36839662416430141</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="5"/>
@@ -5802,22 +6157,25 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.91510279518768178</v>
+        <v>0.97465746203685966</v>
       </c>
       <c r="C78" s="3">
-        <v>0.82899966727354946</v>
+        <v>0.92412217278606923</v>
       </c>
       <c r="D78" s="3">
-        <v>0.67402504560713095</v>
+        <v>0.84241447629908739</v>
       </c>
       <c r="E78" s="3">
-        <v>0.57152337179407364</v>
+        <v>0.68601535364188759</v>
       </c>
       <c r="F78" s="3">
-        <v>0.47984134384551042</v>
+        <v>0.585173336094582</v>
       </c>
       <c r="G78" s="3">
-        <v>0.36158565910072399</v>
+        <v>0.48789688972055256</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.37332104217661211</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="5"/>
@@ -5828,22 +6186,25 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.93564883702540613</v>
+        <v>0.98699398777589609</v>
       </c>
       <c r="C79" s="3">
-        <v>0.87048753672537948</v>
+        <v>0.94498345258005512</v>
       </c>
       <c r="D79" s="3">
-        <v>0.74625712644076203</v>
+        <v>0.88457832683168269</v>
       </c>
       <c r="E79" s="3">
-        <v>0.6544510962057537</v>
+        <v>0.75963563000805201</v>
       </c>
       <c r="F79" s="3">
-        <v>0.55944682333505236</v>
+        <v>0.67015170146340231</v>
       </c>
       <c r="G79" s="3">
-        <v>0.43176353386750765</v>
+        <v>0.5689121234615615</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.44594422865890432</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="5"/>
@@ -5854,22 +6215,25 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.96620487473262917</v>
+        <v>0.98459853001842867</v>
       </c>
       <c r="C80" s="3">
-        <v>0.92790846285337381</v>
+        <v>0.97596310983995505</v>
       </c>
       <c r="D80" s="3">
-        <v>0.84737120202459337</v>
+        <v>0.94295594894991885</v>
       </c>
       <c r="E80" s="3">
-        <v>0.76851768706166657</v>
+        <v>0.86266575924687883</v>
       </c>
       <c r="F80" s="3">
-        <v>0.68961043192002225</v>
+        <v>0.78704344678144478</v>
       </c>
       <c r="G80" s="3">
-        <v>0.56319946728255177</v>
+        <v>0.70136424795267127</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.58192689071214376</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="5"/>
@@ -5880,22 +6244,25 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.97468892327879053</v>
+        <v>0.98915978547110739</v>
       </c>
       <c r="C81" s="3">
-        <v>0.94902990324483871</v>
+        <v>0.98466938884564836</v>
       </c>
       <c r="D81" s="3">
-        <v>0.90284548046977109</v>
+        <v>0.9644373362291272</v>
       </c>
       <c r="E81" s="3">
-        <v>0.84881157291929255</v>
+        <v>0.9192556350569191</v>
       </c>
       <c r="F81" s="3">
-        <v>0.78805526302556017</v>
+        <v>0.86936695922729101</v>
       </c>
       <c r="G81" s="3">
-        <v>0.66972826654241668</v>
+        <v>0.80158759350274145</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.69226602939332427</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="5"/>
@@ -5906,22 +6273,25 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98686853439080457</v>
+        <v>0.99376825479931552</v>
       </c>
       <c r="C82" s="3">
-        <v>0.97052726424560465</v>
+        <v>0.99709800811382332</v>
       </c>
       <c r="D82" s="3">
-        <v>0.96530698714403607</v>
+        <v>0.98628187125295064</v>
       </c>
       <c r="E82" s="3">
-        <v>0.93637418327013067</v>
+        <v>0.9829927111057003</v>
       </c>
       <c r="F82" s="3">
-        <v>0.91607146155828689</v>
+        <v>0.9591722427759215</v>
       </c>
       <c r="G82" s="3">
-        <v>0.84402076064690967</v>
+        <v>0.93191468988934356</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.87276086904007177</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="5"/>
@@ -5932,22 +6302,25 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.9919724656812392</v>
+        <v>0.99421487473855608</v>
       </c>
       <c r="C83" s="3">
-        <v>0.9863280382649352</v>
+        <v>1.0023904975117173</v>
       </c>
       <c r="D83" s="3">
-        <v>0.97988467677626512</v>
+        <v>1.0023517029500031</v>
       </c>
       <c r="E83" s="3">
-        <v>0.96964846475943056</v>
+        <v>0.99796012643449483</v>
       </c>
       <c r="F83" s="3">
-        <v>0.96747258693624438</v>
+        <v>0.99334873410821489</v>
       </c>
       <c r="G83" s="3">
-        <v>0.94316756687467618</v>
+        <v>0.98433953726465495</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.97565884116647206</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="5"/>
@@ -5958,22 +6331,25 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.98937678399432405</v>
+        <v>0.99994674327813726</v>
       </c>
       <c r="C84" s="3">
-        <v>0.98399866952306159</v>
+        <v>0.99987200444366642</v>
       </c>
       <c r="D84" s="3">
-        <v>0.98164419563848226</v>
+        <v>0.99998550285945209</v>
       </c>
       <c r="E84" s="3">
-        <v>0.9759324234662754</v>
+        <v>0.99986549602083807</v>
       </c>
       <c r="F84" s="3">
-        <v>0.98261546672055466</v>
+        <v>0.99989509380210628</v>
       </c>
       <c r="G84" s="3">
-        <v>0.96594581235841748</v>
+        <v>0.99987036593037448</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0.99961181613615557</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="5"/>
@@ -7206,7 +7582,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7250,15 +7626,15 @@
       <c r="B3" s="14">
         <v>3.5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -7276,15 +7652,15 @@
       <c r="B4" s="14">
         <v>1.9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -7301,8 +7677,8 @@
       <c r="B5" s="22">
         <v>1.1702999999999999</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7319,8 +7695,8 @@
       <c r="B6" s="22">
         <v>5.5E-2</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -7337,8 +7713,8 @@
       <c r="B7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -7352,8 +7728,8 @@
       <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -7367,22 +7743,22 @@
       <c r="B9" s="22">
         <v>0.95</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="22">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>22</v>
@@ -7401,32 +7777,32 @@
       <c r="B11" s="22">
         <v>61</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="22">
-        <v>6</v>
-      </c>
-      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -7435,15 +7811,15 @@
       <c r="B13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -7500,36 +7876,36 @@
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -7545,25 +7921,27 @@
       <c r="A23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="24">
         <v>0.6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="D23" s="10">
         <v>0.9</v>
       </c>
-      <c r="D23" s="10">
+      <c r="E23" s="10">
         <v>1.5</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>2.7</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>4</v>
       </c>
-      <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -7579,22 +7957,25 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.98959602283722625</v>
+        <v>0.99994330629983885</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98814770166887178</v>
+        <v>0.99992204660555739</v>
       </c>
       <c r="D24" s="3">
-        <v>0.96632505957540282</v>
+        <v>1.0000351768697824</v>
       </c>
       <c r="E24" s="3">
-        <v>0.94632038074743274</v>
+        <v>0.99980324364686501</v>
       </c>
       <c r="F24" s="3">
-        <v>0.91467912722924671</v>
+        <v>0.99996909600561279</v>
       </c>
       <c r="G24" s="3">
-        <v>0.84506791179656571</v>
+        <v>0.9999356245720018</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.99985680923680353</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="5"/>
@@ -7605,22 +7986,25 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.99304216938995005</v>
+        <v>1.0058518974216561</v>
       </c>
       <c r="C25" s="3">
-        <v>0.97836470690825439</v>
+        <v>1.0033921907194709</v>
       </c>
       <c r="D25" s="3">
-        <v>0.94957577034483154</v>
+        <v>0.99018310732739678</v>
       </c>
       <c r="E25" s="3">
-        <v>0.90671021426366405</v>
+        <v>0.98227785067661877</v>
       </c>
       <c r="F25" s="3">
-        <v>0.87111242374636155</v>
+        <v>0.96527698997655631</v>
       </c>
       <c r="G25" s="3">
-        <v>0.76988610007552383</v>
+        <v>0.95223277895212122</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.91084580745706245</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="5"/>
@@ -7631,22 +8015,25 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.98143671563299806</v>
+        <v>0.99942676850221535</v>
       </c>
       <c r="C26" s="3">
-        <v>0.95846323049818805</v>
+        <v>0.99154768514532243</v>
       </c>
       <c r="D26" s="3">
-        <v>0.91210456749095759</v>
+        <v>0.97010889961209656</v>
       </c>
       <c r="E26" s="3">
-        <v>0.86570859110766307</v>
+        <v>0.94333478775203961</v>
       </c>
       <c r="F26" s="3">
-        <v>0.80110411437536344</v>
+        <v>0.91752440891061382</v>
       </c>
       <c r="G26" s="3">
-        <v>0.67780296718167565</v>
+        <v>0.87577510602439212</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.80173563266459913</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="5"/>
@@ -7657,22 +8044,25 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.96010170689467433</v>
+        <v>0.99866518262809034</v>
       </c>
       <c r="C27" s="3">
-        <v>0.93105870462631324</v>
+        <v>0.96998639115077379</v>
       </c>
       <c r="D27" s="3">
-        <v>0.87536318304862137</v>
+        <v>0.94241214274778362</v>
       </c>
       <c r="E27" s="3">
-        <v>0.8002736544791923</v>
+        <v>0.90516682138253324</v>
       </c>
       <c r="F27" s="3">
-        <v>0.7117797682551571</v>
+        <v>0.84774957093210057</v>
       </c>
       <c r="G27" s="3">
-        <v>0.58776223998062349</v>
+        <v>0.77806763790136091</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.69508733014423063</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="5"/>
@@ -7683,22 +8073,25 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.97239381305412698</v>
+        <v>1.0072399092020441</v>
       </c>
       <c r="C28" s="3">
-        <v>0.92997773146495422</v>
+        <v>0.98222074549717808</v>
       </c>
       <c r="D28" s="3">
-        <v>0.83299902734817488</v>
+        <v>0.94132650876592983</v>
       </c>
       <c r="E28" s="3">
-        <v>0.74397070949554966</v>
+        <v>0.86118129125400789</v>
       </c>
       <c r="F28" s="3">
-        <v>0.65733567951089911</v>
+        <v>0.79371350208715807</v>
       </c>
       <c r="G28" s="3">
-        <v>0.53643662139254944</v>
+        <v>0.71837611641664267</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.63438871228173033</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="5"/>
@@ -7709,22 +8102,25 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.93848910079404868</v>
+        <v>0.99757788823109173</v>
       </c>
       <c r="C29" s="3">
-        <v>0.88264699778771127</v>
+        <v>0.94797255809635217</v>
       </c>
       <c r="D29" s="3">
-        <v>0.75643499427076966</v>
+        <v>0.89343625774270186</v>
       </c>
       <c r="E29" s="3">
-        <v>0.65287892897344713</v>
+        <v>0.781895710766639</v>
       </c>
       <c r="F29" s="3">
-        <v>0.55869856080619784</v>
+        <v>0.6984459187996982</v>
       </c>
       <c r="G29" s="3">
-        <v>0.43818301137126281</v>
+        <v>0.61063898600851663</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.5181582060778005</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="5"/>
@@ -7735,22 +8131,25 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.88946398868502863</v>
+        <v>0.9729543108856229</v>
       </c>
       <c r="C30" s="3">
-        <v>0.8275139330788015</v>
+        <v>0.89836942221988225</v>
       </c>
       <c r="D30" s="3">
-        <v>0.67252087330959043</v>
+        <v>0.83765147173659615</v>
       </c>
       <c r="E30" s="3">
-        <v>0.57925839148829661</v>
+        <v>0.69498970630634105</v>
       </c>
       <c r="F30" s="3">
-        <v>0.48187848064292799</v>
+        <v>0.61473824486679984</v>
       </c>
       <c r="G30" s="3">
-        <v>0.36126347637592054</v>
+        <v>0.52671457134877531</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.42708801569278843</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="5"/>
@@ -7761,22 +8160,25 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.89603449486895337</v>
+        <v>0.98105603275450393</v>
       </c>
       <c r="C31" s="3">
-        <v>0.82102357061019504</v>
+        <v>0.90501346061407983</v>
       </c>
       <c r="D31" s="3">
-        <v>0.67795765425139187</v>
+        <v>0.83113481833993363</v>
       </c>
       <c r="E31" s="3">
-        <v>0.57525745370197134</v>
+        <v>0.70048739187906106</v>
       </c>
       <c r="F31" s="3">
-        <v>0.47205607918143377</v>
+        <v>0.6093342613849192</v>
       </c>
       <c r="G31" s="3">
-        <v>0.3549644673491319</v>
+        <v>0.51578119824588176</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.41961306514125979</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="5"/>
@@ -7787,22 +8189,25 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.90472334786093278</v>
+        <v>0.97824094756111168</v>
       </c>
       <c r="C32" s="3">
-        <v>0.81989575323928099</v>
+        <v>0.91364300587649605</v>
       </c>
       <c r="D32" s="3">
-        <v>0.65857100718455197</v>
+        <v>0.83003572361963962</v>
       </c>
       <c r="E32" s="3">
-        <v>0.56202750223239095</v>
+        <v>0.68030211677473074</v>
       </c>
       <c r="F32" s="3">
-        <v>0.47096085472219179</v>
+        <v>0.60230589823906611</v>
       </c>
       <c r="G32" s="3">
-        <v>0.3486654583223433</v>
+        <v>0.51464941509161433</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.41213811458973115</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="5"/>
@@ -7813,22 +8218,25 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.88973423412343744</v>
+        <v>0.97086873985562983</v>
       </c>
       <c r="C33" s="3">
-        <v>0.80303089261753835</v>
+        <v>0.89839519366605169</v>
       </c>
       <c r="D33" s="3">
-        <v>0.65122752048611388</v>
+        <v>0.81300157858054711</v>
       </c>
       <c r="E33" s="3">
-        <v>0.55684205715350032</v>
+        <v>0.67260085771000233</v>
       </c>
       <c r="F33" s="3">
-        <v>0.46372144107364716</v>
+        <v>0.59670519451097748</v>
       </c>
       <c r="G33" s="3">
-        <v>0.33978591223095711</v>
+        <v>0.50672928301953268</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.40157292184889259</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="5"/>
@@ -7839,22 +8247,25 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.88516031284099794</v>
+        <v>0.97313312380173234</v>
       </c>
       <c r="C34" s="3">
-        <v>0.79545701686990378</v>
+        <v>0.893708506825452</v>
       </c>
       <c r="D34" s="3">
-        <v>0.6426667727057358</v>
+        <v>0.80536428395408821</v>
       </c>
       <c r="E34" s="3">
-        <v>0.53954668158191277</v>
+        <v>0.66363464864919619</v>
       </c>
       <c r="F34" s="3">
-        <v>0.45349103013685349</v>
+        <v>0.57598685781149728</v>
       </c>
       <c r="G34" s="3">
-        <v>0.33090636613957097</v>
+        <v>0.49550613587532921</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.39100772910805398</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="5"/>
@@ -7865,22 +8276,25 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.88354116233149116</v>
+        <v>0.96420152637278778</v>
       </c>
       <c r="C35" s="3">
-        <v>0.79475896709437099</v>
+        <v>0.89201102536857546</v>
       </c>
       <c r="D35" s="3">
-        <v>0.64084431378382911</v>
+        <v>0.80460335766980351</v>
       </c>
       <c r="E35" s="3">
-        <v>0.54180655346228068</v>
+        <v>0.66160992374367733</v>
       </c>
       <c r="F35" s="3">
-        <v>0.44037779911042391</v>
+        <v>0.57465841937703876</v>
       </c>
       <c r="G35" s="3">
-        <v>0.32037441386323251</v>
+        <v>0.48112715084555735</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.37856468505964086</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="5"/>
@@ -7891,22 +8305,25 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.86388140183282391</v>
+        <v>0.9674657193899715</v>
       </c>
       <c r="C36" s="3">
-        <v>0.77312915555972761</v>
+        <v>0.87214855919751533</v>
       </c>
       <c r="D36" s="3">
-        <v>0.62589530124256454</v>
+        <v>0.78278841193808879</v>
       </c>
       <c r="E36" s="3">
-        <v>0.51808500054457685</v>
+        <v>0.64604963150125982</v>
       </c>
       <c r="F36" s="3">
-        <v>0.43453771485352671</v>
+        <v>0.54408093086303955</v>
       </c>
       <c r="G36" s="3">
-        <v>0.3098424615868941</v>
+        <v>0.47473530210255577</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.36612164101122774</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="5"/>
@@ -7917,22 +8334,25 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.86860140660296103</v>
+        <v>0.96429432637797985</v>
       </c>
       <c r="C37" s="3">
-        <v>0.77872162051525429</v>
+        <v>0.87684745950776199</v>
       </c>
       <c r="D37" s="3">
-        <v>0.61975575588190224</v>
+        <v>0.7884791968745235</v>
       </c>
       <c r="E37" s="3">
-        <v>0.51656746318722191</v>
+        <v>0.6395814170180627</v>
       </c>
       <c r="F37" s="3">
-        <v>0.4172115556271645</v>
+        <v>0.55100061990273141</v>
       </c>
       <c r="G37" s="3">
-        <v>0.30182725213849765</v>
+        <v>0.45576864306950771</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.35662159722556119</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="5"/>
@@ -7943,22 +8363,25 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.8577857119551433</v>
+        <v>0.96005260918341173</v>
       </c>
       <c r="C38" s="3">
-        <v>0.76788336063415374</v>
+        <v>0.86584876714243519</v>
       </c>
       <c r="D38" s="3">
-        <v>0.61488360624385852</v>
+        <v>0.77759556202865943</v>
       </c>
       <c r="E38" s="3">
-        <v>0.50650029939656105</v>
+        <v>0.6344093482450035</v>
       </c>
       <c r="F38" s="3">
-        <v>0.41230384407067266</v>
+        <v>0.53893274560701654</v>
       </c>
       <c r="G38" s="3">
-        <v>0.29381204269010119</v>
+        <v>0.45030944475240975</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.34712155343989459</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="5"/>
@@ -7969,22 +8392,25 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.85322902532195299</v>
+        <v>0.95082915422869907</v>
       </c>
       <c r="C39" s="3">
-        <v>0.76005744306491752</v>
+        <v>0.86118524632114501</v>
       </c>
       <c r="D39" s="3">
-        <v>0.59895435303621236</v>
+        <v>0.76964152113338735</v>
       </c>
       <c r="E39" s="3">
-        <v>0.50257537443887512</v>
+        <v>0.61789148677844119</v>
       </c>
       <c r="F39" s="3">
-        <v>0.39398208630097298</v>
+        <v>0.53676000629499998</v>
       </c>
       <c r="G39" s="3">
-        <v>0.27836043649999997</v>
+        <v>0.43030384897377838</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.32886062082272699</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="5"/>
@@ -7995,22 +8421,25 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.83830154190392392</v>
+        <v>0.94816961155798218</v>
       </c>
       <c r="C40" s="3">
-        <v>0.7540836574927503</v>
+        <v>0.84603700275584326</v>
       </c>
       <c r="D40" s="3">
-        <v>0.59010217832222189</v>
+        <v>0.76360700338726462</v>
       </c>
       <c r="E40" s="3">
-        <v>0.48856074518564574</v>
+        <v>0.60865056129703554</v>
       </c>
       <c r="F40" s="3">
-        <v>0.38723058909799246</v>
+        <v>0.52010553742992749</v>
       </c>
       <c r="G40" s="3">
-        <v>0.26290883030989876</v>
+        <v>0.42290517549851497</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.31059968820555939</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="5"/>
@@ -8021,22 +8450,25 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.83952550647370328</v>
+        <v>0.93863811976444067</v>
       </c>
       <c r="C41" s="3">
-        <v>0.74197474863884139</v>
+        <v>0.8471905942725777</v>
       </c>
       <c r="D41" s="3">
-        <v>0.57278839542519899</v>
+        <v>0.75141637876967826</v>
       </c>
       <c r="E41" s="3">
-        <v>0.47044838837622649</v>
+        <v>0.5906468038310605</v>
       </c>
       <c r="F41" s="3">
-        <v>0.36792319088532005</v>
+        <v>0.49732758944038857</v>
       </c>
       <c r="G41" s="3">
-        <v>0.25035871464612913</v>
+        <v>0.40176548411221424</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.29573163782482215</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="5"/>
@@ -8047,22 +8479,25 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.83431115340668704</v>
+        <v>0.94752871196696897</v>
       </c>
       <c r="C42" s="3">
-        <v>0.72909856700244813</v>
+        <v>0.84179047621371372</v>
       </c>
       <c r="D42" s="3">
-        <v>0.56051598430247263</v>
+        <v>0.73836149769008563</v>
       </c>
       <c r="E42" s="3">
-        <v>0.45524944371491893</v>
+        <v>0.57790751886128522</v>
       </c>
       <c r="F42" s="3">
-        <v>0.35689939504685581</v>
+        <v>0.48309223484805142</v>
       </c>
       <c r="G42" s="3">
-        <v>0.23780859898235945</v>
+        <v>0.38973900301724301</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.28086358744408491</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="5"/>
@@ -8073,22 +8508,25 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.8278560970548875</v>
+        <v>0.93504273250222902</v>
       </c>
       <c r="C43" s="3">
-        <v>0.71907503471390266</v>
+        <v>0.83528874317944879</v>
       </c>
       <c r="D43" s="3">
-        <v>0.54278790900203733</v>
+        <v>0.72823160527170117</v>
       </c>
       <c r="E43" s="3">
-        <v>0.42685344678136367</v>
+        <v>0.5595076828181399</v>
       </c>
       <c r="F43" s="3">
-        <v>0.32399290022101573</v>
+        <v>0.45487278021063193</v>
       </c>
       <c r="G43" s="3">
-        <v>0.22286730039082742</v>
+        <v>0.35374469960830046</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.26322506314306549</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="5"/>
@@ -8099,22 +8537,25 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.82162125653387064</v>
+        <v>0.94187255970178707</v>
       </c>
       <c r="C44" s="3">
-        <v>0.7069538095979695</v>
+        <v>0.8288680135471781</v>
       </c>
       <c r="D44" s="3">
-        <v>0.52376715275757224</v>
+        <v>0.71597400596384531</v>
       </c>
       <c r="E44" s="3">
-        <v>0.41039248902737546</v>
+        <v>0.53978925855148385</v>
       </c>
       <c r="F44" s="3">
-        <v>0.31102421838518229</v>
+        <v>0.43502217353439737</v>
       </c>
       <c r="G44" s="3">
-        <v>0.20792600179929541</v>
+        <v>0.33960834330019918</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.24558653884204601</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="5"/>
@@ -8125,22 +8566,25 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.81945254498219544</v>
+        <v>0.93693911749151004</v>
       </c>
       <c r="C45" s="3">
-        <v>0.69195132554259275</v>
+        <v>0.82669234087894228</v>
       </c>
       <c r="D45" s="3">
-        <v>0.50547267991022216</v>
+        <v>0.70083715791627132</v>
       </c>
       <c r="E45" s="3">
-        <v>0.3794331783387716</v>
+        <v>0.52081196838689503</v>
       </c>
       <c r="F45" s="3">
-        <v>0.28905264998516295</v>
+        <v>0.40736611636413378</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1893514336013388</v>
+        <v>0.31559757989056542</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.22362323931755837</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="5"/>
@@ -8151,22 +8595,25 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.80706682360104876</v>
+        <v>0.94194756879125541</v>
       </c>
       <c r="C46" s="3">
-        <v>0.67584142753025866</v>
+        <v>0.81416871480948216</v>
       </c>
       <c r="D46" s="3">
-        <v>0.46753706536697126</v>
+        <v>0.68457678584969117</v>
       </c>
       <c r="E46" s="3">
-        <v>0.35615486254932555</v>
+        <v>0.48164542746117539</v>
       </c>
       <c r="F46" s="3">
-        <v>0.25852926975051727</v>
+        <v>0.37305358906339697</v>
       </c>
       <c r="G46" s="3">
-        <v>0.17077686540338219</v>
+        <v>0.282149306569423</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.20165993979307073</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="5"/>
@@ -8177,22 +8624,25 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.78473389567932483</v>
+        <v>0.92706366953611996</v>
       </c>
       <c r="C47" s="3">
-        <v>0.64102683012472639</v>
+        <v>0.79158039486525822</v>
       </c>
       <c r="D47" s="3">
-        <v>0.4309062761278567</v>
+        <v>0.6493034785080829</v>
       </c>
       <c r="E47" s="3">
-        <v>0.31987509838487899</v>
+        <v>0.4438380770814655</v>
       </c>
       <c r="F47" s="3">
-        <v>0.23018811150801047</v>
+        <v>0.33468653708387375</v>
       </c>
       <c r="G47" s="3">
-        <v>0.14975862641204696</v>
+        <v>0.25128253308777349</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.17682113321651188</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="5"/>
@@ -8203,22 +8653,25 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.76575881815585722</v>
+        <v>0.93248878256780976</v>
       </c>
       <c r="C48" s="3">
-        <v>0.61462611881947515</v>
+        <v>0.77233317251471512</v>
       </c>
       <c r="D48" s="3">
-        <v>0.40272154204746746</v>
+        <v>0.62259795074291535</v>
       </c>
       <c r="E48" s="3">
-        <v>0.27554913783939261</v>
+        <v>0.41471408593550962</v>
       </c>
       <c r="F48" s="3">
-        <v>0.19759353185048811</v>
+        <v>0.28990463509343156</v>
       </c>
       <c r="G48" s="3">
-        <v>0.12874038742071173</v>
+        <v>0.21562019828317885</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.15198232663995304</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="5"/>
@@ -8229,22 +8682,25 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.72512820439338577</v>
+        <v>0.89562693681304806</v>
       </c>
       <c r="C49" s="3">
-        <v>0.55521576664655869</v>
+        <v>0.73129706741039846</v>
       </c>
       <c r="D49" s="3">
-        <v>0.3331156048402838</v>
+        <v>0.56240825816609885</v>
       </c>
       <c r="E49" s="3">
-        <v>0.24002350534353517</v>
+        <v>0.34298116448934191</v>
       </c>
       <c r="F49" s="3">
-        <v>0.16634859594088933</v>
+        <v>0.24805709262265602</v>
       </c>
       <c r="G49" s="3">
-        <v>0.10847822406903591</v>
+        <v>0.18156012923095194</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.12805361424624234</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="5"/>
@@ -8255,22 +8711,25 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.66539876055823899</v>
+        <v>0.88758939618254173</v>
       </c>
       <c r="C50" s="3">
-        <v>0.47300240503498064</v>
+        <v>0.67107527294943992</v>
       </c>
       <c r="D50" s="3">
-        <v>0.27901319344718795</v>
+        <v>0.47920911107985625</v>
       </c>
       <c r="E50" s="3">
-        <v>0.19701290375711583</v>
+        <v>0.28718370768715124</v>
       </c>
       <c r="F50" s="3">
-        <v>0.13849462506903182</v>
+        <v>0.20567216965155366</v>
       </c>
       <c r="G50" s="3">
-        <v>8.8216060717360101E-2</v>
+        <v>0.15114259914248299</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.10412490185253162</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="5"/>
@@ -8281,22 +8740,25 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.56791175708366715</v>
+        <v>0.83604397506080885</v>
       </c>
       <c r="C51" s="3">
-        <v>0.38043931846973505</v>
+        <v>0.57266527724417893</v>
       </c>
       <c r="D51" s="3">
-        <v>0.20565248169360673</v>
+        <v>0.38543330069895604</v>
       </c>
       <c r="E51" s="3">
-        <v>0.14642262333524866</v>
+        <v>0.21166487314110577</v>
       </c>
       <c r="F51" s="3">
-        <v>0.1070600803154728</v>
+        <v>0.15551759477580318</v>
       </c>
       <c r="G51" s="3">
-        <v>7.5651470705485196E-2</v>
+        <v>0.11685769717205827</v>
+      </c>
+      <c r="H51" s="3">
+        <v>8.9281195294626192E-2</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="5"/>
@@ -8307,22 +8769,25 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.38324176118916586</v>
+        <v>0.70545259876895294</v>
       </c>
       <c r="C52" s="3">
-        <v>0.24049145130335414</v>
+        <v>0.38638545910171213</v>
       </c>
       <c r="D52" s="3">
-        <v>0.13359617664038342</v>
+        <v>0.24362363707755083</v>
       </c>
       <c r="E52" s="3">
-        <v>9.8167284792762127E-2</v>
+        <v>0.13746491938353492</v>
       </c>
       <c r="F52" s="3">
-        <v>8.2327511027486922E-2</v>
+        <v>0.10376327367221637</v>
       </c>
       <c r="G52" s="3">
-        <v>6.3086880693610292E-2</v>
+        <v>8.9760029802758989E-2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7.4437488736720778E-2</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="5"/>
@@ -8333,22 +8798,25 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.17390191005326869</v>
+        <v>0.39267377895153938</v>
       </c>
       <c r="C53" s="3">
-        <v>0.11678383401218158</v>
+        <v>0.17531345243395424</v>
       </c>
       <c r="D53" s="3">
-        <v>7.860179805768798E-2</v>
+        <v>0.11833412931208188</v>
       </c>
       <c r="E53" s="3">
-        <v>7.176084404842753E-2</v>
+        <v>8.0842616629351299E-2</v>
       </c>
       <c r="F53" s="3">
-        <v>7.2389037256076136E-2</v>
+        <v>7.9635156710901017E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>5.6573474944373939E-2</v>
+        <v>7.8922531187514966E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>6.6718545587069411E-2</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="5"/>
@@ -8359,22 +8827,25 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>6.8101407198903841E-2</v>
+        <v>6.8304792650649496E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>5.9896277211644894E-2</v>
+        <v>6.8660211225851281E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>5.7448094926394862E-2</v>
+        <v>6.0608446583121769E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>5.9455457847600826E-2</v>
+        <v>5.9106404801925652E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>5.2364088979851509E-2</v>
+        <v>6.1674113099501826E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>5.0060069195137592E-2</v>
+        <v>5.7139377489669844E-2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5.8999602437418058E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="5"/>
@@ -8385,22 +8856,25 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.19720064381411284</v>
+        <v>0.45054436486721444</v>
       </c>
       <c r="C55" s="3">
-        <v>0.13161960513546891</v>
+        <v>0.19884427902775997</v>
       </c>
       <c r="D55" s="3">
-        <v>8.5670748800488042E-2</v>
+        <v>0.13329819052554631</v>
       </c>
       <c r="E55" s="3">
-        <v>7.3716170757209487E-2</v>
+        <v>8.8110675334308122E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>6.8925347266744819E-2</v>
+        <v>7.7482727585503397E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>5.6976521717710046E-2</v>
+        <v>7.508895015757186E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6.7201872536235746E-2</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="5"/>
@@ -8411,22 +8885,25 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.424902164843034</v>
+        <v>0.73947623027881282</v>
       </c>
       <c r="C56" s="3">
-        <v>0.26247672989361609</v>
+        <v>0.4283135060262106</v>
       </c>
       <c r="D56" s="3">
-        <v>0.1479112805969969</v>
+        <v>0.26590660569295183</v>
       </c>
       <c r="E56" s="3">
-        <v>0.1078256648578419</v>
+        <v>0.15210752162660088</v>
       </c>
       <c r="F56" s="3">
-        <v>9.1879613286928841E-2</v>
+        <v>0.11074852969167534</v>
       </c>
       <c r="G56" s="3">
-        <v>6.3892974240282507E-2</v>
+        <v>0.10016249214752007</v>
+      </c>
+      <c r="H56" s="3">
+        <v>7.5404142635053434E-2</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="5"/>
@@ -8437,22 +8914,25 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.58806103632355811</v>
+        <v>0.86066993459545926</v>
       </c>
       <c r="C57" s="3">
-        <v>0.39234553734162353</v>
+        <v>0.59272245751698838</v>
       </c>
       <c r="D57" s="3">
-        <v>0.21151104891101374</v>
+        <v>0.39746243347514693</v>
       </c>
       <c r="E57" s="3">
-        <v>0.14571042126056924</v>
+        <v>0.21741912069513966</v>
       </c>
       <c r="F57" s="3">
-        <v>0.10716420345180695</v>
+        <v>0.14826268315880561</v>
       </c>
       <c r="G57" s="3">
-        <v>8.1130338831644486E-2</v>
+        <v>0.1169160993691936</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9.571587033157343E-2</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="5"/>
@@ -8463,22 +8943,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.68565355964434715</v>
+        <v>0.9060135338905968</v>
       </c>
       <c r="C58" s="3">
-        <v>0.49502644458029499</v>
+        <v>0.69102217607708394</v>
       </c>
       <c r="D58" s="3">
-        <v>0.27849835150869934</v>
+        <v>0.50153807008111173</v>
       </c>
       <c r="E58" s="3">
-        <v>0.18266038937905216</v>
+        <v>0.28625196336096964</v>
       </c>
       <c r="F58" s="3">
-        <v>0.14278254842482013</v>
+        <v>0.19087127028640027</v>
       </c>
       <c r="G58" s="3">
-        <v>9.8367703423006464E-2</v>
+        <v>0.15572720770392473</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.11602759802809343</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="5"/>
@@ -8489,22 +8972,25 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.74568720017719869</v>
+        <v>0.92143444067439662</v>
       </c>
       <c r="C59" s="3">
-        <v>0.56799475314803183</v>
+        <v>0.75146161527066502</v>
       </c>
       <c r="D59" s="3">
-        <v>0.34233563489925939</v>
+        <v>0.57547003630625848</v>
       </c>
       <c r="E59" s="3">
-        <v>0.23226200324812687</v>
+        <v>0.3517929681605147</v>
       </c>
       <c r="F59" s="3">
-        <v>0.17066864185287045</v>
+        <v>0.24530374647278422</v>
       </c>
       <c r="G59" s="3">
-        <v>0.11618091659208417</v>
+        <v>0.18607660434750878</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.13703736244325604</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="5"/>
@@ -8515,22 +9001,25 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.78643540749211038</v>
+        <v>0.94414128418983978</v>
       </c>
       <c r="C60" s="3">
-        <v>0.62177882156078246</v>
+        <v>0.79245302245445193</v>
       </c>
       <c r="D60" s="3">
-        <v>0.39165733612498305</v>
+        <v>0.63010263978507197</v>
       </c>
       <c r="E60" s="3">
-        <v>0.27732467800190558</v>
+        <v>0.4023916798056475</v>
       </c>
       <c r="F60" s="3">
-        <v>0.18699223486975119</v>
+        <v>0.29379685477009843</v>
       </c>
       <c r="G60" s="3">
-        <v>0.13399412976116187</v>
+        <v>0.2039417700108585</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.15804712685841865</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="5"/>
@@ -8541,22 +9030,25 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.81294762223686745</v>
+        <v>0.94294098312804553</v>
       </c>
       <c r="C61" s="3">
-        <v>0.6645051235595224</v>
+        <v>0.81909464753312955</v>
       </c>
       <c r="D61" s="3">
-        <v>0.43158222690350379</v>
+        <v>0.67335488473196503</v>
       </c>
       <c r="E61" s="3">
-        <v>0.31331245125046797</v>
+        <v>0.44328995084939027</v>
       </c>
       <c r="F61" s="3">
-        <v>0.22208743173180484</v>
+        <v>0.33265910800233178</v>
       </c>
       <c r="G61" s="3">
-        <v>0.14521182240042826</v>
+        <v>0.24229853864319134</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.17125948039614347</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="5"/>
@@ -8567,22 +9059,25 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.8260187026502106</v>
+        <v>0.9564580531715916</v>
       </c>
       <c r="C62" s="3">
-        <v>0.69797783184062157</v>
+        <v>0.83224101734527389</v>
       </c>
       <c r="D62" s="3">
-        <v>0.47642165972766909</v>
+        <v>0.70733527082303094</v>
       </c>
       <c r="E62" s="3">
-        <v>0.34759522489477063</v>
+        <v>0.48930200111674482</v>
       </c>
       <c r="F62" s="3">
-        <v>0.25460715374442033</v>
+        <v>0.36616907932401932</v>
       </c>
       <c r="G62" s="3">
-        <v>0.15642951503969466</v>
+        <v>0.27763938717498549</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.18447183393386826</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="5"/>
@@ -8593,22 +9088,25 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.84368710732405627</v>
+        <v>0.94900313670250047</v>
       </c>
       <c r="C63" s="3">
-        <v>0.71136938412121209</v>
+        <v>0.84994711386481714</v>
       </c>
       <c r="D63" s="3">
-        <v>0.50383327808317691</v>
+        <v>0.7209047470747405</v>
       </c>
       <c r="E63" s="3">
-        <v>0.37944913483608339</v>
+        <v>0.51730355134239336</v>
       </c>
       <c r="F63" s="3">
-        <v>0.27317774509683768</v>
+        <v>0.40073612456882352</v>
       </c>
       <c r="G63" s="3">
-        <v>0.17673134136728275</v>
+        <v>0.29793609328784187</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.20840936066352961</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="5"/>
@@ -8619,22 +9117,25 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.8429708009276784</v>
+        <v>0.96046630324245752</v>
       </c>
       <c r="C64" s="3">
-        <v>0.73583061472876843</v>
+        <v>0.84921670448297382</v>
       </c>
       <c r="D64" s="3">
-        <v>0.53488256576106186</v>
+        <v>0.74574706362171528</v>
       </c>
       <c r="E64" s="3">
-        <v>0.40806413923513363</v>
+        <v>0.54911309964425747</v>
       </c>
       <c r="F64" s="3">
-        <v>0.30919706132624641</v>
+        <v>0.43154095632121947</v>
       </c>
       <c r="G64" s="3">
-        <v>0.19703316769487081</v>
+        <v>0.33717295162489164</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.23234688739319098</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="5"/>
@@ -8645,22 +9146,25 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.86668378100857213</v>
+        <v>0.96596141308616157</v>
       </c>
       <c r="C65" s="3">
-        <v>0.75100999938714086</v>
+        <v>0.87301726862925366</v>
       </c>
       <c r="D65" s="3">
-        <v>0.55351788555440617</v>
+        <v>0.76115928261775778</v>
       </c>
       <c r="E65" s="3">
-        <v>0.43819602111326889</v>
+        <v>0.56811492003891517</v>
       </c>
       <c r="F65" s="3">
-        <v>0.32270202833863226</v>
+        <v>0.46477080915819424</v>
       </c>
       <c r="G65" s="3">
-        <v>0.21227886470617457</v>
+        <v>0.35181793835152592</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.25030905830652816</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="5"/>
@@ -8671,22 +9175,25 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.88037456674780512</v>
+        <v>0.96257431240243008</v>
       </c>
       <c r="C66" s="3">
-        <v>0.75830940034745953</v>
+        <v>0.88674192671924101</v>
       </c>
       <c r="D66" s="3">
-        <v>0.56724132457066956</v>
+        <v>0.768650905273212</v>
       </c>
       <c r="E66" s="3">
-        <v>0.4525336573845849</v>
+        <v>0.58208981200762977</v>
       </c>
       <c r="F66" s="3">
-        <v>0.34053565654384332</v>
+        <v>0.48084712675555702</v>
       </c>
       <c r="G66" s="3">
-        <v>0.22752456171747837</v>
+        <v>0.37133446177940388</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.2682712292198654</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="5"/>
@@ -8697,22 +9204,25 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.86911878011851462</v>
+        <v>0.96690537410332411</v>
       </c>
       <c r="C67" s="3">
-        <v>0.77346636200855012</v>
+        <v>0.87530872095974466</v>
       </c>
       <c r="D67" s="3">
-        <v>0.59089959925937474</v>
+        <v>0.78393521568139124</v>
       </c>
       <c r="E67" s="3">
-        <v>0.47690805330638397</v>
+        <v>0.60624994435010005</v>
       </c>
       <c r="F67" s="3">
-        <v>0.36192386386087405</v>
+        <v>0.50414128784777101</v>
       </c>
       <c r="G67" s="3">
-        <v>0.23943702386384919</v>
+        <v>0.39464425892836053</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.28227350155995234</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="5"/>
@@ -8723,22 +9233,25 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.88036704352304818</v>
+        <v>0.96557349945506465</v>
       </c>
       <c r="C68" s="3">
-        <v>0.79183506570364126</v>
+        <v>0.88656935313202045</v>
       </c>
       <c r="D68" s="3">
-        <v>0.61425999460663616</v>
+        <v>0.80267251147592678</v>
       </c>
       <c r="E68" s="3">
-        <v>0.49391257642783615</v>
+        <v>0.63009911040851518</v>
       </c>
       <c r="F68" s="3">
-        <v>0.372878263233551</v>
+        <v>0.52398231897547121</v>
       </c>
       <c r="G68" s="3">
-        <v>0.25134948601022</v>
+        <v>0.40653034641219737</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.29627577390003923</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="5"/>
@@ -8749,22 +9262,25 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.87953822571331042</v>
+        <v>0.97310008976233253</v>
       </c>
       <c r="C69" s="3">
-        <v>0.79492041887436393</v>
+        <v>0.88568119013774915</v>
       </c>
       <c r="D69" s="3">
-        <v>0.63143262999879191</v>
+        <v>0.80578585904065858</v>
       </c>
       <c r="E69" s="3">
-        <v>0.50733578623962072</v>
+        <v>0.6475748923850394</v>
       </c>
       <c r="F69" s="3">
-        <v>0.403310858655684</v>
+        <v>0.54135362023170397</v>
       </c>
       <c r="G69" s="3">
-        <v>0.26440428963304735</v>
+        <v>0.43963520729780875</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.31166662856778232</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="5"/>
@@ -8775,22 +9291,25 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.90246790928612286</v>
+        <v>0.96951700263046503</v>
       </c>
       <c r="C70" s="3">
-        <v>0.81389812911829629</v>
+        <v>0.90870946267332231</v>
       </c>
       <c r="D70" s="3">
-        <v>0.63728085148236735</v>
+        <v>0.82504161369518225</v>
       </c>
       <c r="E70" s="3">
-        <v>0.52121859509238322</v>
+        <v>0.65345128484831549</v>
       </c>
       <c r="F70" s="3">
-        <v>0.41011247244317528</v>
+        <v>0.55475415348000645</v>
       </c>
       <c r="G70" s="3">
-        <v>0.2774590932558747</v>
+        <v>0.447049687141228</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.32705748323552541</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="5"/>
@@ -8801,22 +9320,25 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.90619413436338292</v>
+        <v>0.97911563617595343</v>
       </c>
       <c r="C71" s="3">
-        <v>0.83205059003651616</v>
+        <v>0.91239788533507782</v>
       </c>
       <c r="D71" s="3">
-        <v>0.65920816026948048</v>
+        <v>0.84353344294451804</v>
       </c>
       <c r="E71" s="3">
-        <v>0.54736656854056143</v>
+        <v>0.67580708875677797</v>
       </c>
       <c r="F71" s="3">
-        <v>0.42136797482690597</v>
+        <v>0.58340895087602773</v>
       </c>
       <c r="G71" s="3">
-        <v>0.2899241351644129</v>
+        <v>0.45929559194841574</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.34172035621614938</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="5"/>
@@ -8827,22 +9349,25 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.90947278729942882</v>
+        <v>0.97859298298425657</v>
       </c>
       <c r="C72" s="3">
-        <v>0.82527318279047357</v>
+        <v>0.91561343496509484</v>
       </c>
       <c r="D72" s="3">
-        <v>0.67134493053239475</v>
+        <v>0.8366764801877713</v>
       </c>
       <c r="E72" s="3">
-        <v>0.55521370920370983</v>
+        <v>0.68810764556086346</v>
       </c>
       <c r="F72" s="3">
-        <v>0.43814923066817257</v>
+        <v>0.5847445079033311</v>
       </c>
       <c r="G72" s="3">
-        <v>0.3023891770729511</v>
+        <v>0.47768083975291592</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.3563832291967734</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="5"/>
@@ -8853,22 +9378,25 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.91210021494675497</v>
+        <v>0.9737053666276001</v>
       </c>
       <c r="C73" s="3">
-        <v>0.82604484187531446</v>
+        <v>0.91818355132318674</v>
       </c>
       <c r="D73" s="3">
-        <v>0.67391997085042299</v>
+        <v>0.8374974671089187</v>
       </c>
       <c r="E73" s="3">
-        <v>0.5586555354294187</v>
+        <v>0.69063115498315342</v>
       </c>
       <c r="F73" s="3">
-        <v>0.44158750996955154</v>
+        <v>0.59220229087332044</v>
       </c>
       <c r="G73" s="3">
-        <v>0.314335847234264</v>
+        <v>0.48131031587765016</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.37045729330993554</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="5"/>
@@ -8879,22 +9407,25 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.91027061162571177</v>
+        <v>0.98129388071470025</v>
       </c>
       <c r="C74" s="3">
-        <v>0.83546560734301778</v>
+        <v>0.91628516848875052</v>
       </c>
       <c r="D74" s="3">
-        <v>0.67724503147728721</v>
+        <v>0.84698319181500659</v>
       </c>
       <c r="E74" s="3">
-        <v>0.5748214917395732</v>
+        <v>0.6938853287252843</v>
       </c>
       <c r="F74" s="3">
-        <v>0.45715764420357985</v>
+        <v>0.61016559252892422</v>
       </c>
       <c r="G74" s="3">
-        <v>0.3262825173955769</v>
+        <v>0.49811722536216368</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.38453135742309769</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="5"/>
@@ -8905,22 +9436,25 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.91214757049099371</v>
+        <v>0.97716016998789945</v>
       </c>
       <c r="C75" s="3">
-        <v>0.8472907438271855</v>
+        <v>0.91810663559798156</v>
       </c>
       <c r="D75" s="3">
-        <v>0.69697446163656795</v>
+        <v>0.85908559185710098</v>
       </c>
       <c r="E75" s="3">
-        <v>0.58060749585918026</v>
+        <v>0.71397149442229724</v>
       </c>
       <c r="F75" s="3">
-        <v>0.46802537473488792</v>
+        <v>0.61496686388466104</v>
       </c>
       <c r="G75" s="3">
-        <v>0.33564129697409945</v>
+        <v>0.51002924096755553</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.39550495997394131</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="5"/>
@@ -8931,22 +9465,25 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.92174546280402325</v>
+        <v>0.97784395622997766</v>
       </c>
       <c r="C76" s="3">
-        <v>0.85362004847782857</v>
+        <v>0.92767104400611333</v>
       </c>
       <c r="D76" s="3">
-        <v>0.70642013895175626</v>
+        <v>0.86551888659635645</v>
       </c>
       <c r="E76" s="3">
-        <v>0.58592600155846997</v>
+        <v>0.72348865004271412</v>
       </c>
       <c r="F76" s="3">
-        <v>0.48845383738312331</v>
+        <v>0.62001833150657493</v>
       </c>
       <c r="G76" s="3">
-        <v>0.34500007655262199</v>
+        <v>0.53227460354453437</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.40647856252478498</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="5"/>
@@ -8957,22 +9494,25 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.9200088101031787</v>
+        <v>0.98140336342547907</v>
       </c>
       <c r="C77" s="3">
-        <v>0.85799384717129212</v>
+        <v>0.92588502830340835</v>
       </c>
       <c r="D77" s="3">
-        <v>0.70866780381509997</v>
+        <v>0.86999971959580269</v>
       </c>
       <c r="E77" s="3">
-        <v>0.59676695276431002</v>
+        <v>0.72564229292152338</v>
       </c>
       <c r="F77" s="3">
-        <v>0.49800711375793483</v>
+        <v>0.62994014419616029</v>
       </c>
       <c r="G77" s="3">
-        <v>0.35254097444469712</v>
+        <v>0.54260977684094081</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.41536614166300417</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="5"/>
@@ -8983,22 +9523,25 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.92247804930442101</v>
+        <v>0.982590252630966</v>
       </c>
       <c r="C78" s="3">
-        <v>0.86805578673598927</v>
+        <v>0.92829583355485501</v>
       </c>
       <c r="D78" s="3">
-        <v>0.7096860934077045</v>
+        <v>0.88025654825940181</v>
       </c>
       <c r="E78" s="3">
-        <v>0.60364101759018074</v>
+        <v>0.72655811335147058</v>
       </c>
       <c r="F78" s="3">
-        <v>0.49465725499531876</v>
+        <v>0.64033726426001714</v>
       </c>
       <c r="G78" s="3">
-        <v>0.36008187233677225</v>
+        <v>0.53894923441378761</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.42425372080122337</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="5"/>
@@ -9009,22 +9552,25 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.93982251337341638</v>
+        <v>0.98483097847773948</v>
       </c>
       <c r="C79" s="3">
-        <v>0.89805594125718757</v>
+        <v>0.94567561508928533</v>
       </c>
       <c r="D79" s="3">
-        <v>0.78044109807296747</v>
+        <v>0.9106671396811562</v>
       </c>
       <c r="E79" s="3">
-        <v>0.68989191624348778</v>
+        <v>0.79885111260864206</v>
       </c>
       <c r="F79" s="3">
-        <v>0.58102795790067041</v>
+        <v>0.73544081502026848</v>
       </c>
       <c r="G79" s="3">
-        <v>0.44620481891165265</v>
+        <v>0.63304071932809625</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.52563989568215641</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="5"/>
@@ -9035,22 +9581,25 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.95803239249525596</v>
+        <v>0.98958313514693508</v>
       </c>
       <c r="C80" s="3">
-        <v>0.93780478727224348</v>
+        <v>0.96392032990303256</v>
       </c>
       <c r="D80" s="3">
-        <v>0.84924557707247228</v>
+        <v>0.95104122534270963</v>
       </c>
       <c r="E80" s="3">
-        <v>0.77406041223602917</v>
+        <v>0.86911715754203112</v>
       </c>
       <c r="F80" s="3">
-        <v>0.67327246636522042</v>
+        <v>0.82411374832641948</v>
       </c>
       <c r="G80" s="3">
-        <v>0.54690371961273643</v>
+        <v>0.73346562985290609</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.6441510544712189</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="5"/>
@@ -9061,22 +9610,25 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.96702842658050658</v>
+        <v>0.99770016800012717</v>
       </c>
       <c r="C81" s="3">
-        <v>0.952484824921771</v>
+        <v>0.97289571891460214</v>
       </c>
       <c r="D81" s="3">
-        <v>0.88096748672917879</v>
+        <v>0.96596063163582824</v>
       </c>
       <c r="E81" s="3">
-        <v>0.81829458307361613</v>
+        <v>0.90139627040153913</v>
       </c>
       <c r="F81" s="3">
-        <v>0.73210389941964649</v>
+        <v>0.86375822754484277</v>
       </c>
       <c r="G81" s="3">
-        <v>0.60264583341807954</v>
+        <v>0.79752515300186944</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.70971317291837233</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="5"/>
@@ -9087,22 +9639,25 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98934413891111972</v>
+        <v>0.99258623339914387</v>
       </c>
       <c r="C82" s="3">
-        <v>0.96299449219533539</v>
+        <v>0.99526215063055934</v>
       </c>
       <c r="D82" s="3">
-        <v>0.93083977239660398</v>
+        <v>0.9765560729164251</v>
       </c>
       <c r="E82" s="3">
-        <v>0.87372816039764445</v>
+        <v>0.95227108706313546</v>
       </c>
       <c r="F82" s="3">
-        <v>0.80718758651224232</v>
+        <v>0.92453680936938676</v>
       </c>
       <c r="G82" s="3">
-        <v>0.69892032234612722</v>
+        <v>0.87919529859418533</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.82293574082683285</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="5"/>
@@ -9113,22 +9668,25 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.98272221481907018</v>
+        <v>0.99709989581286074</v>
       </c>
       <c r="C83" s="3">
-        <v>0.98606109318842328</v>
+        <v>0.98855769459736809</v>
       </c>
       <c r="D83" s="3">
-        <v>0.94871761667243948</v>
+        <v>1.0001363942695676</v>
       </c>
       <c r="E83" s="3">
-        <v>0.92814832753325482</v>
+        <v>0.97032669739023536</v>
       </c>
       <c r="F83" s="3">
-        <v>0.87281215295758463</v>
+        <v>0.98184251046707982</v>
       </c>
       <c r="G83" s="3">
-        <v>0.77856808856239212</v>
+        <v>0.95059716097347791</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.91666463106625795</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="5"/>
@@ -9139,22 +9697,25 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.99426547424289657</v>
+        <v>1.0000536204645243</v>
       </c>
       <c r="C84" s="3">
-        <v>0.98600459906751525</v>
+        <v>1.0000753548424053</v>
       </c>
       <c r="D84" s="3">
-        <v>0.97812374491618015</v>
+        <v>0.999964450963304</v>
       </c>
       <c r="E84" s="3">
-        <v>0.95480067115649758</v>
+        <v>1.0001943316388133</v>
       </c>
       <c r="F84" s="3">
-        <v>0.91830627705364298</v>
+        <v>1.0000300911446727</v>
       </c>
       <c r="G84" s="3">
-        <v>0.84964382467358912</v>
+        <v>1.0000639720399016</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1.0001422541305156</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="5"/>
@@ -10285,8 +10846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81883DF-05A6-4AAB-9504-ED07F6F426CA}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10331,15 +10892,15 @@
       <c r="B3" s="14">
         <v>3.5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -10358,15 +10919,15 @@
       <c r="B4" s="14">
         <v>1.9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -10383,8 +10944,8 @@
       <c r="B5" s="21">
         <v>0.99560000000000004</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -10401,8 +10962,8 @@
       <c r="B6" s="22">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -10419,8 +10980,8 @@
       <c r="B7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -10434,8 +10995,8 @@
       <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -10449,22 +11010,22 @@
       <c r="B9" s="22">
         <v>0.97</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="22">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>22</v>
@@ -10483,32 +11044,32 @@
       <c r="B11" s="22">
         <v>61</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="22">
-        <v>6</v>
-      </c>
-      <c r="D12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -10517,15 +11078,15 @@
       <c r="B13" s="22">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
@@ -10559,14 +11120,14 @@
       <c r="B16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
@@ -10593,36 +11154,36 @@
       <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -10638,25 +11199,27 @@
       <c r="A23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="24">
         <v>0.6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="D23" s="10">
         <v>0.9</v>
       </c>
-      <c r="D23" s="10">
+      <c r="E23" s="10">
         <v>1.5</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>2.7</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>4</v>
       </c>
-      <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -10672,22 +11235,25 @@
         <v>-100</v>
       </c>
       <c r="B24" s="3">
-        <v>0.97782918508928385</v>
+        <v>1.0000338420574604</v>
       </c>
       <c r="C24" s="3">
-        <v>0.98327402576898548</v>
+        <v>0.99988572795405983</v>
       </c>
       <c r="D24" s="3">
-        <v>0.95045849885548483</v>
+        <v>0.99994945790842338</v>
       </c>
       <c r="E24" s="3">
-        <v>0.94508922177986432</v>
+        <v>0.99978465581019726</v>
       </c>
       <c r="F24" s="3">
-        <v>0.90414251184170236</v>
+        <v>0.99977003853836377</v>
       </c>
       <c r="G24" s="3">
-        <v>0.83314695695045471</v>
+        <v>0.99947353443525455</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.9995303955657715</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="5"/>
@@ -10698,22 +11264,25 @@
         <v>-75</v>
       </c>
       <c r="B25" s="3">
-        <v>0.98230176785346879</v>
+        <v>0.98742012930089307</v>
       </c>
       <c r="C25" s="3">
-        <v>0.98445433695189521</v>
+        <v>1.0043948721094069</v>
       </c>
       <c r="D25" s="3">
-        <v>0.93871482430898001</v>
+        <v>1.0011160650335404</v>
       </c>
       <c r="E25" s="3">
-        <v>0.89356809051566688</v>
+        <v>0.98722722902865834</v>
       </c>
       <c r="F25" s="3">
-        <v>0.83795320778293936</v>
+        <v>0.95424465665807434</v>
       </c>
       <c r="G25" s="3">
-        <v>0.75793586981666028</v>
+        <v>0.92584399872069023</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.90889371009210362</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="5"/>
@@ -10724,22 +11293,25 @@
         <v>-50</v>
       </c>
       <c r="B26" s="3">
-        <v>0.98028288545272191</v>
+        <v>0.98898059895926893</v>
       </c>
       <c r="C26" s="3">
-        <v>0.95094053053969962</v>
+        <v>1.0022345909457369</v>
       </c>
       <c r="D26" s="3">
-        <v>0.88477016805740472</v>
+        <v>0.96700132183947007</v>
       </c>
       <c r="E26" s="3">
-        <v>0.84616425089757252</v>
+        <v>0.93026687848123957</v>
       </c>
       <c r="F26" s="3">
-        <v>0.7594066354566078</v>
+        <v>0.89136561983089491</v>
       </c>
       <c r="G26" s="3">
-        <v>0.64432738443882798</v>
+        <v>0.83860187560007637</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.77235966178113358</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="5"/>
@@ -10750,22 +11322,25 @@
         <v>-30</v>
       </c>
       <c r="B27" s="3">
-        <v>0.96956395437695608</v>
+        <v>0.98266375131622219</v>
       </c>
       <c r="C27" s="3">
-        <v>0.92251772941732746</v>
+        <v>0.99110368619952283</v>
       </c>
       <c r="D27" s="3">
-        <v>0.82479796484992129</v>
+        <v>0.93803790657056196</v>
       </c>
       <c r="E27" s="3">
-        <v>0.75972331139040739</v>
+        <v>0.867048405364365</v>
       </c>
       <c r="F27" s="3">
-        <v>0.67098443192985846</v>
+        <v>0.80414337194783025</v>
       </c>
       <c r="G27" s="3">
-        <v>0.53884062183403159</v>
+        <v>0.7405662077674473</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.64555775328338616</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="5"/>
@@ -10776,22 +11351,25 @@
         <v>-20</v>
       </c>
       <c r="B28" s="3">
-        <v>0.9519558047297636</v>
+        <v>0.99136435080788876</v>
       </c>
       <c r="C28" s="3">
-        <v>0.89382975127401176</v>
+        <v>0.97296929533471077</v>
       </c>
       <c r="D28" s="3">
-        <v>0.78324617353660408</v>
+        <v>0.90881408873484726</v>
       </c>
       <c r="E28" s="3">
-        <v>0.70120402826034278</v>
+        <v>0.82316473066039575</v>
       </c>
       <c r="F28" s="3">
-        <v>0.60596541160237094</v>
+        <v>0.73910382466435975</v>
       </c>
       <c r="G28" s="3">
-        <v>0.48952297270333861</v>
+        <v>0.66847046648514952</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.58622269442557629</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="5"/>
@@ -10802,22 +11380,25 @@
         <v>-10</v>
       </c>
       <c r="B29" s="3">
-        <v>0.91721440721902447</v>
+        <v>0.97328995051343736</v>
       </c>
       <c r="C29" s="3">
-        <v>0.83971051861112966</v>
+        <v>0.93736840389065157</v>
       </c>
       <c r="D29" s="3">
-        <v>0.6951768197578827</v>
+        <v>0.85374205413032378</v>
       </c>
       <c r="E29" s="3">
-        <v>0.60789280664959144</v>
+        <v>0.73047890978665697</v>
       </c>
       <c r="F29" s="3">
-        <v>0.52022510307983372</v>
+        <v>0.63752355394777493</v>
       </c>
       <c r="G29" s="3">
-        <v>0.4025933008128334</v>
+        <v>0.57356199862725865</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.48185977198489149</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="5"/>
@@ -10828,22 +11409,25 @@
         <v>-6</v>
       </c>
       <c r="B30" s="3">
-        <v>0.87665191067357173</v>
+        <v>0.97104912692532874</v>
       </c>
       <c r="C30" s="3">
-        <v>0.77480154012202296</v>
+        <v>0.89587086099258428</v>
       </c>
       <c r="D30" s="3">
-        <v>0.62451048307804646</v>
+        <v>0.78771993342072866</v>
       </c>
       <c r="E30" s="3">
-        <v>0.53638746692410333</v>
+        <v>0.65605818404918603</v>
       </c>
       <c r="F30" s="3">
-        <v>0.44635699949706603</v>
+        <v>0.56558346821839534</v>
       </c>
       <c r="G30" s="3">
-        <v>0.34881114617328884</v>
+        <v>0.49188756382140453</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.41722416805716361</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="5"/>
@@ -10854,22 +11438,25 @@
         <v>-5.75</v>
       </c>
       <c r="B31" s="3">
-        <v>0.86205064763301975</v>
+        <v>0.96380650843403759</v>
       </c>
       <c r="C31" s="3">
-        <v>0.78017194955841385</v>
+        <v>0.8807274821008253</v>
       </c>
       <c r="D31" s="3">
-        <v>0.618666083617186</v>
+        <v>0.79315985486814122</v>
       </c>
       <c r="E31" s="3">
-        <v>0.53153944957995225</v>
+        <v>0.64978748649709295</v>
       </c>
       <c r="F31" s="3">
-        <v>0.43958049675579786</v>
+        <v>0.55800421463087113</v>
       </c>
       <c r="G31" s="3">
-        <v>0.34214275071782313</v>
+        <v>0.4841565107056553</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.40919608806959468</v>
       </c>
       <c r="J31" s="11"/>
       <c r="K31" s="5"/>
@@ -10880,22 +11467,25 @@
         <v>-5.5</v>
       </c>
       <c r="B32" s="3">
-        <v>0.88013659385119958</v>
+        <v>0.96727277189052319</v>
       </c>
       <c r="C32" s="3">
-        <v>0.78064562830355011</v>
+        <v>0.89915784314442904</v>
       </c>
       <c r="D32" s="3">
-        <v>0.6145013045265264</v>
+        <v>0.79358512616851229</v>
       </c>
       <c r="E32" s="3">
-        <v>0.53392015709515384</v>
+        <v>0.64527327795631506</v>
       </c>
       <c r="F32" s="3">
-        <v>0.44018448883829259</v>
+        <v>0.56432151960988219</v>
       </c>
       <c r="G32" s="3">
-        <v>0.33547435526235742</v>
+        <v>0.4845820664921171</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.40116800808202574</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="5"/>
@@ -10906,22 +11496,25 @@
         <v>-5.25</v>
       </c>
       <c r="B33" s="3">
-        <v>0.86219429266825665</v>
+        <v>0.95302493128919552</v>
       </c>
       <c r="C33" s="3">
-        <v>0.75988799190407408</v>
+        <v>0.88073104317223372</v>
       </c>
       <c r="D33" s="3">
-        <v>0.59620009583311617</v>
+        <v>0.77244526237609856</v>
       </c>
       <c r="E33" s="3">
-        <v>0.52215262859069944</v>
+        <v>0.62590370534395556</v>
       </c>
       <c r="F33" s="3">
-        <v>0.42820487907555826</v>
+        <v>0.54898692756490119</v>
       </c>
       <c r="G33" s="3">
-        <v>0.32919910948257436</v>
+        <v>0.47113649087829995</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.39360165893806365</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="5"/>
@@ -10932,22 +11525,25 @@
         <v>-5</v>
       </c>
       <c r="B34" s="3">
-        <v>0.86573445814553085</v>
+        <v>0.96642415651415059</v>
       </c>
       <c r="C34" s="3">
-        <v>0.75904367637258707</v>
+        <v>0.88428832250960432</v>
       </c>
       <c r="D34" s="3">
-        <v>0.60159386247232793</v>
+        <v>0.77153821204891848</v>
       </c>
       <c r="E34" s="3">
-        <v>0.51758532633004628</v>
+        <v>0.6314474113328763</v>
       </c>
       <c r="F34" s="3">
-        <v>0.42386080478207733</v>
+        <v>0.54810762522333689</v>
       </c>
       <c r="G34" s="3">
-        <v>0.32292386370279125</v>
+        <v>0.46610466347436075</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.3860353097941015</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="5"/>
@@ -10958,22 +11554,25 @@
         <v>-4.75</v>
       </c>
       <c r="B35" s="3">
-        <v>0.85034631711876085</v>
+        <v>0.95562548505450218</v>
       </c>
       <c r="C35" s="3">
-        <v>0.75245630015840459</v>
+        <v>0.86846680850711455</v>
       </c>
       <c r="D35" s="3">
-        <v>0.58234920625223652</v>
+        <v>0.76478223146117263</v>
       </c>
       <c r="E35" s="3">
-        <v>0.50127043917501757</v>
+        <v>0.61112453783365994</v>
       </c>
       <c r="F35" s="3">
-        <v>0.41304362057860394</v>
+        <v>0.52818672779454467</v>
       </c>
       <c r="G35" s="3">
-        <v>0.31821214041385298</v>
+        <v>0.45402156445580272</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.38025904018215384</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="5"/>
@@ -10984,22 +11583,25 @@
         <v>-4.5</v>
       </c>
       <c r="B36" s="3">
-        <v>0.8533506782852045</v>
+        <v>0.93695215704548418</v>
       </c>
       <c r="C36" s="3">
-        <v>0.73587768941156317</v>
+        <v>0.8714104948988689</v>
       </c>
       <c r="D36" s="3">
-        <v>0.57967959452099482</v>
+        <v>0.74792355441317981</v>
       </c>
       <c r="E36" s="3">
-        <v>0.49749011348573785</v>
+        <v>0.60818908585386899</v>
       </c>
       <c r="F36" s="3">
-        <v>0.41149649897077956</v>
+        <v>0.52155445621724883</v>
       </c>
       <c r="G36" s="3">
-        <v>0.31350041712491472</v>
+        <v>0.45207715744132726</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.37448277057020618</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="5"/>
@@ -11010,22 +11612,25 @@
         <v>-4.25</v>
       </c>
       <c r="B37" s="3">
-        <v>0.84768935206753893</v>
+        <v>0.95407067673074175</v>
       </c>
       <c r="C37" s="3">
-        <v>0.74974193614018581</v>
+        <v>0.86559200472404352</v>
       </c>
       <c r="D37" s="3">
-        <v>0.57517772409902757</v>
+        <v>0.76197386841812131</v>
       </c>
       <c r="E37" s="3">
-        <v>0.50184714988031032</v>
+        <v>0.60331136637082317</v>
       </c>
       <c r="F37" s="3">
-        <v>0.41010430934191638</v>
+        <v>0.5278467068040732</v>
       </c>
       <c r="G37" s="3">
-        <v>0.30576471084331808</v>
+        <v>0.45031772405158987</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.36519094996942603</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="5"/>
@@ -11036,22 +11641,25 @@
         <v>-4</v>
       </c>
       <c r="B38" s="3">
-        <v>0.83577408950689824</v>
+        <v>0.93583874009797996</v>
       </c>
       <c r="C38" s="3">
-        <v>0.74094405241675787</v>
+        <v>0.85329523255975415</v>
       </c>
       <c r="D38" s="3">
-        <v>0.56977984053512554</v>
+        <v>0.75295610858872908</v>
       </c>
       <c r="E38" s="3">
-        <v>0.48999116267220205</v>
+        <v>0.59755519193243634</v>
       </c>
       <c r="F38" s="3">
-        <v>0.39131166345494561</v>
+        <v>0.51913017985613796</v>
       </c>
       <c r="G38" s="3">
-        <v>0.29802900456172143</v>
+        <v>0.42946436175768243</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.35589912936864593</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="5"/>
@@ -11062,22 +11670,25 @@
         <v>-3.75</v>
       </c>
       <c r="B39" s="3">
-        <v>0.83224162662709522</v>
+        <v>0.94812873170293999</v>
       </c>
       <c r="C39" s="3">
-        <v>0.7268422151302566</v>
+        <v>0.84957142004876507</v>
       </c>
       <c r="D39" s="3">
-        <v>0.56621795858773771</v>
+        <v>0.73862033464877586</v>
       </c>
       <c r="E39" s="3">
-        <v>0.47213727268192252</v>
+        <v>0.59371052595824891</v>
       </c>
       <c r="F39" s="3">
-        <v>0.38552244968321608</v>
+        <v>0.50449880452151352</v>
       </c>
       <c r="G39" s="3">
-        <v>0.28831647977688984</v>
+        <v>0.42284854672590166</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.34417939323469215</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="5"/>
@@ -11088,22 +11699,25 @@
         <v>-3.5</v>
       </c>
       <c r="B40" s="3">
-        <v>0.81881465227648231</v>
+        <v>0.94172592141784328</v>
       </c>
       <c r="C40" s="3">
-        <v>0.72176006683711846</v>
+        <v>0.83582686694998576</v>
       </c>
       <c r="D40" s="3">
-        <v>0.55558512859560261</v>
+        <v>0.73344356190995863</v>
       </c>
       <c r="E40" s="3">
-        <v>0.46953257902848655</v>
+        <v>0.58237433975487085</v>
       </c>
       <c r="F40" s="3">
-        <v>0.38351450418562361</v>
+        <v>0.49479621635528792</v>
       </c>
       <c r="G40" s="3">
-        <v>0.27860395499205826</v>
+        <v>0.42040973195685638</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.33245965710073833</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="5"/>
@@ -11114,22 +11728,25 @@
         <v>-3.25</v>
       </c>
       <c r="B41" s="3">
-        <v>0.82167405583452147</v>
+        <v>0.93569650329230036</v>
       </c>
       <c r="C41" s="3">
-        <v>0.71527408847577179</v>
+        <v>0.8386295050950624</v>
       </c>
       <c r="D41" s="3">
-        <v>0.5451893844433261</v>
+        <v>0.72677807346595746</v>
       </c>
       <c r="E41" s="3">
-        <v>0.45487909669865234</v>
+        <v>0.57141002422209664</v>
       </c>
       <c r="F41" s="3">
-        <v>0.37389736657508865</v>
+        <v>0.47849666004579189</v>
       </c>
       <c r="G41" s="3">
-        <v>0.26697821948833395</v>
+        <v>0.40965075117452371</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.31853575686210939</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="5"/>
@@ -11140,22 +11757,25 @@
         <v>-3</v>
       </c>
       <c r="B42" s="3">
-        <v>0.81128377729064116</v>
+        <v>0.93571572958227878</v>
       </c>
       <c r="C42" s="3">
-        <v>0.71332813626924396</v>
+        <v>0.82783371649857496</v>
       </c>
       <c r="D42" s="3">
-        <v>0.53584487267927705</v>
+        <v>0.72477095938654856</v>
       </c>
       <c r="E42" s="3">
-        <v>0.44749086955729955</v>
+        <v>0.56145928620476249</v>
       </c>
       <c r="F42" s="3">
-        <v>0.35168311794399587</v>
+        <v>0.46891925712970373</v>
       </c>
       <c r="G42" s="3">
-        <v>0.25535248398460964</v>
+        <v>0.38510164847881673</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.30461185662348045</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="5"/>
@@ -11166,22 +11786,25 @@
         <v>-2.75</v>
       </c>
       <c r="B43" s="3">
-        <v>0.81691179597125563</v>
+        <v>0.93169662241031614</v>
       </c>
       <c r="C43" s="3">
-        <v>0.70625823821513944</v>
+        <v>0.83350264989023193</v>
       </c>
       <c r="D43" s="3">
-        <v>0.52626396130597553</v>
+        <v>0.71757901912156163</v>
       </c>
       <c r="E43" s="3">
-        <v>0.42847430793415198</v>
+        <v>0.55130085890692671</v>
       </c>
       <c r="F43" s="3">
-        <v>0.34328274786324808</v>
+        <v>0.44810107424774603</v>
       </c>
       <c r="G43" s="3">
-        <v>0.24017500954957252</v>
+        <v>0.37575726198072534</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.28640636921495155</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="5"/>
@@ -11192,22 +11815,25 @@
         <v>-2.5</v>
       </c>
       <c r="B44" s="3">
-        <v>0.81083265484425715</v>
+        <v>0.93868163487724099</v>
       </c>
       <c r="C44" s="3">
-        <v>0.68741438435806468</v>
+        <v>0.82727401962509717</v>
       </c>
       <c r="D44" s="3">
-        <v>0.51573344498580598</v>
+        <v>0.69835673772369344</v>
       </c>
       <c r="E44" s="3">
-        <v>0.42014473278081949</v>
+        <v>0.54021089465675887</v>
       </c>
       <c r="F44" s="3">
-        <v>0.32635912864945354</v>
+        <v>0.43975315719660324</v>
       </c>
       <c r="G44" s="3">
-        <v>0.22499753511453541</v>
+        <v>0.35708514749659653</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.26820088180642271</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="5"/>
@@ -11218,22 +11844,25 @@
         <v>-2.25</v>
       </c>
       <c r="B45" s="3">
-        <v>0.79487274218566439</v>
+        <v>0.93431596044722764</v>
       </c>
       <c r="C45" s="3">
-        <v>0.67352400800249057</v>
+        <v>0.81084294057349948</v>
       </c>
       <c r="D45" s="3">
-        <v>0.4869042941137085</v>
+        <v>0.68421861649319038</v>
       </c>
       <c r="E45" s="3">
-        <v>0.39353705171520598</v>
+        <v>0.50985070220165096</v>
       </c>
       <c r="F45" s="3">
-        <v>0.30577988718635785</v>
+        <v>0.41362968947333734</v>
       </c>
       <c r="G45" s="3">
-        <v>0.20864891607410985</v>
+        <v>0.33439541534322315</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.24866787483774372</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="5"/>
@@ -11244,22 +11873,25 @@
         <v>-2</v>
       </c>
       <c r="B46" s="3">
-        <v>0.80645226459519392</v>
+        <v>0.93572210076303364</v>
       </c>
       <c r="C46" s="3">
-        <v>0.67469652078819586</v>
+        <v>0.82262398711036067</v>
       </c>
       <c r="D46" s="3">
-        <v>0.47443956737053677</v>
+        <v>0.6853851451107642</v>
       </c>
       <c r="E46" s="3">
-        <v>0.37714677977903133</v>
+        <v>0.49672535303740845</v>
       </c>
       <c r="F46" s="3">
-        <v>0.27780229186476912</v>
+        <v>0.39188561542290845</v>
       </c>
       <c r="G46" s="3">
-        <v>0.19230029703368429</v>
+        <v>0.30364461264341747</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.2291348678690647</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="5"/>
@@ -11270,22 +11902,25 @@
         <v>-1.75</v>
       </c>
       <c r="B47" s="3">
-        <v>0.78859954566755397</v>
+        <v>0.91977524018132151</v>
       </c>
       <c r="C47" s="3">
-        <v>0.64030517123750919</v>
+        <v>0.80429084648997562</v>
       </c>
       <c r="D47" s="3">
-        <v>0.44086319441073368</v>
+        <v>0.65040888714357492</v>
       </c>
       <c r="E47" s="3">
-        <v>0.34581849091529721</v>
+        <v>0.46141936400084249</v>
       </c>
       <c r="F47" s="3">
-        <v>0.25987196697596093</v>
+        <v>0.35791844920291299</v>
       </c>
       <c r="G47" s="3">
-        <v>0.17433933918608252</v>
+        <v>0.2838321987318132</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.20772251239112249</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="5"/>
@@ -11296,22 +11931,25 @@
         <v>-1.5</v>
       </c>
       <c r="B48" s="3">
-        <v>0.76689503499996881</v>
+        <v>0.93442300916167831</v>
       </c>
       <c r="C48" s="3">
-        <v>0.62337424133501784</v>
+        <v>0.78207765294848008</v>
       </c>
       <c r="D48" s="3">
-        <v>0.40715837718958758</v>
+        <v>0.63315924726307515</v>
       </c>
       <c r="E48" s="3">
-        <v>0.315266652393279</v>
+        <v>0.42605045345566805</v>
       </c>
       <c r="F48" s="3">
-        <v>0.23508088563009269</v>
+        <v>0.3329216414874126</v>
       </c>
       <c r="G48" s="3">
-        <v>0.15637838133848073</v>
+        <v>0.25664512420345204</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.18631015691318026</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="5"/>
@@ -11322,22 +11960,25 @@
         <v>-1.25</v>
       </c>
       <c r="B49" s="3">
-        <v>0.7415053518428818</v>
+        <v>0.90234883950286426</v>
       </c>
       <c r="C49" s="3">
-        <v>0.5739874012954449</v>
+        <v>0.75609720581718554</v>
       </c>
       <c r="D49" s="3">
-        <v>0.36329516650788662</v>
+        <v>0.5829863109446054</v>
       </c>
       <c r="E49" s="3">
-        <v>0.27581803578011294</v>
+        <v>0.38010199150191892</v>
       </c>
       <c r="F49" s="3">
-        <v>0.19468250068722318</v>
+        <v>0.28702641170158438</v>
       </c>
       <c r="G49" s="3">
-        <v>0.14078816367807984</v>
+        <v>0.21247497652717956</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.16769628797033248</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="5"/>
@@ -11348,22 +11989,25 @@
         <v>-1</v>
       </c>
       <c r="B50" s="3">
-        <v>0.69760922503714817</v>
+        <v>0.89782878040720038</v>
       </c>
       <c r="C50" s="3">
-        <v>0.5189590033780741</v>
+        <v>0.71119018700917391</v>
       </c>
       <c r="D50" s="3">
-        <v>0.30159757536850718</v>
+        <v>0.52705675731723967</v>
       </c>
       <c r="E50" s="3">
-        <v>0.23332827406505879</v>
+        <v>0.31550394216005351</v>
       </c>
       <c r="F50" s="3">
-        <v>0.15755141892149513</v>
+        <v>0.24725363464748482</v>
       </c>
       <c r="G50" s="3">
-        <v>0.12519794601767892</v>
+        <v>0.17178674107453726</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.1490824190274847</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="5"/>
@@ -11374,22 +12018,25 @@
         <v>-0.75</v>
       </c>
       <c r="B51" s="3">
-        <v>0.599880248028137</v>
+        <v>0.85044903839343911</v>
       </c>
       <c r="C51" s="3">
-        <v>0.41652745189016771</v>
+        <v>0.61154812849242701</v>
       </c>
       <c r="D51" s="3">
-        <v>0.2449436351045165</v>
+        <v>0.42301374709313161</v>
       </c>
       <c r="E51" s="3">
-        <v>0.18292295538627823</v>
+        <v>0.25622837655719077</v>
       </c>
       <c r="F51" s="3">
-        <v>0.14322414490264845</v>
+        <v>0.19726912977534367</v>
       </c>
       <c r="G51" s="3">
-        <v>0.11113108800794715</v>
+        <v>0.15615066184406454</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.13228192974924652</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="5"/>
@@ -11400,22 +12047,25 @@
         <v>-0.5</v>
       </c>
       <c r="B52" s="3">
-        <v>0.4499952284912479</v>
+        <v>0.76198636556231925</v>
       </c>
       <c r="C52" s="3">
-        <v>0.30060034110512535</v>
+        <v>0.45864274992108395</v>
       </c>
       <c r="D52" s="3">
-        <v>0.16573314636277975</v>
+        <v>0.30529858321488806</v>
       </c>
       <c r="E52" s="3">
-        <v>0.13949148421956495</v>
+        <v>0.17326952405252191</v>
       </c>
       <c r="F52" s="3">
-        <v>0.11242121459523949</v>
+        <v>0.14617898594423634</v>
       </c>
       <c r="G52" s="3">
-        <v>9.7064229998215373E-2</v>
+        <v>0.12244458951178358</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.11548144047100836</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="5"/>
@@ -11426,22 +12076,25 @@
         <v>-0.25</v>
       </c>
       <c r="B53" s="3">
-        <v>0.23618458486713617</v>
+        <v>0.47479402517736807</v>
       </c>
       <c r="C53" s="3">
-        <v>0.15595423102276768</v>
+        <v>0.24067548275108264</v>
       </c>
       <c r="D53" s="3">
-        <v>0.11450207553838905</v>
+        <v>0.15836775870840453</v>
       </c>
       <c r="E53" s="3">
-        <v>9.6011463978411496E-2</v>
+        <v>0.11964427015340044</v>
       </c>
       <c r="F53" s="3">
-        <v>8.4542215301018145E-2</v>
+        <v>0.10474969928587519</v>
       </c>
       <c r="G53" s="3">
-        <v>8.7977105900615277E-2</v>
+        <v>9.2013761262643448E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.10465990811166827</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="5"/>
@@ -11452,22 +12105,25 @@
         <v>0</v>
       </c>
       <c r="B54" s="3">
-        <v>7.4849293804058581E-2</v>
+        <v>9.5531488417273977E-2</v>
       </c>
       <c r="C54" s="3">
-        <v>8.5746910938829163E-2</v>
+        <v>7.6260509304633212E-2</v>
       </c>
       <c r="D54" s="3">
-        <v>8.3484457216752087E-2</v>
+        <v>8.7043075975660078E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>7.3393171783862426E-2</v>
+        <v>8.7286855387623458E-2</v>
       </c>
       <c r="F54" s="3">
-        <v>7.891621030595361E-2</v>
+        <v>8.4614884765842155E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>7.888998180301518E-2</v>
+        <v>8.5959875847281958E-2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>9.3838375752328174E-2</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="5"/>
@@ -11478,22 +12134,25 @@
         <v>0.25</v>
       </c>
       <c r="B55" s="3">
-        <v>0.25141574412828865</v>
+        <v>0.49635681536396914</v>
       </c>
       <c r="C55" s="3">
-        <v>0.15943632693191195</v>
+        <v>0.2562461964366084</v>
       </c>
       <c r="D55" s="3">
-        <v>0.11591375830641477</v>
+        <v>0.16189291035915715</v>
       </c>
       <c r="E55" s="3">
-        <v>9.5242054286799077E-2</v>
+        <v>0.12109907661343208</v>
       </c>
       <c r="F55" s="3">
-        <v>8.8237004098202843E-2</v>
+        <v>0.10352549264161195</v>
       </c>
       <c r="G55" s="3">
-        <v>8.358185304501381E-2</v>
+        <v>9.5978335103536511E-2</v>
+      </c>
+      <c r="H55" s="3">
+        <v>9.9373377427520032E-2</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="5"/>
@@ -11504,22 +12163,25 @@
         <v>0.5</v>
       </c>
       <c r="B56" s="3">
-        <v>0.4674729610871754</v>
+        <v>0.74439734558914616</v>
       </c>
       <c r="C56" s="3">
-        <v>0.29622818192880651</v>
+        <v>0.47635615296980721</v>
       </c>
       <c r="D56" s="3">
-        <v>0.1700604297201864</v>
+        <v>0.30076995187350419</v>
       </c>
       <c r="E56" s="3">
-        <v>0.13397156357006704</v>
+        <v>0.17764270893514239</v>
       </c>
       <c r="F56" s="3">
-        <v>0.11824470653130896</v>
+        <v>0.14305088606710989</v>
       </c>
       <c r="G56" s="3">
-        <v>8.8273724287012439E-2</v>
+        <v>0.12860837070646358</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.10490837910271189</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="5"/>
@@ -11530,22 +12192,25 @@
         <v>0.75</v>
       </c>
       <c r="B57" s="3">
-        <v>0.61072060357205538</v>
+        <v>0.85512034855081898</v>
       </c>
       <c r="C57" s="3">
-        <v>0.41677945020934226</v>
+        <v>0.62221391809998361</v>
       </c>
       <c r="D57" s="3">
-        <v>0.2297790792851489</v>
+        <v>0.42313940856961824</v>
       </c>
       <c r="E57" s="3">
-        <v>0.17761782394660536</v>
+        <v>0.24002805605299082</v>
       </c>
       <c r="F57" s="3">
-        <v>0.13552421144777488</v>
+        <v>0.18963675742817121</v>
       </c>
       <c r="G57" s="3">
-        <v>0.10846738465720476</v>
+        <v>0.14729488894023915</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.1289286446915274</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="5"/>
@@ -11556,22 +12221,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <v>0.69969627577949578</v>
+        <v>0.89106878860184291</v>
       </c>
       <c r="C58" s="3">
-        <v>0.50615615827446581</v>
+        <v>0.71275723778858091</v>
       </c>
       <c r="D58" s="3">
-        <v>0.29203313909724116</v>
+        <v>0.51387089792251872</v>
       </c>
       <c r="E58" s="3">
-        <v>0.21326455494191082</v>
+        <v>0.30500414363931849</v>
       </c>
       <c r="F58" s="3">
-        <v>0.15815003641818265</v>
+        <v>0.2255308709288158</v>
       </c>
       <c r="G58" s="3">
-        <v>0.12866104502739709</v>
+        <v>0.17168517902264258</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.15294891028034291</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="5"/>
@@ -11582,22 +12250,25 @@
         <v>1.25</v>
       </c>
       <c r="B59" s="3">
-        <v>0.74392016462606048</v>
+        <v>0.91897181028799613</v>
       </c>
       <c r="C59" s="3">
-        <v>0.57546885669228443</v>
+        <v>0.75768072852405</v>
       </c>
       <c r="D59" s="3">
-        <v>0.34437945711538476</v>
+        <v>0.58416839018001621</v>
       </c>
       <c r="E59" s="3">
-        <v>0.26083110788992148</v>
+        <v>0.35958023009406337</v>
       </c>
       <c r="F59" s="3">
-        <v>0.19271755592298132</v>
+        <v>0.27775155538366808</v>
       </c>
       <c r="G59" s="3">
-        <v>0.1447518998296462</v>
+        <v>0.20915926252837239</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.17201911162879824</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="5"/>
@@ -11608,22 +12279,25 @@
         <v>1.5</v>
       </c>
       <c r="B60" s="3">
-        <v>0.79238296754973314</v>
+        <v>0.92560108695900156</v>
       </c>
       <c r="C60" s="3">
-        <v>0.61644710572436234</v>
+        <v>0.80700873265916795</v>
       </c>
       <c r="D60" s="3">
-        <v>0.39962028901250185</v>
+        <v>0.62577616129255575</v>
       </c>
       <c r="E60" s="3">
-        <v>0.30264020873233399</v>
+        <v>0.41711194994170819</v>
       </c>
       <c r="F60" s="3">
-        <v>0.22227616570763828</v>
+        <v>0.3149036567420917</v>
       </c>
       <c r="G60" s="3">
-        <v>0.16084275463189529</v>
+        <v>0.24122209074170456</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.19108931297725357</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="5"/>
@@ -11634,22 +12308,25 @@
         <v>1.75</v>
       </c>
       <c r="B61" s="3">
-        <v>0.79933646780976753</v>
+        <v>0.92846306986151705</v>
       </c>
       <c r="C61" s="3">
-        <v>0.64936283072193834</v>
+        <v>0.8138776278433143</v>
       </c>
       <c r="D61" s="3">
-        <v>0.42710165532066247</v>
+        <v>0.65913099328291891</v>
       </c>
       <c r="E61" s="3">
-        <v>0.3327803287030725</v>
+        <v>0.44567480591651415</v>
       </c>
       <c r="F61" s="3">
-        <v>0.2454366841502385</v>
+        <v>0.34950772571964894</v>
       </c>
       <c r="G61" s="3">
-        <v>0.17747509056805272</v>
+        <v>0.26622399598765362</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.21077967463809877</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="5"/>
@@ -11660,22 +12337,25 @@
         <v>2</v>
       </c>
       <c r="B62" s="3">
-        <v>0.818203483734111</v>
+        <v>0.94049991616281259</v>
       </c>
       <c r="C62" s="3">
-        <v>0.67918072157457932</v>
+        <v>0.83303221599279564</v>
       </c>
       <c r="D62" s="3">
-        <v>0.46809489578379465</v>
+        <v>0.68938788475204771</v>
       </c>
       <c r="E62" s="3">
-        <v>0.35937209703665152</v>
+        <v>0.48836159017702074</v>
       </c>
       <c r="F62" s="3">
-        <v>0.27819482217560532</v>
+        <v>0.38024283418662297</v>
       </c>
       <c r="G62" s="3">
-        <v>0.19410742650421017</v>
+        <v>0.30160143416094953</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.23047003629894397</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="5"/>
@@ -11686,22 +12366,25 @@
         <v>2.25</v>
       </c>
       <c r="B63" s="3">
-        <v>0.82933863806177244</v>
+        <v>0.94347952335203433</v>
       </c>
       <c r="C63" s="3">
-        <v>0.69828422370811849</v>
+        <v>0.84434521427908715</v>
       </c>
       <c r="D63" s="3">
-        <v>0.48830319917548221</v>
+        <v>0.708794305492772</v>
       </c>
       <c r="E63" s="3">
-        <v>0.39300031558636356</v>
+        <v>0.50935914430142126</v>
       </c>
       <c r="F63" s="3">
-        <v>0.28788746304332846</v>
+        <v>0.41585330948644128</v>
       </c>
       <c r="G63" s="3">
-        <v>0.20196855388889778</v>
+        <v>0.31191804031030312</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.23977289767371923</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="5"/>
@@ -11712,22 +12395,25 @@
         <v>2.5</v>
       </c>
       <c r="B64" s="3">
-        <v>0.83912117701683842</v>
+        <v>0.94762816434240382</v>
       </c>
       <c r="C64" s="3">
-        <v>0.7214623653102743</v>
+        <v>0.8541468417740663</v>
       </c>
       <c r="D64" s="3">
-        <v>0.52054396742948794</v>
+        <v>0.73222147500141921</v>
       </c>
       <c r="E64" s="3">
-        <v>0.41235412248341613</v>
+        <v>0.54289798496260333</v>
       </c>
       <c r="F64" s="3">
-        <v>0.31065457928151896</v>
+        <v>0.43578546826106662</v>
       </c>
       <c r="G64" s="3">
-        <v>0.20982968127358537</v>
+        <v>0.3364492876866787</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.24907575904849449</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="5"/>
@@ -11738,22 +12424,25 @@
         <v>2.75</v>
       </c>
       <c r="B65" s="3">
-        <v>0.83410787285070875</v>
+        <v>0.94789828076992499</v>
       </c>
       <c r="C65" s="3">
-        <v>0.73856810923911276</v>
+        <v>0.84889661176220754</v>
       </c>
       <c r="D65" s="3">
-        <v>0.53187845898308206</v>
+        <v>0.74954618117749772</v>
       </c>
       <c r="E65" s="3">
-        <v>0.42879428076351822</v>
+        <v>0.5545965940787998</v>
       </c>
       <c r="F65" s="3">
-        <v>0.32599234270916777</v>
+        <v>0.45208402838365985</v>
       </c>
       <c r="G65" s="3">
-        <v>0.22497034870868166</v>
+        <v>0.35281973690447788</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.26697827884814607</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="5"/>
@@ -11764,22 +12453,25 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>0.86279729867942867</v>
+        <v>0.94909754157122639</v>
       </c>
       <c r="C66" s="3">
-        <v>0.73074819145742187</v>
+        <v>0.87812436275162487</v>
       </c>
       <c r="D66" s="3">
-        <v>0.55276272759558809</v>
+        <v>0.74165167876987881</v>
       </c>
       <c r="E66" s="3">
-        <v>0.45454691945985204</v>
+        <v>0.57623107651781846</v>
       </c>
       <c r="F66" s="3">
-        <v>0.34182819388037589</v>
+        <v>0.47578408511449988</v>
       </c>
       <c r="G66" s="3">
-        <v>0.24011101614377797</v>
+        <v>0.36974785165802121</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.2848807986477977</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="5"/>
@@ -11790,22 +12482,25 @@
         <v>3.25</v>
       </c>
       <c r="B67" s="3">
-        <v>0.8598106605110285</v>
+        <v>0.95009661040895943</v>
       </c>
       <c r="C67" s="3">
-        <v>0.75042387795596832</v>
+        <v>0.87494541645228396</v>
       </c>
       <c r="D67" s="3">
-        <v>0.55429521120387126</v>
+        <v>0.76154605044514256</v>
       </c>
       <c r="E67" s="3">
-        <v>0.46343595698881057</v>
+        <v>0.57771591969708536</v>
       </c>
       <c r="F67" s="3">
-        <v>0.35753127064587503</v>
+        <v>0.49187177289281137</v>
       </c>
       <c r="G67" s="3">
-        <v>0.25115700313287481</v>
+        <v>0.38656682542222215</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.29790802288278878</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="5"/>
@@ -11816,22 +12511,25 @@
         <v>3.5</v>
       </c>
       <c r="B68" s="3">
-        <v>0.84748341204475874</v>
+        <v>0.95080377500365798</v>
       </c>
       <c r="C68" s="3">
-        <v>0.76425442627904183</v>
+        <v>0.86228477833799011</v>
       </c>
       <c r="D68" s="3">
-        <v>0.57141832185773078</v>
+        <v>0.77555032768487453</v>
       </c>
       <c r="E68" s="3">
-        <v>0.4765763314887746</v>
+        <v>0.59545336035192098</v>
       </c>
       <c r="F68" s="3">
-        <v>0.37033257298254552</v>
+        <v>0.49697667827895142</v>
       </c>
       <c r="G68" s="3">
-        <v>0.26220299012197168</v>
+        <v>0.40017512738081623</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.31093524711777987</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="5"/>
@@ -11842,22 +12540,25 @@
         <v>3.75</v>
       </c>
       <c r="B69" s="3">
-        <v>0.86982032898632045</v>
+        <v>0.96489641963922956</v>
       </c>
       <c r="C69" s="3">
-        <v>0.7626842983308888</v>
+        <v>0.88489000785195004</v>
       </c>
       <c r="D69" s="3">
-        <v>0.5905254685586323</v>
+        <v>0.7738452583255474</v>
       </c>
       <c r="E69" s="3">
-        <v>0.48494759093323897</v>
+        <v>0.61521963348630582</v>
       </c>
       <c r="F69" s="3">
-        <v>0.38813847065496027</v>
+        <v>0.50403577686311563</v>
       </c>
       <c r="G69" s="3">
-        <v>0.27180595087138471</v>
+        <v>0.41921083399754061</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.32225375159199476</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="5"/>
@@ -11868,22 +12569,25 @@
         <v>4</v>
       </c>
       <c r="B70" s="3">
-        <v>0.88279527796252777</v>
+        <v>0.95059671966768811</v>
       </c>
       <c r="C70" s="3">
-        <v>0.77973344981888659</v>
+        <v>0.89803064136683697</v>
       </c>
       <c r="D70" s="3">
-        <v>0.59993653879388931</v>
+        <v>0.79116017037547814</v>
       </c>
       <c r="E70" s="3">
-        <v>0.49806902581914175</v>
+        <v>0.62483817041075385</v>
       </c>
       <c r="F70" s="3">
-        <v>0.40043327079936092</v>
+        <v>0.52119344108300347</v>
       </c>
       <c r="G70" s="3">
-        <v>0.28140891162079773</v>
+        <v>0.43218019231951138</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.33357225606620966</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="5"/>
@@ -11894,22 +12598,25 @@
         <v>4.25</v>
       </c>
       <c r="B71" s="3">
-        <v>0.87075349708348093</v>
+        <v>0.96440832983170899</v>
       </c>
       <c r="C71" s="3">
-        <v>0.80186581895964559</v>
+        <v>0.88561694363839505</v>
       </c>
       <c r="D71" s="3">
-        <v>0.61468455333907979</v>
+        <v>0.81363866624907788</v>
       </c>
       <c r="E71" s="3">
-        <v>0.50785895804686743</v>
+        <v>0.64010472931864437</v>
       </c>
       <c r="F71" s="3">
-        <v>0.41006580526216341</v>
+        <v>0.53223065363709898</v>
       </c>
       <c r="G71" s="3">
-        <v>0.29139088339851144</v>
+        <v>0.4425599229979153</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0.34533331189684446</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="5"/>
@@ -11920,22 +12627,25 @@
         <v>4.5</v>
       </c>
       <c r="B72" s="3">
-        <v>0.8913140646408424</v>
+        <v>0.96845432300962653</v>
       </c>
       <c r="C72" s="3">
-        <v>0.78646909050380243</v>
+        <v>0.90648900306106162</v>
       </c>
       <c r="D72" s="3">
-        <v>0.62035333656383729</v>
+        <v>0.7978602652534974</v>
       </c>
       <c r="E72" s="3">
-        <v>0.5151138697809311</v>
+        <v>0.64597255097746631</v>
       </c>
       <c r="F72" s="3">
-        <v>0.41220308761967467</v>
+        <v>0.54742611570465338</v>
       </c>
       <c r="G72" s="3">
-        <v>0.30137285517622514</v>
+        <v>0.44457933629464802</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0.35709436772747927</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="5"/>
@@ -11946,22 +12656,25 @@
         <v>4.75</v>
       </c>
       <c r="B73" s="3">
-        <v>0.90117744072503236</v>
+        <v>0.95853669035507671</v>
       </c>
       <c r="C73" s="3">
-        <v>0.79537219642715784</v>
+        <v>0.9164116939684217</v>
       </c>
       <c r="D73" s="3">
-        <v>0.62919290917843729</v>
+        <v>0.80684497077552564</v>
       </c>
       <c r="E73" s="3">
-        <v>0.53272594297780418</v>
+        <v>0.65492961617162071</v>
       </c>
       <c r="F73" s="3">
-        <v>0.42214149109645671</v>
+        <v>0.55700298805297221</v>
       </c>
       <c r="G73" s="3">
-        <v>0.31214385883375023</v>
+        <v>0.45497195048738914</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0.36974385842252966</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="5"/>
@@ -11972,22 +12685,25 @@
         <v>5</v>
       </c>
       <c r="B74" s="3">
-        <v>0.89079444108522843</v>
+        <v>0.95810335967630567</v>
       </c>
       <c r="C74" s="3">
-        <v>0.80903720719594752</v>
+        <v>0.90572372697786052</v>
       </c>
       <c r="D74" s="3">
-        <v>0.63318769871727421</v>
+        <v>0.82075510922464046</v>
       </c>
       <c r="E74" s="3">
-        <v>0.53179738213407268</v>
+        <v>0.65899642760803134</v>
       </c>
       <c r="F74" s="3">
-        <v>0.42722035202895076</v>
+        <v>0.55327062161685403</v>
       </c>
       <c r="G74" s="3">
-        <v>0.32291486249127532</v>
+        <v>0.46033696003984437</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0.38239334911758005</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="5"/>
@@ -11998,22 +12714,25 @@
         <v>5.25</v>
       </c>
       <c r="B75" s="3">
-        <v>0.90153478919762498</v>
+        <v>0.96478788391430803</v>
       </c>
       <c r="C75" s="3">
-        <v>0.80804433960062882</v>
+        <v>0.91658362215897837</v>
       </c>
       <c r="D75" s="3">
-        <v>0.63494732495214845</v>
+        <v>0.81963899469387713</v>
       </c>
       <c r="E75" s="3">
-        <v>0.55610644870049886</v>
+        <v>0.66069445936346027</v>
       </c>
       <c r="F75" s="3">
-        <v>0.43386258484830859</v>
+        <v>0.58022087651699294</v>
       </c>
       <c r="G75" s="3">
-        <v>0.3303980140134819</v>
+        <v>0.46714620701088733</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.39119549983526614</v>
       </c>
       <c r="J75" s="11"/>
       <c r="K75" s="5"/>
@@ -12024,22 +12743,25 @@
         <v>5.5</v>
       </c>
       <c r="B76" s="3">
-        <v>0.89993078395985582</v>
+        <v>0.97221777659241404</v>
       </c>
       <c r="C76" s="3">
-        <v>0.81792436057959184</v>
+        <v>0.91474627964222288</v>
       </c>
       <c r="D76" s="3">
-        <v>0.65066311200487836</v>
+        <v>0.82967124411359183</v>
       </c>
       <c r="E76" s="3">
-        <v>0.54680718485151592</v>
+        <v>0.67688863188797221</v>
       </c>
       <c r="F76" s="3">
-        <v>0.44746703131439769</v>
+        <v>0.57758189068848265</v>
       </c>
       <c r="G76" s="3">
-        <v>0.33788116553568842</v>
+        <v>0.48157910157308664</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.39999765055295217</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="5"/>
@@ -12050,22 +12772,25 @@
         <v>5.75</v>
       </c>
       <c r="B77" s="3">
-        <v>0.90522940032467147</v>
+        <v>0.97473933715583194</v>
       </c>
       <c r="C77" s="3">
-        <v>0.82451476257111855</v>
+        <v>0.92006274548079747</v>
       </c>
       <c r="D77" s="3">
-        <v>0.64138672512368866</v>
+        <v>0.83632379206090768</v>
       </c>
       <c r="E77" s="3">
-        <v>0.55671740085394372</v>
+        <v>0.66704811150860122</v>
       </c>
       <c r="F77" s="3">
-        <v>0.45148295997704546</v>
+        <v>0.57794141023307355</v>
       </c>
       <c r="G77" s="3">
-        <v>0.34327715106256995</v>
+        <v>0.48576677189575374</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.4062738938697511</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="5"/>
@@ -12076,22 +12801,25 @@
         <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>0.90621415434573804</v>
+        <v>0.96353899791401576</v>
       </c>
       <c r="C78" s="3">
-        <v>0.82076920418070998</v>
+        <v>0.92101923965238142</v>
       </c>
       <c r="D78" s="3">
-        <v>0.65657481644980531</v>
+        <v>0.83248039173517141</v>
       </c>
       <c r="E78" s="3">
-        <v>0.56503465827139954</v>
+        <v>0.6827209086021816</v>
       </c>
       <c r="F78" s="3">
-        <v>0.46190088122469658</v>
+        <v>0.58828496462801727</v>
       </c>
       <c r="G78" s="3">
-        <v>0.34867313658945143</v>
+        <v>0.49670152791977584</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.41255013718655009</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="5"/>
@@ -12102,22 +12830,25 @@
         <v>10</v>
       </c>
       <c r="B79" s="3">
-        <v>0.92817303440874299</v>
+        <v>0.97941521223329775</v>
       </c>
       <c r="C79" s="3">
-        <v>0.87143887732913039</v>
+        <v>0.94321736907332043</v>
       </c>
       <c r="D79" s="3">
-        <v>0.71735854923166487</v>
+        <v>0.88377864033312148</v>
       </c>
       <c r="E79" s="3">
-        <v>0.63683842813265712</v>
+        <v>0.7457830832271688</v>
       </c>
       <c r="F79" s="3">
-        <v>0.53656776696369068</v>
+        <v>0.66439949389779773</v>
       </c>
       <c r="G79" s="3">
-        <v>0.41671345726945469</v>
+        <v>0.57659166062233125</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.49287256783254313</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="5"/>
@@ -12128,22 +12859,25 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <v>0.95049281637162242</v>
+        <v>0.98486354593092373</v>
       </c>
       <c r="C80" s="3">
-        <v>0.9186259060477534</v>
+        <v>0.96576252759663783</v>
       </c>
       <c r="D80" s="3">
-        <v>0.79675098191586069</v>
+        <v>0.93165478016483372</v>
       </c>
       <c r="E80" s="3">
-        <v>0.72359315523957979</v>
+        <v>0.82818454110454043</v>
       </c>
       <c r="F80" s="3">
-        <v>0.63027738524298338</v>
+        <v>0.75261779034718868</v>
       </c>
       <c r="G80" s="3">
-        <v>0.4931546268742622</v>
+        <v>0.67683889182941248</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.58304554394335883</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="5"/>
@@ -12154,22 +12888,25 @@
         <v>30</v>
       </c>
       <c r="B81" s="3">
-        <v>0.96891351445155449</v>
+        <v>0.98433014456674428</v>
       </c>
       <c r="C81" s="3">
-        <v>0.93243922402346457</v>
+        <v>0.98443276837063531</v>
       </c>
       <c r="D81" s="3">
-        <v>0.84449567352450283</v>
+        <v>0.9455272130781307</v>
       </c>
       <c r="E81" s="3">
-        <v>0.77429110461105177</v>
+        <v>0.87765607657778799</v>
       </c>
       <c r="F81" s="3">
-        <v>0.68234932924585556</v>
+        <v>0.80760230726267657</v>
       </c>
       <c r="G81" s="3">
-        <v>0.56159491735998202</v>
+        <v>0.73251908054229453</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.66364787354413002</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="5"/>
@@ -12180,22 +12917,25 @@
         <v>50</v>
       </c>
       <c r="B82" s="3">
-        <v>0.98006738938989491</v>
+        <v>0.98281055209777934</v>
       </c>
       <c r="C82" s="3">
-        <v>0.94620710164120836</v>
+        <v>0.99562803984730208</v>
       </c>
       <c r="D82" s="3">
-        <v>0.89319797432985015</v>
+        <v>0.95950449491237233</v>
       </c>
       <c r="E82" s="3">
-        <v>0.85548896401017627</v>
+        <v>0.92804988331753324</v>
       </c>
       <c r="F82" s="3">
-        <v>0.77624481136030021</v>
+        <v>0.88977194287568273</v>
       </c>
       <c r="G82" s="3">
-        <v>0.67082517577683354</v>
+        <v>0.83272003941767436</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.79226007689068789</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="5"/>
@@ -12206,22 +12946,25 @@
         <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>0.97919973169364705</v>
+        <v>0.9856132767080219</v>
       </c>
       <c r="C83" s="3">
-        <v>0.97920829559420564</v>
+        <v>0.99459339373028344</v>
       </c>
       <c r="D83" s="3">
-        <v>0.9288477387714108</v>
+        <v>0.99293714147228818</v>
       </c>
       <c r="E83" s="3">
-        <v>0.91185857540193782</v>
+        <v>0.96503492410182168</v>
       </c>
       <c r="F83" s="3">
-        <v>0.86699181477439047</v>
+        <v>0.94924082404286414</v>
       </c>
       <c r="G83" s="3">
-        <v>0.76360377615819475</v>
+        <v>0.92955748141434891</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.90154024511062614</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="5"/>
@@ -12232,22 +12975,25 @@
         <v>100</v>
       </c>
       <c r="B84" s="3">
-        <v>0.9847177068466102</v>
+        <v>0.99996357909926592</v>
       </c>
       <c r="C84" s="3">
-        <v>0.98634095709848846</v>
+        <v>1.0001128216589359</v>
       </c>
       <c r="D84" s="3">
-        <v>0.96314217799839974</v>
+        <v>1.0000487309014334</v>
       </c>
       <c r="E84" s="3">
-        <v>0.96140159941158898</v>
+        <v>1.000208410407349</v>
       </c>
       <c r="F84" s="3">
-        <v>0.93369504798668124</v>
+        <v>1.0002247097244621</v>
       </c>
       <c r="G84" s="3">
-        <v>0.84794956472411509</v>
+        <v>1.0005068847468597</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1.0004565321271099</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="5"/>
@@ -13355,12 +14101,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D11:J11"/>
@@ -13368,6 +14108,12 @@
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
